--- a/Items Monstera.xlsx
+++ b/Items Monstera.xlsx
@@ -5,19 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f9055710c5e3c483/Documents/Universität Tübingen/Masterarbeit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f9055710c5e3c483/Documents/Monstera/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{8E6482B4-6D64-4E3A-AAE1-966F7251B445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{879A9620-C772-4D59-BA6C-1158EE810027}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="8_{8E6482B4-6D64-4E3A-AAE1-966F7251B445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7863E39-6937-4FE7-93E8-70C336801F7D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A2520A3A-2C53-47A9-9216-2F4E40D570BD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Kopie Items" sheetId="2" r:id="rId1"/>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
+    <sheet name="Experiment 1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">'Kopie Items'!$A$1:$K$181</definedName>
+    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">'Experiment 1'!$A$1:$K$181</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="201">
   <si>
     <t>Item</t>
   </si>
@@ -642,13 +641,22 @@
   </si>
   <si>
     <t xml:space="preserve">Dieter darf nächstes Jahr in Rente. Sein Leben lang hat er gearbeitet. Er freut sich bereits auf viel Lesen, Wandern und vor allem Malen. </t>
+  </si>
+  <si>
+    <t>Fortsetzung</t>
+  </si>
+  <si>
+    <t>stellt sich als Fälschung heraus.</t>
+  </si>
+  <si>
+    <t>erhält sie einen positiven Covid-Test.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -656,13 +664,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -726,7 +761,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -737,6 +772,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1116,10 +1161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F935875C-1217-4EF1-B3EC-ADF1C73B1192}">
-  <dimension ref="A1:K181"/>
+  <dimension ref="A1:M563"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A176" sqref="A176:XFD181"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1135,9 +1180,10 @@
     <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.5703125" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1171,8 +1217,11 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M1" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1206,8 +1255,9 @@
       <c r="K2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M2" s="14"/>
+    </row>
+    <row r="3" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1241,8 +1291,9 @@
       <c r="K3" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1276,8 +1327,9 @@
       <c r="K4" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="15"/>
+    </row>
+    <row r="5" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -1311,8 +1363,9 @@
       <c r="K5" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="15"/>
+    </row>
+    <row r="6" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -1346,8 +1399,9 @@
       <c r="K6" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M6" s="15"/>
+    </row>
+    <row r="7" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>1</v>
       </c>
@@ -1381,9 +1435,10 @@
       <c r="K7" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="M7" s="16"/>
+    </row>
+    <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
         <v>2</v>
       </c>
       <c r="B8" s="2">
@@ -1416,9 +1471,10 @@
       <c r="K8" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="M8" s="14"/>
+    </row>
+    <row r="9" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
         <v>2</v>
       </c>
       <c r="B9" s="5">
@@ -1451,9 +1507,10 @@
       <c r="K9" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="M9" s="15"/>
+    </row>
+    <row r="10" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
         <v>2</v>
       </c>
       <c r="B10" s="5">
@@ -1486,9 +1543,10 @@
       <c r="K10" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="M10" s="15"/>
+    </row>
+    <row r="11" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
         <v>2</v>
       </c>
       <c r="B11" s="5">
@@ -1521,9 +1579,10 @@
       <c r="K11" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="M11" s="15"/>
+    </row>
+    <row r="12" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
         <v>2</v>
       </c>
       <c r="B12" s="5">
@@ -1556,9 +1615,10 @@
       <c r="K12" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+      <c r="M12" s="15"/>
+    </row>
+    <row r="13" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
         <v>2</v>
       </c>
       <c r="B13" s="8">
@@ -1591,8 +1651,9 @@
       <c r="K13" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M13" s="16"/>
+    </row>
+    <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -1626,8 +1687,9 @@
       <c r="K14" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M14" s="14"/>
+    </row>
+    <row r="15" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>3</v>
       </c>
@@ -1661,8 +1723,9 @@
       <c r="K15" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M15" s="15"/>
+    </row>
+    <row r="16" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>3</v>
       </c>
@@ -1696,8 +1759,9 @@
       <c r="K16" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M16" s="15"/>
+    </row>
+    <row r="17" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>3</v>
       </c>
@@ -1731,8 +1795,9 @@
       <c r="K17" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M17" s="15"/>
+    </row>
+    <row r="18" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>3</v>
       </c>
@@ -1766,8 +1831,9 @@
       <c r="K18" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M18" s="15"/>
+    </row>
+    <row r="19" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>3</v>
       </c>
@@ -1801,8 +1867,9 @@
       <c r="K19" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="16"/>
+    </row>
+    <row r="20" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>4</v>
       </c>
@@ -1836,8 +1903,9 @@
       <c r="K20" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M20" s="14"/>
+    </row>
+    <row r="21" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>4</v>
       </c>
@@ -1871,8 +1939,9 @@
       <c r="K21" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M21" s="15"/>
+    </row>
+    <row r="22" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>4</v>
       </c>
@@ -1906,8 +1975,9 @@
       <c r="K22" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="15"/>
+    </row>
+    <row r="23" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>4</v>
       </c>
@@ -1941,8 +2011,9 @@
       <c r="K23" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M23" s="15"/>
+    </row>
+    <row r="24" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>4</v>
       </c>
@@ -1976,8 +2047,9 @@
       <c r="K24" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M24" s="15"/>
+    </row>
+    <row r="25" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>4</v>
       </c>
@@ -2011,8 +2083,9 @@
       <c r="K25" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M25" s="16"/>
+    </row>
+    <row r="26" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>5</v>
       </c>
@@ -2046,8 +2119,9 @@
       <c r="K26" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M26" s="14"/>
+    </row>
+    <row r="27" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>5</v>
       </c>
@@ -2081,8 +2155,9 @@
       <c r="K27" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M27" s="15"/>
+    </row>
+    <row r="28" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>5</v>
       </c>
@@ -2116,8 +2191,9 @@
       <c r="K28" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M28" s="15"/>
+    </row>
+    <row r="29" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>5</v>
       </c>
@@ -2151,8 +2227,9 @@
       <c r="K29" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M29" s="15"/>
+    </row>
+    <row r="30" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>5</v>
       </c>
@@ -2186,8 +2263,9 @@
       <c r="K30" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M30" s="15"/>
+    </row>
+    <row r="31" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>5</v>
       </c>
@@ -2221,9 +2299,10 @@
       <c r="K31" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="M31" s="16"/>
+    </row>
+    <row r="32" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
         <v>6</v>
       </c>
       <c r="B32" s="2">
@@ -2256,9 +2335,10 @@
       <c r="K32" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="M32" s="14"/>
+    </row>
+    <row r="33" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
         <v>6</v>
       </c>
       <c r="B33" s="5">
@@ -2291,9 +2371,10 @@
       <c r="K33" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="M33" s="15"/>
+    </row>
+    <row r="34" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
         <v>6</v>
       </c>
       <c r="B34" s="5">
@@ -2326,9 +2407,10 @@
       <c r="K34" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="M34" s="15"/>
+    </row>
+    <row r="35" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
         <v>6</v>
       </c>
       <c r="B35" s="5">
@@ -2361,9 +2443,10 @@
       <c r="K35" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+      <c r="M35" s="15"/>
+    </row>
+    <row r="36" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
         <v>6</v>
       </c>
       <c r="B36" s="5">
@@ -2396,9 +2479,10 @@
       <c r="K36" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="7">
+      <c r="M36" s="15"/>
+    </row>
+    <row r="37" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="12">
         <v>6</v>
       </c>
       <c r="B37" s="8">
@@ -2431,8 +2515,9 @@
       <c r="K37" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M37" s="16"/>
+    </row>
+    <row r="38" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>7</v>
       </c>
@@ -2466,8 +2551,9 @@
       <c r="K38" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M38" s="14"/>
+    </row>
+    <row r="39" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>7</v>
       </c>
@@ -2501,8 +2587,9 @@
       <c r="K39" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M39" s="15"/>
+    </row>
+    <row r="40" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>7</v>
       </c>
@@ -2536,8 +2623,9 @@
       <c r="K40" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M40" s="15"/>
+    </row>
+    <row r="41" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>7</v>
       </c>
@@ -2571,8 +2659,9 @@
       <c r="K41" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M41" s="15"/>
+    </row>
+    <row r="42" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>7</v>
       </c>
@@ -2606,8 +2695,9 @@
       <c r="K42" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M42" s="15"/>
+    </row>
+    <row r="43" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>7</v>
       </c>
@@ -2641,8 +2731,9 @@
       <c r="K43" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M43" s="16"/>
+    </row>
+    <row r="44" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>8</v>
       </c>
@@ -2676,8 +2767,9 @@
       <c r="K44" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M44" s="14"/>
+    </row>
+    <row r="45" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>8</v>
       </c>
@@ -2711,8 +2803,9 @@
       <c r="K45" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M45" s="15"/>
+    </row>
+    <row r="46" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>8</v>
       </c>
@@ -2746,8 +2839,9 @@
       <c r="K46" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M46" s="15"/>
+    </row>
+    <row r="47" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>8</v>
       </c>
@@ -2781,8 +2875,9 @@
       <c r="K47" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M47" s="15"/>
+    </row>
+    <row r="48" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>8</v>
       </c>
@@ -2816,8 +2911,9 @@
       <c r="K48" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M48" s="15"/>
+    </row>
+    <row r="49" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <v>8</v>
       </c>
@@ -2851,8 +2947,9 @@
       <c r="K49" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M49" s="15"/>
+    </row>
+    <row r="50" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>9</v>
       </c>
@@ -2886,8 +2983,11 @@
       <c r="K50" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M50" s="15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>9</v>
       </c>
@@ -2921,8 +3021,11 @@
       <c r="K51" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M51" s="15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>9</v>
       </c>
@@ -2956,8 +3059,11 @@
       <c r="K52" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M52" s="15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>9</v>
       </c>
@@ -2991,8 +3097,11 @@
       <c r="K53" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M53" s="15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>9</v>
       </c>
@@ -3026,8 +3135,11 @@
       <c r="K54" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M54" s="15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
         <v>9</v>
       </c>
@@ -3061,8 +3173,11 @@
       <c r="K55" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M55" s="15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>10</v>
       </c>
@@ -3096,8 +3211,9 @@
       <c r="K56" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M56" s="15"/>
+    </row>
+    <row r="57" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>10</v>
       </c>
@@ -3131,8 +3247,9 @@
       <c r="K57" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M57" s="15"/>
+    </row>
+    <row r="58" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>10</v>
       </c>
@@ -3166,8 +3283,9 @@
       <c r="K58" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M58" s="15"/>
+    </row>
+    <row r="59" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>10</v>
       </c>
@@ -3201,8 +3319,9 @@
       <c r="K59" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M59" s="15"/>
+    </row>
+    <row r="60" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>10</v>
       </c>
@@ -3236,8 +3355,9 @@
       <c r="K60" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M60" s="15"/>
+    </row>
+    <row r="61" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
         <v>10</v>
       </c>
@@ -3271,8 +3391,9 @@
       <c r="K61" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M61" s="16"/>
+    </row>
+    <row r="62" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>11</v>
       </c>
@@ -3306,8 +3427,9 @@
       <c r="K62" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M62" s="14"/>
+    </row>
+    <row r="63" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>11</v>
       </c>
@@ -3341,8 +3463,9 @@
       <c r="K63" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M63" s="15"/>
+    </row>
+    <row r="64" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>11</v>
       </c>
@@ -3376,8 +3499,9 @@
       <c r="K64" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M64" s="15"/>
+    </row>
+    <row r="65" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>11</v>
       </c>
@@ -3411,8 +3535,9 @@
       <c r="K65" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M65" s="15"/>
+    </row>
+    <row r="66" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>11</v>
       </c>
@@ -3446,8 +3571,9 @@
       <c r="K66" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M66" s="15"/>
+    </row>
+    <row r="67" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
         <v>11</v>
       </c>
@@ -3481,8 +3607,9 @@
       <c r="K67" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M67" s="16"/>
+    </row>
+    <row r="68" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>12</v>
       </c>
@@ -3516,8 +3643,9 @@
       <c r="K68" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M68" s="14"/>
+    </row>
+    <row r="69" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>12</v>
       </c>
@@ -3551,8 +3679,9 @@
       <c r="K69" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M69" s="15"/>
+    </row>
+    <row r="70" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>12</v>
       </c>
@@ -3586,8 +3715,9 @@
       <c r="K70" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M70" s="15"/>
+    </row>
+    <row r="71" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>12</v>
       </c>
@@ -3621,8 +3751,9 @@
       <c r="K71" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M71" s="15"/>
+    </row>
+    <row r="72" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>12</v>
       </c>
@@ -3656,8 +3787,9 @@
       <c r="K72" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M72" s="15"/>
+    </row>
+    <row r="73" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
         <v>12</v>
       </c>
@@ -3691,8 +3823,9 @@
       <c r="K73" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M73" s="16"/>
+    </row>
+    <row r="74" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>13</v>
       </c>
@@ -3726,8 +3859,9 @@
       <c r="K74" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M74" s="14"/>
+    </row>
+    <row r="75" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>13</v>
       </c>
@@ -3761,8 +3895,9 @@
       <c r="K75" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M75" s="15"/>
+    </row>
+    <row r="76" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>13</v>
       </c>
@@ -3796,8 +3931,9 @@
       <c r="K76" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M76" s="15"/>
+    </row>
+    <row r="77" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>13</v>
       </c>
@@ -3831,8 +3967,9 @@
       <c r="K77" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M77" s="15"/>
+    </row>
+    <row r="78" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>13</v>
       </c>
@@ -3866,8 +4003,9 @@
       <c r="K78" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M78" s="15"/>
+    </row>
+    <row r="79" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="7">
         <v>13</v>
       </c>
@@ -3901,8 +4039,9 @@
       <c r="K79" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M79" s="16"/>
+    </row>
+    <row r="80" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>14</v>
       </c>
@@ -3936,8 +4075,9 @@
       <c r="K80" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M80" s="14"/>
+    </row>
+    <row r="81" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>14</v>
       </c>
@@ -3971,8 +4111,9 @@
       <c r="K81" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M81" s="15"/>
+    </row>
+    <row r="82" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>14</v>
       </c>
@@ -4006,8 +4147,9 @@
       <c r="K82" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M82" s="15"/>
+    </row>
+    <row r="83" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>14</v>
       </c>
@@ -4041,8 +4183,9 @@
       <c r="K83" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M83" s="15"/>
+    </row>
+    <row r="84" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>14</v>
       </c>
@@ -4076,8 +4219,9 @@
       <c r="K84" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M84" s="15"/>
+    </row>
+    <row r="85" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7">
         <v>14</v>
       </c>
@@ -4111,8 +4255,9 @@
       <c r="K85" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M85" s="16"/>
+    </row>
+    <row r="86" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>15</v>
       </c>
@@ -4146,8 +4291,9 @@
       <c r="K86" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M86" s="14"/>
+    </row>
+    <row r="87" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>15</v>
       </c>
@@ -4181,8 +4327,9 @@
       <c r="K87" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M87" s="15"/>
+    </row>
+    <row r="88" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>15</v>
       </c>
@@ -4216,8 +4363,9 @@
       <c r="K88" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M88" s="15"/>
+    </row>
+    <row r="89" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>15</v>
       </c>
@@ -4251,8 +4399,9 @@
       <c r="K89" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M89" s="15"/>
+    </row>
+    <row r="90" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>15</v>
       </c>
@@ -4286,8 +4435,9 @@
       <c r="K90" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M90" s="15"/>
+    </row>
+    <row r="91" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7">
         <v>15</v>
       </c>
@@ -4321,8 +4471,9 @@
       <c r="K91" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M91" s="16"/>
+    </row>
+    <row r="92" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>16</v>
       </c>
@@ -4356,8 +4507,9 @@
       <c r="K92" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M92" s="14"/>
+    </row>
+    <row r="93" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>16</v>
       </c>
@@ -4391,8 +4543,9 @@
       <c r="K93" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M93" s="15"/>
+    </row>
+    <row r="94" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>16</v>
       </c>
@@ -4426,8 +4579,9 @@
       <c r="K94" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M94" s="15"/>
+    </row>
+    <row r="95" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>16</v>
       </c>
@@ -4461,8 +4615,9 @@
       <c r="K95" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M95" s="15"/>
+    </row>
+    <row r="96" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>16</v>
       </c>
@@ -4496,8 +4651,9 @@
       <c r="K96" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M96" s="15"/>
+    </row>
+    <row r="97" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="7">
         <v>16</v>
       </c>
@@ -4531,8 +4687,9 @@
       <c r="K97" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M97" s="16"/>
+    </row>
+    <row r="98" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>17</v>
       </c>
@@ -4566,8 +4723,9 @@
       <c r="K98" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M98" s="14"/>
+    </row>
+    <row r="99" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>17</v>
       </c>
@@ -4601,8 +4759,9 @@
       <c r="K99" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M99" s="15"/>
+    </row>
+    <row r="100" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>17</v>
       </c>
@@ -4636,8 +4795,9 @@
       <c r="K100" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M100" s="15"/>
+    </row>
+    <row r="101" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>17</v>
       </c>
@@ -4671,8 +4831,9 @@
       <c r="K101" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M101" s="15"/>
+    </row>
+    <row r="102" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>17</v>
       </c>
@@ -4706,8 +4867,9 @@
       <c r="K102" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M102" s="15"/>
+    </row>
+    <row r="103" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="7">
         <v>17</v>
       </c>
@@ -4741,8 +4903,9 @@
       <c r="K103" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M103" s="15"/>
+    </row>
+    <row r="104" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>18</v>
       </c>
@@ -4776,8 +4939,11 @@
       <c r="K104" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M104" s="17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>18</v>
       </c>
@@ -4811,8 +4977,11 @@
       <c r="K105" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M105" s="17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>18</v>
       </c>
@@ -4846,8 +5015,11 @@
       <c r="K106" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M106" s="17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>18</v>
       </c>
@@ -4881,8 +5053,11 @@
       <c r="K107" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M107" s="17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>18</v>
       </c>
@@ -4916,8 +5091,11 @@
       <c r="K108" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M108" s="17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="7">
         <v>18</v>
       </c>
@@ -4951,8 +5129,11 @@
       <c r="K109" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M109" s="17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>19</v>
       </c>
@@ -4986,8 +5167,9 @@
       <c r="K110" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M110" s="15"/>
+    </row>
+    <row r="111" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>19</v>
       </c>
@@ -5021,8 +5203,9 @@
       <c r="K111" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M111" s="15"/>
+    </row>
+    <row r="112" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>19</v>
       </c>
@@ -5056,8 +5239,9 @@
       <c r="K112" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M112" s="15"/>
+    </row>
+    <row r="113" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>19</v>
       </c>
@@ -5091,8 +5275,9 @@
       <c r="K113" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M113" s="15"/>
+    </row>
+    <row r="114" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>19</v>
       </c>
@@ -5126,8 +5311,9 @@
       <c r="K114" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M114" s="15"/>
+    </row>
+    <row r="115" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="7">
         <v>19</v>
       </c>
@@ -5161,8 +5347,9 @@
       <c r="K115" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M115" s="16"/>
+    </row>
+    <row r="116" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>20</v>
       </c>
@@ -5196,8 +5383,9 @@
       <c r="K116" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M116" s="14"/>
+    </row>
+    <row r="117" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>20</v>
       </c>
@@ -5231,8 +5419,9 @@
       <c r="K117" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M117" s="15"/>
+    </row>
+    <row r="118" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>20</v>
       </c>
@@ -5266,8 +5455,9 @@
       <c r="K118" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M118" s="15"/>
+    </row>
+    <row r="119" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>20</v>
       </c>
@@ -5301,8 +5491,9 @@
       <c r="K119" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M119" s="15"/>
+    </row>
+    <row r="120" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>20</v>
       </c>
@@ -5336,8 +5527,9 @@
       <c r="K120" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M120" s="15"/>
+    </row>
+    <row r="121" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="7">
         <v>20</v>
       </c>
@@ -5371,8 +5563,9 @@
       <c r="K121" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M121" s="16"/>
+    </row>
+    <row r="122" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>21</v>
       </c>
@@ -5406,8 +5599,9 @@
       <c r="K122" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M122" s="14"/>
+    </row>
+    <row r="123" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>21</v>
       </c>
@@ -5441,8 +5635,9 @@
       <c r="K123" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M123" s="15"/>
+    </row>
+    <row r="124" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>21</v>
       </c>
@@ -5476,8 +5671,9 @@
       <c r="K124" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M124" s="15"/>
+    </row>
+    <row r="125" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>21</v>
       </c>
@@ -5511,8 +5707,9 @@
       <c r="K125" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M125" s="15"/>
+    </row>
+    <row r="126" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>21</v>
       </c>
@@ -5546,8 +5743,9 @@
       <c r="K126" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M126" s="15"/>
+    </row>
+    <row r="127" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="7">
         <v>21</v>
       </c>
@@ -5581,8 +5779,9 @@
       <c r="K127" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M127" s="16"/>
+    </row>
+    <row r="128" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>22</v>
       </c>
@@ -5616,8 +5815,9 @@
       <c r="K128" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M128" s="14"/>
+    </row>
+    <row r="129" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>22</v>
       </c>
@@ -5651,8 +5851,9 @@
       <c r="K129" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M129" s="15"/>
+    </row>
+    <row r="130" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>22</v>
       </c>
@@ -5686,8 +5887,9 @@
       <c r="K130" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M130" s="15"/>
+    </row>
+    <row r="131" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>22</v>
       </c>
@@ -5721,8 +5923,9 @@
       <c r="K131" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M131" s="15"/>
+    </row>
+    <row r="132" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>22</v>
       </c>
@@ -5756,8 +5959,9 @@
       <c r="K132" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M132" s="15"/>
+    </row>
+    <row r="133" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="7">
         <v>22</v>
       </c>
@@ -5791,8 +5995,9 @@
       <c r="K133" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M133" s="16"/>
+    </row>
+    <row r="134" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>23</v>
       </c>
@@ -5826,8 +6031,9 @@
       <c r="K134" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M134" s="14"/>
+    </row>
+    <row r="135" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>23</v>
       </c>
@@ -5861,8 +6067,9 @@
       <c r="K135" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M135" s="15"/>
+    </row>
+    <row r="136" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>23</v>
       </c>
@@ -5896,8 +6103,9 @@
       <c r="K136" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M136" s="15"/>
+    </row>
+    <row r="137" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>23</v>
       </c>
@@ -5931,8 +6139,9 @@
       <c r="K137" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M137" s="15"/>
+    </row>
+    <row r="138" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>23</v>
       </c>
@@ -5966,8 +6175,9 @@
       <c r="K138" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M138" s="15"/>
+    </row>
+    <row r="139" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="7">
         <v>23</v>
       </c>
@@ -6001,8 +6211,9 @@
       <c r="K139" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M139" s="16"/>
+    </row>
+    <row r="140" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>24</v>
       </c>
@@ -6036,8 +6247,9 @@
       <c r="K140" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M140" s="14"/>
+    </row>
+    <row r="141" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>24</v>
       </c>
@@ -6071,8 +6283,9 @@
       <c r="K141" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M141" s="15"/>
+    </row>
+    <row r="142" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>24</v>
       </c>
@@ -6106,8 +6319,9 @@
       <c r="K142" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M142" s="15"/>
+    </row>
+    <row r="143" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>24</v>
       </c>
@@ -6141,8 +6355,9 @@
       <c r="K143" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M143" s="15"/>
+    </row>
+    <row r="144" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>24</v>
       </c>
@@ -6176,8 +6391,9 @@
       <c r="K144" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M144" s="15"/>
+    </row>
+    <row r="145" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="7">
         <v>24</v>
       </c>
@@ -6211,9 +6427,10 @@
       <c r="K145" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
+      <c r="M145" s="16"/>
+    </row>
+    <row r="146" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="10">
         <v>25</v>
       </c>
       <c r="B146" s="2">
@@ -6246,9 +6463,10 @@
       <c r="K146" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="4">
+      <c r="M146" s="14"/>
+    </row>
+    <row r="147" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="11">
         <v>25</v>
       </c>
       <c r="B147" s="5">
@@ -6281,9 +6499,10 @@
       <c r="K147" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="4">
+      <c r="M147" s="15"/>
+    </row>
+    <row r="148" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="11">
         <v>25</v>
       </c>
       <c r="B148" s="5">
@@ -6316,9 +6535,10 @@
       <c r="K148" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="4">
+      <c r="M148" s="15"/>
+    </row>
+    <row r="149" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="11">
         <v>25</v>
       </c>
       <c r="B149" s="5">
@@ -6351,9 +6571,10 @@
       <c r="K149" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="4">
+      <c r="M149" s="15"/>
+    </row>
+    <row r="150" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="11">
         <v>25</v>
       </c>
       <c r="B150" s="5">
@@ -6386,9 +6607,10 @@
       <c r="K150" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="151" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="7">
+      <c r="M150" s="15"/>
+    </row>
+    <row r="151" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="12">
         <v>25</v>
       </c>
       <c r="B151" s="8">
@@ -6421,8 +6643,9 @@
       <c r="K151" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M151" s="16"/>
+    </row>
+    <row r="152" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>26</v>
       </c>
@@ -6456,8 +6679,9 @@
       <c r="K152" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="153" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M152" s="14"/>
+    </row>
+    <row r="153" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>26</v>
       </c>
@@ -6491,8 +6715,9 @@
       <c r="K153" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M153" s="15"/>
+    </row>
+    <row r="154" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>26</v>
       </c>
@@ -6526,8 +6751,9 @@
       <c r="K154" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M154" s="15"/>
+    </row>
+    <row r="155" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>26</v>
       </c>
@@ -6561,8 +6787,9 @@
       <c r="K155" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M155" s="15"/>
+    </row>
+    <row r="156" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>26</v>
       </c>
@@ -6596,8 +6823,9 @@
       <c r="K156" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M156" s="15"/>
+    </row>
+    <row r="157" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="7">
         <v>26</v>
       </c>
@@ -6631,8 +6859,9 @@
       <c r="K157" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M157" s="16"/>
+    </row>
+    <row r="158" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>27</v>
       </c>
@@ -6666,8 +6895,9 @@
       <c r="K158" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M158" s="14"/>
+    </row>
+    <row r="159" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>27</v>
       </c>
@@ -6701,8 +6931,9 @@
       <c r="K159" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M159" s="15"/>
+    </row>
+    <row r="160" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>27</v>
       </c>
@@ -6736,8 +6967,9 @@
       <c r="K160" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M160" s="15"/>
+    </row>
+    <row r="161" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>27</v>
       </c>
@@ -6771,8 +7003,9 @@
       <c r="K161" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M161" s="15"/>
+    </row>
+    <row r="162" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>27</v>
       </c>
@@ -6806,8 +7039,9 @@
       <c r="K162" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M162" s="15"/>
+    </row>
+    <row r="163" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="7">
         <v>27</v>
       </c>
@@ -6841,8 +7075,9 @@
       <c r="K163" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="164" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M163" s="16"/>
+    </row>
+    <row r="164" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>28</v>
       </c>
@@ -6876,8 +7111,9 @@
       <c r="K164" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M164" s="14"/>
+    </row>
+    <row r="165" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>28</v>
       </c>
@@ -6911,8 +7147,9 @@
       <c r="K165" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M165" s="15"/>
+    </row>
+    <row r="166" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>28</v>
       </c>
@@ -6946,8 +7183,9 @@
       <c r="K166" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M166" s="15"/>
+    </row>
+    <row r="167" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>28</v>
       </c>
@@ -6981,8 +7219,9 @@
       <c r="K167" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M167" s="15"/>
+    </row>
+    <row r="168" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>28</v>
       </c>
@@ -7016,8 +7255,9 @@
       <c r="K168" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M168" s="15"/>
+    </row>
+    <row r="169" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="7">
         <v>28</v>
       </c>
@@ -7051,8 +7291,9 @@
       <c r="K169" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M169" s="16"/>
+    </row>
+    <row r="170" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>29</v>
       </c>
@@ -7086,8 +7327,9 @@
       <c r="K170" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M170" s="14"/>
+    </row>
+    <row r="171" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>29</v>
       </c>
@@ -7121,8 +7363,9 @@
       <c r="K171" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="172" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M171" s="15"/>
+    </row>
+    <row r="172" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>29</v>
       </c>
@@ -7156,8 +7399,9 @@
       <c r="K172" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M172" s="15"/>
+    </row>
+    <row r="173" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>29</v>
       </c>
@@ -7191,8 +7435,9 @@
       <c r="K173" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="174" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M173" s="15"/>
+    </row>
+    <row r="174" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>29</v>
       </c>
@@ -7226,8 +7471,9 @@
       <c r="K174" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="175" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M174" s="15"/>
+    </row>
+    <row r="175" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="7">
         <v>29</v>
       </c>
@@ -7261,9 +7507,10 @@
       <c r="K175" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="176" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="1">
+      <c r="M175" s="16"/>
+    </row>
+    <row r="176" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="10">
         <v>30</v>
       </c>
       <c r="B176" s="2">
@@ -7296,9 +7543,10 @@
       <c r="K176" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="177" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="4">
+      <c r="M176" s="14"/>
+    </row>
+    <row r="177" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="11">
         <v>30</v>
       </c>
       <c r="B177" s="5">
@@ -7331,9 +7579,10 @@
       <c r="K177" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="4">
+      <c r="M177" s="15"/>
+    </row>
+    <row r="178" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="11">
         <v>30</v>
       </c>
       <c r="B178" s="5">
@@ -7366,9 +7615,10 @@
       <c r="K178" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="179" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="4">
+      <c r="M178" s="15"/>
+    </row>
+    <row r="179" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="11">
         <v>30</v>
       </c>
       <c r="B179" s="5">
@@ -7401,9 +7651,10 @@
       <c r="K179" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="180" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="4">
+      <c r="M179" s="15"/>
+    </row>
+    <row r="180" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="11">
         <v>30</v>
       </c>
       <c r="B180" s="5">
@@ -7436,9 +7687,10 @@
       <c r="K180" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="181" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="7">
+      <c r="M180" s="15"/>
+    </row>
+    <row r="181" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="12">
         <v>30</v>
       </c>
       <c r="B181" s="8">
@@ -7471,26 +7723,1160 @@
       <c r="K181" s="8">
         <v>5</v>
       </c>
+      <c r="M181" s="16"/>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M182" s="19"/>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M183" s="19"/>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M184" s="19"/>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M185" s="19"/>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M186" s="19"/>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M187" s="19"/>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M188" s="19"/>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M189" s="19"/>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M190" s="19"/>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M191" s="19"/>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M192" s="19"/>
+    </row>
+    <row r="193" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M193" s="19"/>
+    </row>
+    <row r="194" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M194" s="19"/>
+    </row>
+    <row r="195" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M195" s="19"/>
+    </row>
+    <row r="196" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M196" s="19"/>
+    </row>
+    <row r="197" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M197" s="19"/>
+    </row>
+    <row r="198" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M198" s="19"/>
+    </row>
+    <row r="199" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M199" s="19"/>
+    </row>
+    <row r="200" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M200" s="19"/>
+    </row>
+    <row r="201" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M201" s="19"/>
+    </row>
+    <row r="202" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M202" s="19"/>
+    </row>
+    <row r="203" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M203" s="19"/>
+    </row>
+    <row r="204" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M204" s="19"/>
+    </row>
+    <row r="205" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M205" s="19"/>
+    </row>
+    <row r="206" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M206" s="19"/>
+    </row>
+    <row r="207" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M207" s="19"/>
+    </row>
+    <row r="208" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M208" s="19"/>
+    </row>
+    <row r="209" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M209" s="19"/>
+    </row>
+    <row r="210" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M210" s="19"/>
+    </row>
+    <row r="211" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M211" s="19"/>
+    </row>
+    <row r="212" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M212" s="19"/>
+    </row>
+    <row r="213" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M213" s="19"/>
+    </row>
+    <row r="214" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M214" s="19"/>
+    </row>
+    <row r="215" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M215" s="19"/>
+    </row>
+    <row r="216" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M216" s="19"/>
+    </row>
+    <row r="217" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M217" s="19"/>
+    </row>
+    <row r="218" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M218" s="19"/>
+    </row>
+    <row r="219" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M219" s="19"/>
+    </row>
+    <row r="220" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M220" s="19"/>
+    </row>
+    <row r="221" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M221" s="19"/>
+    </row>
+    <row r="222" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M222" s="19"/>
+    </row>
+    <row r="223" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M223" s="19"/>
+    </row>
+    <row r="224" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M224" s="19"/>
+    </row>
+    <row r="225" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M225" s="19"/>
+    </row>
+    <row r="226" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M226" s="19"/>
+    </row>
+    <row r="227" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M227" s="19"/>
+    </row>
+    <row r="228" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M228" s="19"/>
+    </row>
+    <row r="229" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M229" s="19"/>
+    </row>
+    <row r="230" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M230" s="19"/>
+    </row>
+    <row r="231" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M231" s="19"/>
+    </row>
+    <row r="232" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M232" s="19"/>
+    </row>
+    <row r="233" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M233" s="19"/>
+    </row>
+    <row r="234" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M234" s="19"/>
+    </row>
+    <row r="235" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M235" s="19"/>
+    </row>
+    <row r="236" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M236" s="19"/>
+    </row>
+    <row r="237" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M237" s="19"/>
+    </row>
+    <row r="238" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M238" s="19"/>
+    </row>
+    <row r="239" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M239" s="19"/>
+    </row>
+    <row r="240" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M240" s="19"/>
+    </row>
+    <row r="241" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M241" s="19"/>
+    </row>
+    <row r="242" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M242" s="19"/>
+    </row>
+    <row r="243" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M243" s="19"/>
+    </row>
+    <row r="244" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M244" s="19"/>
+    </row>
+    <row r="245" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M245" s="19"/>
+    </row>
+    <row r="246" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M246" s="19"/>
+    </row>
+    <row r="247" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M247" s="19"/>
+    </row>
+    <row r="248" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M248" s="19"/>
+    </row>
+    <row r="249" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M249" s="19"/>
+    </row>
+    <row r="250" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M250" s="19"/>
+    </row>
+    <row r="251" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M251" s="19"/>
+    </row>
+    <row r="252" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M252" s="19"/>
+    </row>
+    <row r="253" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M253" s="19"/>
+    </row>
+    <row r="254" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M254" s="19"/>
+    </row>
+    <row r="255" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M255" s="19"/>
+    </row>
+    <row r="256" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M256" s="19"/>
+    </row>
+    <row r="257" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M257" s="19"/>
+    </row>
+    <row r="258" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M258" s="19"/>
+    </row>
+    <row r="259" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M259" s="19"/>
+    </row>
+    <row r="260" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M260" s="19"/>
+    </row>
+    <row r="261" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M261" s="19"/>
+    </row>
+    <row r="262" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M262" s="19"/>
+    </row>
+    <row r="263" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M263" s="19"/>
+    </row>
+    <row r="264" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M264" s="19"/>
+    </row>
+    <row r="265" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M265" s="19"/>
+    </row>
+    <row r="266" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M266" s="19"/>
+    </row>
+    <row r="267" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M267" s="19"/>
+    </row>
+    <row r="268" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M268" s="19"/>
+    </row>
+    <row r="269" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M269" s="19"/>
+    </row>
+    <row r="270" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M270" s="19"/>
+    </row>
+    <row r="271" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M271" s="19"/>
+    </row>
+    <row r="272" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M272" s="19"/>
+    </row>
+    <row r="273" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M273" s="19"/>
+    </row>
+    <row r="274" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M274" s="19"/>
+    </row>
+    <row r="275" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M275" s="19"/>
+    </row>
+    <row r="276" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M276" s="19"/>
+    </row>
+    <row r="277" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M277" s="19"/>
+    </row>
+    <row r="278" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M278" s="19"/>
+    </row>
+    <row r="279" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M279" s="19"/>
+    </row>
+    <row r="280" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M280" s="19"/>
+    </row>
+    <row r="281" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M281" s="19"/>
+    </row>
+    <row r="282" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M282" s="19"/>
+    </row>
+    <row r="283" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M283" s="19"/>
+    </row>
+    <row r="284" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M284" s="19"/>
+    </row>
+    <row r="285" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M285" s="19"/>
+    </row>
+    <row r="286" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M286" s="19"/>
+    </row>
+    <row r="287" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M287" s="19"/>
+    </row>
+    <row r="288" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M288" s="19"/>
+    </row>
+    <row r="289" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M289" s="19"/>
+    </row>
+    <row r="290" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M290" s="19"/>
+    </row>
+    <row r="291" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M291" s="19"/>
+    </row>
+    <row r="292" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M292" s="19"/>
+    </row>
+    <row r="293" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M293" s="19"/>
+    </row>
+    <row r="294" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M294" s="19"/>
+    </row>
+    <row r="295" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M295" s="19"/>
+    </row>
+    <row r="296" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M296" s="19"/>
+    </row>
+    <row r="297" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M297" s="19"/>
+    </row>
+    <row r="298" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M298" s="19"/>
+    </row>
+    <row r="299" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M299" s="19"/>
+    </row>
+    <row r="300" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M300" s="19"/>
+    </row>
+    <row r="301" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M301" s="19"/>
+    </row>
+    <row r="302" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M302" s="19"/>
+    </row>
+    <row r="303" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M303" s="19"/>
+    </row>
+    <row r="304" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M304" s="19"/>
+    </row>
+    <row r="305" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M305" s="19"/>
+    </row>
+    <row r="306" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M306" s="19"/>
+    </row>
+    <row r="307" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M307" s="19"/>
+    </row>
+    <row r="308" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M308" s="19"/>
+    </row>
+    <row r="309" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M309" s="19"/>
+    </row>
+    <row r="310" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M310" s="19"/>
+    </row>
+    <row r="311" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M311" s="19"/>
+    </row>
+    <row r="312" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M312" s="19"/>
+    </row>
+    <row r="313" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M313" s="19"/>
+    </row>
+    <row r="314" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M314" s="19"/>
+    </row>
+    <row r="315" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M315" s="19"/>
+    </row>
+    <row r="316" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M316" s="19"/>
+    </row>
+    <row r="317" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M317" s="19"/>
+    </row>
+    <row r="318" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M318" s="19"/>
+    </row>
+    <row r="319" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M319" s="19"/>
+    </row>
+    <row r="320" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M320" s="19"/>
+    </row>
+    <row r="321" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M321" s="19"/>
+    </row>
+    <row r="322" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M322" s="19"/>
+    </row>
+    <row r="323" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M323" s="19"/>
+    </row>
+    <row r="324" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M324" s="19"/>
+    </row>
+    <row r="325" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M325" s="19"/>
+    </row>
+    <row r="326" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M326" s="19"/>
+    </row>
+    <row r="327" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M327" s="19"/>
+    </row>
+    <row r="328" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M328" s="19"/>
+    </row>
+    <row r="329" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M329" s="19"/>
+    </row>
+    <row r="330" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M330" s="19"/>
+    </row>
+    <row r="331" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M331" s="19"/>
+    </row>
+    <row r="332" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M332" s="19"/>
+    </row>
+    <row r="333" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M333" s="19"/>
+    </row>
+    <row r="334" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M334" s="19"/>
+    </row>
+    <row r="335" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M335" s="19"/>
+    </row>
+    <row r="336" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M336" s="19"/>
+    </row>
+    <row r="337" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M337" s="19"/>
+    </row>
+    <row r="338" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M338" s="19"/>
+    </row>
+    <row r="339" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M339" s="19"/>
+    </row>
+    <row r="340" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M340" s="19"/>
+    </row>
+    <row r="341" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M341" s="19"/>
+    </row>
+    <row r="342" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M342" s="19"/>
+    </row>
+    <row r="343" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M343" s="19"/>
+    </row>
+    <row r="344" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M344" s="19"/>
+    </row>
+    <row r="345" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M345" s="19"/>
+    </row>
+    <row r="346" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M346" s="19"/>
+    </row>
+    <row r="347" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M347" s="19"/>
+    </row>
+    <row r="348" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M348" s="19"/>
+    </row>
+    <row r="349" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M349" s="19"/>
+    </row>
+    <row r="350" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M350" s="19"/>
+    </row>
+    <row r="351" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M351" s="19"/>
+    </row>
+    <row r="352" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M352" s="19"/>
+    </row>
+    <row r="353" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M353" s="19"/>
+    </row>
+    <row r="354" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M354" s="19"/>
+    </row>
+    <row r="355" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M355" s="19"/>
+    </row>
+    <row r="356" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M356" s="19"/>
+    </row>
+    <row r="357" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M357" s="19"/>
+    </row>
+    <row r="358" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M358" s="19"/>
+    </row>
+    <row r="359" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M359" s="19"/>
+    </row>
+    <row r="360" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M360" s="19"/>
+    </row>
+    <row r="361" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M361" s="19"/>
+    </row>
+    <row r="362" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M362" s="19"/>
+    </row>
+    <row r="363" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M363" s="19"/>
+    </row>
+    <row r="364" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M364" s="19"/>
+    </row>
+    <row r="365" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M365" s="19"/>
+    </row>
+    <row r="366" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M366" s="19"/>
+    </row>
+    <row r="367" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M367" s="19"/>
+    </row>
+    <row r="368" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M368" s="19"/>
+    </row>
+    <row r="369" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M369" s="19"/>
+    </row>
+    <row r="370" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M370" s="19"/>
+    </row>
+    <row r="371" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M371" s="19"/>
+    </row>
+    <row r="372" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M372" s="19"/>
+    </row>
+    <row r="373" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M373" s="19"/>
+    </row>
+    <row r="374" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M374" s="19"/>
+    </row>
+    <row r="375" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M375" s="19"/>
+    </row>
+    <row r="376" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M376" s="19"/>
+    </row>
+    <row r="377" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M377" s="19"/>
+    </row>
+    <row r="378" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M378" s="19"/>
+    </row>
+    <row r="379" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M379" s="19"/>
+    </row>
+    <row r="380" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M380" s="19"/>
+    </row>
+    <row r="381" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M381" s="19"/>
+    </row>
+    <row r="382" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M382" s="19"/>
+    </row>
+    <row r="383" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M383" s="19"/>
+    </row>
+    <row r="384" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M384" s="19"/>
+    </row>
+    <row r="385" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M385" s="19"/>
+    </row>
+    <row r="386" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M386" s="19"/>
+    </row>
+    <row r="387" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M387" s="19"/>
+    </row>
+    <row r="388" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M388" s="19"/>
+    </row>
+    <row r="389" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M389" s="19"/>
+    </row>
+    <row r="390" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M390" s="19"/>
+    </row>
+    <row r="391" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M391" s="19"/>
+    </row>
+    <row r="392" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M392" s="19"/>
+    </row>
+    <row r="393" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M393" s="19"/>
+    </row>
+    <row r="394" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M394" s="19"/>
+    </row>
+    <row r="395" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M395" s="19"/>
+    </row>
+    <row r="396" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M396" s="19"/>
+    </row>
+    <row r="397" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M397" s="19"/>
+    </row>
+    <row r="398" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M398" s="19"/>
+    </row>
+    <row r="399" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M399" s="19"/>
+    </row>
+    <row r="400" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M400" s="19"/>
+    </row>
+    <row r="401" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M401" s="19"/>
+    </row>
+    <row r="402" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M402" s="19"/>
+    </row>
+    <row r="403" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M403" s="19"/>
+    </row>
+    <row r="404" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M404" s="19"/>
+    </row>
+    <row r="405" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M405" s="19"/>
+    </row>
+    <row r="406" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M406" s="19"/>
+    </row>
+    <row r="407" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M407" s="19"/>
+    </row>
+    <row r="408" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M408" s="19"/>
+    </row>
+    <row r="409" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M409" s="19"/>
+    </row>
+    <row r="410" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M410" s="19"/>
+    </row>
+    <row r="411" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M411" s="19"/>
+    </row>
+    <row r="412" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M412" s="19"/>
+    </row>
+    <row r="413" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M413" s="19"/>
+    </row>
+    <row r="414" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M414" s="19"/>
+    </row>
+    <row r="415" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M415" s="19"/>
+    </row>
+    <row r="416" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M416" s="19"/>
+    </row>
+    <row r="417" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M417" s="19"/>
+    </row>
+    <row r="418" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M418" s="19"/>
+    </row>
+    <row r="419" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M419" s="19"/>
+    </row>
+    <row r="420" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M420" s="19"/>
+    </row>
+    <row r="421" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M421" s="19"/>
+    </row>
+    <row r="422" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M422" s="19"/>
+    </row>
+    <row r="423" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M423" s="19"/>
+    </row>
+    <row r="424" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M424" s="19"/>
+    </row>
+    <row r="425" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M425" s="19"/>
+    </row>
+    <row r="426" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M426" s="19"/>
+    </row>
+    <row r="427" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M427" s="19"/>
+    </row>
+    <row r="428" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M428" s="19"/>
+    </row>
+    <row r="429" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M429" s="19"/>
+    </row>
+    <row r="430" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M430" s="19"/>
+    </row>
+    <row r="431" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M431" s="19"/>
+    </row>
+    <row r="432" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M432" s="19"/>
+    </row>
+    <row r="433" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M433" s="19"/>
+    </row>
+    <row r="434" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M434" s="19"/>
+    </row>
+    <row r="435" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M435" s="19"/>
+    </row>
+    <row r="436" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M436" s="19"/>
+    </row>
+    <row r="437" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M437" s="19"/>
+    </row>
+    <row r="438" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M438" s="19"/>
+    </row>
+    <row r="439" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M439" s="19"/>
+    </row>
+    <row r="440" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M440" s="19"/>
+    </row>
+    <row r="441" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M441" s="19"/>
+    </row>
+    <row r="442" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M442" s="19"/>
+    </row>
+    <row r="443" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M443" s="19"/>
+    </row>
+    <row r="444" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M444" s="19"/>
+    </row>
+    <row r="445" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M445" s="19"/>
+    </row>
+    <row r="446" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M446" s="19"/>
+    </row>
+    <row r="447" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M447" s="19"/>
+    </row>
+    <row r="448" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M448" s="19"/>
+    </row>
+    <row r="449" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M449" s="19"/>
+    </row>
+    <row r="450" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M450" s="19"/>
+    </row>
+    <row r="451" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M451" s="19"/>
+    </row>
+    <row r="452" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M452" s="19"/>
+    </row>
+    <row r="453" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M453" s="19"/>
+    </row>
+    <row r="454" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M454" s="19"/>
+    </row>
+    <row r="455" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M455" s="19"/>
+    </row>
+    <row r="456" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M456" s="19"/>
+    </row>
+    <row r="457" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M457" s="19"/>
+    </row>
+    <row r="458" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M458" s="19"/>
+    </row>
+    <row r="459" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M459" s="19"/>
+    </row>
+    <row r="460" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M460" s="19"/>
+    </row>
+    <row r="461" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M461" s="19"/>
+    </row>
+    <row r="462" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M462" s="19"/>
+    </row>
+    <row r="463" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M463" s="19"/>
+    </row>
+    <row r="464" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M464" s="19"/>
+    </row>
+    <row r="465" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M465" s="19"/>
+    </row>
+    <row r="466" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M466" s="19"/>
+    </row>
+    <row r="467" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M467" s="19"/>
+    </row>
+    <row r="468" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M468" s="19"/>
+    </row>
+    <row r="469" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M469" s="19"/>
+    </row>
+    <row r="470" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M470" s="19"/>
+    </row>
+    <row r="471" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M471" s="19"/>
+    </row>
+    <row r="472" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M472" s="19"/>
+    </row>
+    <row r="473" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M473" s="19"/>
+    </row>
+    <row r="474" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M474" s="19"/>
+    </row>
+    <row r="475" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M475" s="19"/>
+    </row>
+    <row r="476" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M476" s="19"/>
+    </row>
+    <row r="477" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M477" s="19"/>
+    </row>
+    <row r="478" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M478" s="19"/>
+    </row>
+    <row r="479" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M479" s="19"/>
+    </row>
+    <row r="480" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M480" s="19"/>
+    </row>
+    <row r="481" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M481" s="19"/>
+    </row>
+    <row r="482" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M482" s="19"/>
+    </row>
+    <row r="483" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M483" s="19"/>
+    </row>
+    <row r="484" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M484" s="19"/>
+    </row>
+    <row r="485" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M485" s="19"/>
+    </row>
+    <row r="486" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M486" s="19"/>
+    </row>
+    <row r="487" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M487" s="19"/>
+    </row>
+    <row r="488" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M488" s="19"/>
+    </row>
+    <row r="489" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M489" s="19"/>
+    </row>
+    <row r="490" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M490" s="19"/>
+    </row>
+    <row r="491" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M491" s="19"/>
+    </row>
+    <row r="492" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M492" s="19"/>
+    </row>
+    <row r="493" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M493" s="19"/>
+    </row>
+    <row r="494" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M494" s="19"/>
+    </row>
+    <row r="495" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M495" s="19"/>
+    </row>
+    <row r="496" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M496" s="19"/>
+    </row>
+    <row r="497" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M497" s="19"/>
+    </row>
+    <row r="498" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M498" s="19"/>
+    </row>
+    <row r="499" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M499" s="19"/>
+    </row>
+    <row r="500" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M500" s="19"/>
+    </row>
+    <row r="501" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M501" s="19"/>
+    </row>
+    <row r="502" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M502" s="19"/>
+    </row>
+    <row r="503" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M503" s="19"/>
+    </row>
+    <row r="504" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M504" s="19"/>
+    </row>
+    <row r="505" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M505" s="19"/>
+    </row>
+    <row r="506" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M506" s="19"/>
+    </row>
+    <row r="507" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M507" s="19"/>
+    </row>
+    <row r="508" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M508" s="19"/>
+    </row>
+    <row r="509" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M509" s="19"/>
+    </row>
+    <row r="510" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M510" s="19"/>
+    </row>
+    <row r="511" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M511" s="19"/>
+    </row>
+    <row r="512" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M512" s="19"/>
+    </row>
+    <row r="513" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M513" s="19"/>
+    </row>
+    <row r="514" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M514" s="19"/>
+    </row>
+    <row r="515" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M515" s="19"/>
+    </row>
+    <row r="516" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M516" s="19"/>
+    </row>
+    <row r="517" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M517" s="19"/>
+    </row>
+    <row r="518" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M518" s="19"/>
+    </row>
+    <row r="519" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M519" s="19"/>
+    </row>
+    <row r="520" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M520" s="19"/>
+    </row>
+    <row r="521" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M521" s="19"/>
+    </row>
+    <row r="522" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M522" s="19"/>
+    </row>
+    <row r="523" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M523" s="19"/>
+    </row>
+    <row r="524" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M524" s="19"/>
+    </row>
+    <row r="525" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M525" s="19"/>
+    </row>
+    <row r="526" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M526" s="19"/>
+    </row>
+    <row r="527" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M527" s="19"/>
+    </row>
+    <row r="528" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M528" s="19"/>
+    </row>
+    <row r="529" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M529" s="19"/>
+    </row>
+    <row r="530" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M530" s="19"/>
+    </row>
+    <row r="531" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M531" s="19"/>
+    </row>
+    <row r="532" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M532" s="19"/>
+    </row>
+    <row r="533" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M533" s="19"/>
+    </row>
+    <row r="534" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M534" s="19"/>
+    </row>
+    <row r="535" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M535" s="19"/>
+    </row>
+    <row r="536" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M536" s="19"/>
+    </row>
+    <row r="537" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M537" s="19"/>
+    </row>
+    <row r="538" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M538" s="19"/>
+    </row>
+    <row r="539" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M539" s="19"/>
+    </row>
+    <row r="540" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M540" s="19"/>
+    </row>
+    <row r="541" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M541" s="19"/>
+    </row>
+    <row r="542" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M542" s="19"/>
+    </row>
+    <row r="543" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M543" s="19"/>
+    </row>
+    <row r="544" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M544" s="19"/>
+    </row>
+    <row r="545" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M545" s="19"/>
+    </row>
+    <row r="546" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M546" s="19"/>
+    </row>
+    <row r="547" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M547" s="19"/>
+    </row>
+    <row r="548" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M548" s="19"/>
+    </row>
+    <row r="549" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M549" s="19"/>
+    </row>
+    <row r="550" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M550" s="19"/>
+    </row>
+    <row r="551" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M551" s="19"/>
+    </row>
+    <row r="552" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M552" s="19"/>
+    </row>
+    <row r="553" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M553" s="19"/>
+    </row>
+    <row r="554" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M554" s="19"/>
+    </row>
+    <row r="555" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M555" s="19"/>
+    </row>
+    <row r="556" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M556" s="19"/>
+    </row>
+    <row r="557" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M557" s="19"/>
+    </row>
+    <row r="558" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M558" s="19"/>
+    </row>
+    <row r="559" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M559" s="19"/>
+    </row>
+    <row r="560" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M560" s="19"/>
+    </row>
+    <row r="561" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M561" s="19"/>
+    </row>
+    <row r="562" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M562" s="19"/>
+    </row>
+    <row r="563" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M563" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{006B78A6-6F6C-4360-8C3B-01E6F5C008D1}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Items Monstera.xlsx
+++ b/Items Monstera.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f9055710c5e3c483/Documents/Monstera/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="8_{8E6482B4-6D64-4E3A-AAE1-966F7251B445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7863E39-6937-4FE7-93E8-70C336801F7D}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="8_{8E6482B4-6D64-4E3A-AAE1-966F7251B445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62E9CE6A-97C4-4DAD-B638-030755963A8B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A2520A3A-2C53-47A9-9216-2F4E40D570BD}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="229">
   <si>
     <t>Item</t>
   </si>
@@ -650,13 +650,97 @@
   </si>
   <si>
     <t>erhält sie einen positiven Covid-Test.</t>
+  </si>
+  <si>
+    <t>wird es also kälter und unangenehmer.</t>
+  </si>
+  <si>
+    <t>hat stattdessen nur die Sonne geschienen.</t>
+  </si>
+  <si>
+    <t>ist wieder sehr treffsicher.</t>
+  </si>
+  <si>
+    <t>nutzen das Angebot und reisen an die Nordsee.</t>
+  </si>
+  <si>
+    <t>ist zuversichtlich, dass diese gut ausfallen wird.</t>
+  </si>
+  <si>
+    <t>werden auch moderne Popsongs integriert.</t>
+  </si>
+  <si>
+    <t>ist es ein Strauß Sonnenblummen.</t>
+  </si>
+  <si>
+    <t>kommt deswegen kein Pflegedienst und sie muss ohne ihre Strümpfe auskommen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ist trotzdem zuversichtlich. </t>
+  </si>
+  <si>
+    <t>ist kein guter Tag für Erhard.</t>
+  </si>
+  <si>
+    <t>hat daher mehr Corona-Tote als andere Länder.</t>
+  </si>
+  <si>
+    <t>sagt trotzdem zu, weil er besser werden will.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hat schlecht abgeschnitten. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kann leider nicht zugegen sein. </t>
+  </si>
+  <si>
+    <t>verlässt sie ihr Haus nicht.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verlässt sie ihr Haus nicht. </t>
+  </si>
+  <si>
+    <t>hat angefangen zu weinen, als er seine 6 sah.</t>
+  </si>
+  <si>
+    <t>hat sie einen Platten und kommt zu spät.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gehört zum Glück nicht zu denen, die entlassen werden. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hatte er einen Burn-Out und konnte sich nicht darum kümmern. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">denkt nicht, dass der Staat Schuld daran sei. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">freut sich darauf, alte Kollegen wiederzusehen. </t>
+  </si>
+  <si>
+    <t>ist die Vorfreude groß.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wird ohne Begründung abgesagt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kriegt einen schönen Platz in der Vitrine. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">wird teilnehmen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">wird klassische Weihnachtsmusik gesungen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">springt sein Auto nicht an. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -665,16 +749,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="2" tint="-9.9978637043366805E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -761,7 +852,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -772,16 +863,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1163,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F935875C-1217-4EF1-B3EC-ADF1C73B1192}">
   <dimension ref="A1:M563"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,10 +1292,10 @@
     <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="76" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1217,11 +1329,11 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="L1" s="10" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1255,9 +1367,11 @@
       <c r="K2" s="2">
         <v>1</v>
       </c>
-      <c r="M2" s="14"/>
-    </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1291,9 +1405,9 @@
       <c r="K3" s="5">
         <v>2</v>
       </c>
-      <c r="M3" s="15"/>
-    </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1327,9 +1441,11 @@
       <c r="K4" s="5">
         <v>3</v>
       </c>
-      <c r="M4" s="15"/>
-    </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -1363,9 +1479,11 @@
       <c r="K5" s="5">
         <v>4</v>
       </c>
-      <c r="M5" s="15"/>
-    </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -1399,9 +1517,9 @@
       <c r="K6" s="5">
         <v>5</v>
       </c>
-      <c r="M6" s="15"/>
-    </row>
-    <row r="7" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>1</v>
       </c>
@@ -1435,225 +1553,227 @@
       <c r="K7" s="8">
         <v>6</v>
       </c>
-      <c r="M7" s="16"/>
-    </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="L7" s="13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
         <v>2</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="18">
         <v>1</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="2">
+      <c r="J8" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="18">
         <v>2</v>
       </c>
-      <c r="M8" s="14"/>
-    </row>
-    <row r="9" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="L8" s="20"/>
+    </row>
+    <row r="9" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21">
         <v>2</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="22">
         <v>2</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="5">
+      <c r="J9" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="22">
         <v>3</v>
       </c>
-      <c r="M9" s="15"/>
-    </row>
-    <row r="10" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="L9" s="24"/>
+    </row>
+    <row r="10" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21">
         <v>2</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="22">
         <v>3</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="5">
+      <c r="H10" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="22">
         <v>4</v>
       </c>
-      <c r="M10" s="15"/>
-    </row>
-    <row r="11" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="L10" s="24"/>
+    </row>
+    <row r="11" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21">
         <v>2</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="22">
         <v>4</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="5">
+      <c r="J11" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="22">
         <v>5</v>
       </c>
-      <c r="M11" s="15"/>
-    </row>
-    <row r="12" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="L11" s="24"/>
+    </row>
+    <row r="12" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21">
         <v>2</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="22">
         <v>5</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="5">
+      <c r="J12" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="22">
         <v>6</v>
       </c>
-      <c r="M12" s="15"/>
-    </row>
-    <row r="13" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
+      <c r="L12" s="24"/>
+    </row>
+    <row r="13" spans="1:12" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="25">
         <v>2</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="26">
         <v>6</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="C13" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="8">
+      <c r="H13" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="26">
         <v>1</v>
       </c>
-      <c r="M13" s="16"/>
-    </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L13" s="28"/>
+    </row>
+    <row r="14" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -1687,9 +1807,9 @@
       <c r="K14" s="2">
         <v>3</v>
       </c>
-      <c r="M14" s="14"/>
-    </row>
-    <row r="15" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>3</v>
       </c>
@@ -1723,9 +1843,9 @@
       <c r="K15" s="5">
         <v>4</v>
       </c>
-      <c r="M15" s="15"/>
-    </row>
-    <row r="16" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>3</v>
       </c>
@@ -1759,9 +1879,9 @@
       <c r="K16" s="5">
         <v>5</v>
       </c>
-      <c r="M16" s="15"/>
-    </row>
-    <row r="17" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L16" s="12"/>
+    </row>
+    <row r="17" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>3</v>
       </c>
@@ -1795,9 +1915,9 @@
       <c r="K17" s="5">
         <v>6</v>
       </c>
-      <c r="M17" s="15"/>
-    </row>
-    <row r="18" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L17" s="12"/>
+    </row>
+    <row r="18" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>3</v>
       </c>
@@ -1831,9 +1951,9 @@
       <c r="K18" s="5">
         <v>1</v>
       </c>
-      <c r="M18" s="15"/>
-    </row>
-    <row r="19" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L18" s="12"/>
+    </row>
+    <row r="19" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>3</v>
       </c>
@@ -1867,9 +1987,9 @@
       <c r="K19" s="8">
         <v>2</v>
       </c>
-      <c r="M19" s="16"/>
-    </row>
-    <row r="20" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L19" s="13"/>
+    </row>
+    <row r="20" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>4</v>
       </c>
@@ -1903,9 +2023,11 @@
       <c r="K20" s="2">
         <v>4</v>
       </c>
-      <c r="M20" s="14"/>
-    </row>
-    <row r="21" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L20" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>4</v>
       </c>
@@ -1939,9 +2061,9 @@
       <c r="K21" s="5">
         <v>5</v>
       </c>
-      <c r="M21" s="15"/>
-    </row>
-    <row r="22" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L21" s="12"/>
+    </row>
+    <row r="22" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>4</v>
       </c>
@@ -1975,9 +2097,11 @@
       <c r="K22" s="5">
         <v>6</v>
       </c>
-      <c r="M22" s="15"/>
-    </row>
-    <row r="23" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L22" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>4</v>
       </c>
@@ -2011,9 +2135,11 @@
       <c r="K23" s="5">
         <v>1</v>
       </c>
-      <c r="M23" s="15"/>
-    </row>
-    <row r="24" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L23" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>4</v>
       </c>
@@ -2047,9 +2173,9 @@
       <c r="K24" s="5">
         <v>2</v>
       </c>
-      <c r="M24" s="15"/>
-    </row>
-    <row r="25" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L24" s="12"/>
+    </row>
+    <row r="25" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>4</v>
       </c>
@@ -2083,9 +2209,11 @@
       <c r="K25" s="8">
         <v>3</v>
       </c>
-      <c r="M25" s="16"/>
-    </row>
-    <row r="26" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L25" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>5</v>
       </c>
@@ -2119,9 +2247,9 @@
       <c r="K26" s="2">
         <v>5</v>
       </c>
-      <c r="M26" s="14"/>
-    </row>
-    <row r="27" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L26" s="11"/>
+    </row>
+    <row r="27" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>5</v>
       </c>
@@ -2155,9 +2283,9 @@
       <c r="K27" s="5">
         <v>6</v>
       </c>
-      <c r="M27" s="15"/>
-    </row>
-    <row r="28" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L27" s="12"/>
+    </row>
+    <row r="28" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>5</v>
       </c>
@@ -2191,9 +2319,11 @@
       <c r="K28" s="5">
         <v>1</v>
       </c>
-      <c r="M28" s="15"/>
-    </row>
-    <row r="29" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L28" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>5</v>
       </c>
@@ -2227,9 +2357,9 @@
       <c r="K29" s="5">
         <v>2</v>
       </c>
-      <c r="M29" s="15"/>
-    </row>
-    <row r="30" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L29" s="12"/>
+    </row>
+    <row r="30" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>5</v>
       </c>
@@ -2263,9 +2393,9 @@
       <c r="K30" s="5">
         <v>3</v>
       </c>
-      <c r="M30" s="15"/>
-    </row>
-    <row r="31" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L30" s="12"/>
+    </row>
+    <row r="31" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>5</v>
       </c>
@@ -2299,225 +2429,227 @@
       <c r="K31" s="8">
         <v>4</v>
       </c>
-      <c r="M31" s="16"/>
-    </row>
-    <row r="32" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
+      <c r="L31" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="17">
         <v>6</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="18">
         <v>1</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="3" t="s">
+      <c r="C32" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I32" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K32" s="2">
+      <c r="J32" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="18">
         <v>6</v>
       </c>
-      <c r="M32" s="14"/>
-    </row>
-    <row r="33" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
+      <c r="L32" s="20"/>
+    </row>
+    <row r="33" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="21">
         <v>6</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="22">
         <v>2</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="6" t="s">
+      <c r="C33" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H33" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="I33" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K33" s="5">
+      <c r="J33" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="22">
         <v>1</v>
       </c>
-      <c r="M33" s="15"/>
-    </row>
-    <row r="34" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
+      <c r="L33" s="24"/>
+    </row>
+    <row r="34" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="21">
         <v>6</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="22">
         <v>3</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="6" t="s">
+      <c r="C34" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H34" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I34" s="6" t="s">
+      <c r="H34" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="J34" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K34" s="5">
+      <c r="J34" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="22">
         <v>2</v>
       </c>
-      <c r="M34" s="15"/>
-    </row>
-    <row r="35" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11">
+      <c r="L34" s="24"/>
+    </row>
+    <row r="35" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="21">
         <v>6</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="22">
         <v>4</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="6" t="s">
+      <c r="C35" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H35" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="I35" s="6" t="s">
+      <c r="I35" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="J35" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K35" s="5">
+      <c r="J35" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="22">
         <v>3</v>
       </c>
-      <c r="M35" s="15"/>
-    </row>
-    <row r="36" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11">
+      <c r="L35" s="24"/>
+    </row>
+    <row r="36" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="21">
         <v>6</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="22">
         <v>5</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" s="6" t="s">
+      <c r="C36" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="I36" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K36" s="5">
+      <c r="J36" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="22">
         <v>4</v>
       </c>
-      <c r="M36" s="15"/>
-    </row>
-    <row r="37" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="12">
+      <c r="L36" s="24"/>
+    </row>
+    <row r="37" spans="1:12" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="25">
         <v>6</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="26">
         <v>6</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="9" t="s">
+      <c r="C37" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="H37" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I37" s="9" t="s">
+      <c r="H37" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="J37" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K37" s="8">
+      <c r="J37" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="26">
         <v>5</v>
       </c>
-      <c r="M37" s="16"/>
-    </row>
-    <row r="38" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L37" s="28"/>
+    </row>
+    <row r="38" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>7</v>
       </c>
@@ -2551,9 +2683,9 @@
       <c r="K38" s="2">
         <v>1</v>
       </c>
-      <c r="M38" s="14"/>
-    </row>
-    <row r="39" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L38" s="11"/>
+    </row>
+    <row r="39" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>7</v>
       </c>
@@ -2587,9 +2719,11 @@
       <c r="K39" s="5">
         <v>2</v>
       </c>
-      <c r="M39" s="15"/>
-    </row>
-    <row r="40" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L39" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>7</v>
       </c>
@@ -2623,9 +2757,11 @@
       <c r="K40" s="5">
         <v>3</v>
       </c>
-      <c r="M40" s="15"/>
-    </row>
-    <row r="41" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L40" s="12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>7</v>
       </c>
@@ -2659,9 +2795,9 @@
       <c r="K41" s="5">
         <v>4</v>
       </c>
-      <c r="M41" s="15"/>
-    </row>
-    <row r="42" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L41" s="12"/>
+    </row>
+    <row r="42" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>7</v>
       </c>
@@ -2695,9 +2831,11 @@
       <c r="K42" s="5">
         <v>5</v>
       </c>
-      <c r="M42" s="15"/>
-    </row>
-    <row r="43" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L42" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>7</v>
       </c>
@@ -2731,9 +2869,11 @@
       <c r="K43" s="8">
         <v>6</v>
       </c>
-      <c r="M43" s="16"/>
-    </row>
-    <row r="44" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L43" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>8</v>
       </c>
@@ -2767,9 +2907,11 @@
       <c r="K44" s="2">
         <v>2</v>
       </c>
-      <c r="M44" s="14"/>
-    </row>
-    <row r="45" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L44" s="11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>8</v>
       </c>
@@ -2803,9 +2945,9 @@
       <c r="K45" s="5">
         <v>3</v>
       </c>
-      <c r="M45" s="15"/>
-    </row>
-    <row r="46" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L45" s="12"/>
+    </row>
+    <row r="46" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>8</v>
       </c>
@@ -2839,9 +2981,11 @@
       <c r="K46" s="5">
         <v>4</v>
       </c>
-      <c r="M46" s="15"/>
-    </row>
-    <row r="47" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L46" s="12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>8</v>
       </c>
@@ -2875,9 +3019,11 @@
       <c r="K47" s="5">
         <v>5</v>
       </c>
-      <c r="M47" s="15"/>
-    </row>
-    <row r="48" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L47" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>8</v>
       </c>
@@ -2911,9 +3057,9 @@
       <c r="K48" s="5">
         <v>6</v>
       </c>
-      <c r="M48" s="15"/>
-    </row>
-    <row r="49" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L48" s="12"/>
+    </row>
+    <row r="49" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <v>8</v>
       </c>
@@ -2947,9 +3093,11 @@
       <c r="K49" s="8">
         <v>1</v>
       </c>
-      <c r="M49" s="15"/>
-    </row>
-    <row r="50" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L49" s="12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>9</v>
       </c>
@@ -2983,11 +3131,11 @@
       <c r="K50" s="2">
         <v>3</v>
       </c>
-      <c r="M50" s="15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L50" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>9</v>
       </c>
@@ -3021,11 +3169,11 @@
       <c r="K51" s="5">
         <v>4</v>
       </c>
-      <c r="M51" s="15" t="s">
+      <c r="L51" s="12" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>9</v>
       </c>
@@ -3059,11 +3207,9 @@
       <c r="K52" s="5">
         <v>5</v>
       </c>
-      <c r="M52" s="15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L52" s="12"/>
+    </row>
+    <row r="53" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>9</v>
       </c>
@@ -3097,11 +3243,11 @@
       <c r="K53" s="5">
         <v>6</v>
       </c>
-      <c r="M53" s="15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L53" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>9</v>
       </c>
@@ -3135,11 +3281,11 @@
       <c r="K54" s="5">
         <v>1</v>
       </c>
-      <c r="M54" s="15" t="s">
+      <c r="L54" s="12" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
         <v>9</v>
       </c>
@@ -3173,11 +3319,9 @@
       <c r="K55" s="8">
         <v>2</v>
       </c>
-      <c r="M55" s="15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L55" s="12"/>
+    </row>
+    <row r="56" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>10</v>
       </c>
@@ -3211,9 +3355,9 @@
       <c r="K56" s="2">
         <v>4</v>
       </c>
-      <c r="M56" s="15"/>
-    </row>
-    <row r="57" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L56" s="12"/>
+    </row>
+    <row r="57" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>10</v>
       </c>
@@ -3247,9 +3391,9 @@
       <c r="K57" s="5">
         <v>5</v>
       </c>
-      <c r="M57" s="15"/>
-    </row>
-    <row r="58" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L57" s="12"/>
+    </row>
+    <row r="58" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>10</v>
       </c>
@@ -3283,9 +3427,11 @@
       <c r="K58" s="5">
         <v>6</v>
       </c>
-      <c r="M58" s="15"/>
-    </row>
-    <row r="59" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L58" s="12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>10</v>
       </c>
@@ -3319,9 +3465,9 @@
       <c r="K59" s="5">
         <v>1</v>
       </c>
-      <c r="M59" s="15"/>
-    </row>
-    <row r="60" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L59" s="12"/>
+    </row>
+    <row r="60" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>10</v>
       </c>
@@ -3355,9 +3501,9 @@
       <c r="K60" s="5">
         <v>2</v>
       </c>
-      <c r="M60" s="15"/>
-    </row>
-    <row r="61" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L60" s="12"/>
+    </row>
+    <row r="61" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
         <v>10</v>
       </c>
@@ -3391,9 +3537,11 @@
       <c r="K61" s="8">
         <v>3</v>
       </c>
-      <c r="M61" s="16"/>
-    </row>
-    <row r="62" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L61" s="13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>11</v>
       </c>
@@ -3427,9 +3575,9 @@
       <c r="K62" s="2">
         <v>5</v>
       </c>
-      <c r="M62" s="14"/>
-    </row>
-    <row r="63" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L62" s="11"/>
+    </row>
+    <row r="63" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>11</v>
       </c>
@@ -3463,9 +3611,11 @@
       <c r="K63" s="5">
         <v>6</v>
       </c>
-      <c r="M63" s="15"/>
-    </row>
-    <row r="64" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L63" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>11</v>
       </c>
@@ -3499,9 +3649,9 @@
       <c r="K64" s="5">
         <v>1</v>
       </c>
-      <c r="M64" s="15"/>
-    </row>
-    <row r="65" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L64" s="12"/>
+    </row>
+    <row r="65" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>11</v>
       </c>
@@ -3535,9 +3685,9 @@
       <c r="K65" s="5">
         <v>2</v>
       </c>
-      <c r="M65" s="15"/>
-    </row>
-    <row r="66" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L65" s="12"/>
+    </row>
+    <row r="66" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>11</v>
       </c>
@@ -3571,9 +3721,11 @@
       <c r="K66" s="5">
         <v>3</v>
       </c>
-      <c r="M66" s="15"/>
-    </row>
-    <row r="67" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L66" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
         <v>11</v>
       </c>
@@ -3607,9 +3759,9 @@
       <c r="K67" s="8">
         <v>4</v>
       </c>
-      <c r="M67" s="16"/>
-    </row>
-    <row r="68" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L67" s="13"/>
+    </row>
+    <row r="68" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>12</v>
       </c>
@@ -3643,9 +3795,9 @@
       <c r="K68" s="2">
         <v>6</v>
       </c>
-      <c r="M68" s="14"/>
-    </row>
-    <row r="69" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L68" s="11"/>
+    </row>
+    <row r="69" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>12</v>
       </c>
@@ -3679,9 +3831,9 @@
       <c r="K69" s="5">
         <v>1</v>
       </c>
-      <c r="M69" s="15"/>
-    </row>
-    <row r="70" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L69" s="12"/>
+    </row>
+    <row r="70" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>12</v>
       </c>
@@ -3715,9 +3867,9 @@
       <c r="K70" s="5">
         <v>2</v>
       </c>
-      <c r="M70" s="15"/>
-    </row>
-    <row r="71" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L70" s="12"/>
+    </row>
+    <row r="71" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>12</v>
       </c>
@@ -3751,9 +3903,9 @@
       <c r="K71" s="5">
         <v>3</v>
       </c>
-      <c r="M71" s="15"/>
-    </row>
-    <row r="72" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L71" s="12"/>
+    </row>
+    <row r="72" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>12</v>
       </c>
@@ -3787,9 +3939,9 @@
       <c r="K72" s="5">
         <v>4</v>
       </c>
-      <c r="M72" s="15"/>
-    </row>
-    <row r="73" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L72" s="12"/>
+    </row>
+    <row r="73" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
         <v>12</v>
       </c>
@@ -3823,9 +3975,9 @@
       <c r="K73" s="8">
         <v>5</v>
       </c>
-      <c r="M73" s="16"/>
-    </row>
-    <row r="74" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L73" s="13"/>
+    </row>
+    <row r="74" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>13</v>
       </c>
@@ -3859,9 +4011,9 @@
       <c r="K74" s="2">
         <v>1</v>
       </c>
-      <c r="M74" s="14"/>
-    </row>
-    <row r="75" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L74" s="11"/>
+    </row>
+    <row r="75" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>13</v>
       </c>
@@ -3895,9 +4047,9 @@
       <c r="K75" s="5">
         <v>2</v>
       </c>
-      <c r="M75" s="15"/>
-    </row>
-    <row r="76" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L75" s="12"/>
+    </row>
+    <row r="76" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>13</v>
       </c>
@@ -3931,9 +4083,11 @@
       <c r="K76" s="5">
         <v>3</v>
       </c>
-      <c r="M76" s="15"/>
-    </row>
-    <row r="77" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L76" s="12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>13</v>
       </c>
@@ -3967,9 +4121,9 @@
       <c r="K77" s="5">
         <v>4</v>
       </c>
-      <c r="M77" s="15"/>
-    </row>
-    <row r="78" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L77" s="12"/>
+    </row>
+    <row r="78" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>13</v>
       </c>
@@ -4003,9 +4157,9 @@
       <c r="K78" s="5">
         <v>5</v>
       </c>
-      <c r="M78" s="15"/>
-    </row>
-    <row r="79" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L78" s="12"/>
+    </row>
+    <row r="79" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="7">
         <v>13</v>
       </c>
@@ -4039,9 +4193,9 @@
       <c r="K79" s="8">
         <v>6</v>
       </c>
-      <c r="M79" s="16"/>
-    </row>
-    <row r="80" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L79" s="13"/>
+    </row>
+    <row r="80" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>14</v>
       </c>
@@ -4075,9 +4229,9 @@
       <c r="K80" s="2">
         <v>2</v>
       </c>
-      <c r="M80" s="14"/>
-    </row>
-    <row r="81" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L80" s="11"/>
+    </row>
+    <row r="81" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>14</v>
       </c>
@@ -4111,9 +4265,9 @@
       <c r="K81" s="5">
         <v>3</v>
       </c>
-      <c r="M81" s="15"/>
-    </row>
-    <row r="82" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L81" s="12"/>
+    </row>
+    <row r="82" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>14</v>
       </c>
@@ -4147,9 +4301,11 @@
       <c r="K82" s="5">
         <v>4</v>
       </c>
-      <c r="M82" s="15"/>
-    </row>
-    <row r="83" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L82" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>14</v>
       </c>
@@ -4183,9 +4339,9 @@
       <c r="K83" s="5">
         <v>5</v>
       </c>
-      <c r="M83" s="15"/>
-    </row>
-    <row r="84" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L83" s="12"/>
+    </row>
+    <row r="84" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>14</v>
       </c>
@@ -4219,9 +4375,9 @@
       <c r="K84" s="5">
         <v>6</v>
       </c>
-      <c r="M84" s="15"/>
-    </row>
-    <row r="85" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L84" s="12"/>
+    </row>
+    <row r="85" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7">
         <v>14</v>
       </c>
@@ -4255,9 +4411,11 @@
       <c r="K85" s="8">
         <v>1</v>
       </c>
-      <c r="M85" s="16"/>
-    </row>
-    <row r="86" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L85" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>15</v>
       </c>
@@ -4291,9 +4449,9 @@
       <c r="K86" s="2">
         <v>3</v>
       </c>
-      <c r="M86" s="14"/>
-    </row>
-    <row r="87" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L86" s="11"/>
+    </row>
+    <row r="87" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>15</v>
       </c>
@@ -4327,9 +4485,9 @@
       <c r="K87" s="5">
         <v>4</v>
       </c>
-      <c r="M87" s="15"/>
-    </row>
-    <row r="88" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L87" s="12"/>
+    </row>
+    <row r="88" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>15</v>
       </c>
@@ -4363,9 +4521,9 @@
       <c r="K88" s="5">
         <v>5</v>
       </c>
-      <c r="M88" s="15"/>
-    </row>
-    <row r="89" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L88" s="12"/>
+    </row>
+    <row r="89" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>15</v>
       </c>
@@ -4399,9 +4557,9 @@
       <c r="K89" s="5">
         <v>6</v>
       </c>
-      <c r="M89" s="15"/>
-    </row>
-    <row r="90" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L89" s="12"/>
+    </row>
+    <row r="90" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>15</v>
       </c>
@@ -4435,9 +4593,9 @@
       <c r="K90" s="5">
         <v>1</v>
       </c>
-      <c r="M90" s="15"/>
-    </row>
-    <row r="91" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L90" s="12"/>
+    </row>
+    <row r="91" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7">
         <v>15</v>
       </c>
@@ -4471,225 +4629,225 @@
       <c r="K91" s="8">
         <v>2</v>
       </c>
-      <c r="M91" s="16"/>
-    </row>
-    <row r="92" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
+      <c r="L91" s="13"/>
+    </row>
+    <row r="92" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="29">
         <v>16</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="30">
         <v>1</v>
       </c>
-      <c r="C92" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D92" s="3" t="s">
+      <c r="C92" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E92" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="F92" s="3" t="s">
+      <c r="F92" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="G92" s="3" t="s">
+      <c r="G92" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="H92" s="3" t="s">
+      <c r="H92" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="I92" s="3" t="s">
+      <c r="I92" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="J92" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K92" s="2">
+      <c r="J92" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="K92" s="30">
         <v>4</v>
       </c>
-      <c r="M92" s="14"/>
-    </row>
-    <row r="93" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="4">
+      <c r="L92" s="32"/>
+    </row>
+    <row r="93" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="33">
         <v>16</v>
       </c>
-      <c r="B93" s="5">
+      <c r="B93" s="34">
         <v>2</v>
       </c>
-      <c r="C93" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D93" s="6" t="s">
+      <c r="C93" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E93" s="6" t="s">
+      <c r="E93" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="F93" s="6" t="s">
+      <c r="F93" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="G93" s="6" t="s">
+      <c r="G93" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="H93" s="6" t="s">
+      <c r="H93" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="I93" s="6" t="s">
+      <c r="I93" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="J93" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K93" s="5">
+      <c r="J93" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K93" s="34">
         <v>5</v>
       </c>
-      <c r="M93" s="15"/>
-    </row>
-    <row r="94" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="4">
+      <c r="L93" s="36"/>
+    </row>
+    <row r="94" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="33">
         <v>16</v>
       </c>
-      <c r="B94" s="5">
+      <c r="B94" s="34">
         <v>3</v>
       </c>
-      <c r="C94" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D94" s="6" t="s">
+      <c r="C94" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E94" s="6" t="s">
+      <c r="E94" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="F94" s="6" t="s">
+      <c r="F94" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="G94" s="6" t="s">
+      <c r="G94" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="H94" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I94" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J94" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K94" s="5">
+      <c r="H94" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I94" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="J94" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K94" s="34">
         <v>6</v>
       </c>
-      <c r="M94" s="15"/>
-    </row>
-    <row r="95" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="4">
+      <c r="L94" s="36"/>
+    </row>
+    <row r="95" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="33">
         <v>16</v>
       </c>
-      <c r="B95" s="5">
+      <c r="B95" s="34">
         <v>4</v>
       </c>
-      <c r="C95" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D95" s="6" t="s">
+      <c r="C95" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D95" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E95" s="6" t="s">
+      <c r="E95" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="F95" s="6" t="s">
+      <c r="F95" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="G95" s="6" t="s">
+      <c r="G95" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="H95" s="6" t="s">
+      <c r="H95" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="I95" s="6" t="s">
+      <c r="I95" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="J95" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K95" s="5">
+      <c r="J95" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K95" s="34">
         <v>1</v>
       </c>
-      <c r="M95" s="15"/>
-    </row>
-    <row r="96" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="4">
+      <c r="L95" s="36"/>
+    </row>
+    <row r="96" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="33">
         <v>16</v>
       </c>
-      <c r="B96" s="5">
+      <c r="B96" s="34">
         <v>5</v>
       </c>
-      <c r="C96" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D96" s="6" t="s">
+      <c r="C96" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E96" s="6" t="s">
+      <c r="E96" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="F96" s="6" t="s">
+      <c r="F96" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="G96" s="6" t="s">
+      <c r="G96" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="H96" s="6" t="s">
+      <c r="H96" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="I96" s="6" t="s">
+      <c r="I96" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="J96" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K96" s="5">
+      <c r="J96" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K96" s="34">
         <v>2</v>
       </c>
-      <c r="M96" s="15"/>
-    </row>
-    <row r="97" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="7">
+      <c r="L96" s="36"/>
+    </row>
+    <row r="97" spans="1:12" s="38" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="37">
         <v>16</v>
       </c>
-      <c r="B97" s="8">
+      <c r="B97" s="38">
         <v>6</v>
       </c>
-      <c r="C97" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D97" s="9" t="s">
+      <c r="C97" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D97" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E97" s="9" t="s">
+      <c r="E97" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="F97" s="9" t="s">
+      <c r="F97" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="G97" s="9" t="s">
+      <c r="G97" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="H97" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I97" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J97" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K97" s="8">
+      <c r="H97" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="I97" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="J97" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="K97" s="38">
         <v>3</v>
       </c>
-      <c r="M97" s="16"/>
-    </row>
-    <row r="98" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L97" s="40"/>
+    </row>
+    <row r="98" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>17</v>
       </c>
@@ -4723,9 +4881,9 @@
       <c r="K98" s="2">
         <v>5</v>
       </c>
-      <c r="M98" s="14"/>
-    </row>
-    <row r="99" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L98" s="11"/>
+    </row>
+    <row r="99" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>17</v>
       </c>
@@ -4759,9 +4917,11 @@
       <c r="K99" s="5">
         <v>6</v>
       </c>
-      <c r="M99" s="15"/>
-    </row>
-    <row r="100" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L99" s="12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>17</v>
       </c>
@@ -4795,9 +4955,11 @@
       <c r="K100" s="5">
         <v>1</v>
       </c>
-      <c r="M100" s="15"/>
-    </row>
-    <row r="101" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L100" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>17</v>
       </c>
@@ -4831,9 +4993,9 @@
       <c r="K101" s="5">
         <v>2</v>
       </c>
-      <c r="M101" s="15"/>
-    </row>
-    <row r="102" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L101" s="12"/>
+    </row>
+    <row r="102" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>17</v>
       </c>
@@ -4867,9 +5029,11 @@
       <c r="K102" s="5">
         <v>3</v>
       </c>
-      <c r="M102" s="15"/>
-    </row>
-    <row r="103" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L102" s="12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="7">
         <v>17</v>
       </c>
@@ -4903,9 +5067,11 @@
       <c r="K103" s="8">
         <v>4</v>
       </c>
-      <c r="M103" s="15"/>
-    </row>
-    <row r="104" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L103" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>18</v>
       </c>
@@ -4939,11 +5105,11 @@
       <c r="K104" s="2">
         <v>6</v>
       </c>
-      <c r="M104" s="17" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L104" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>18</v>
       </c>
@@ -4977,11 +5143,11 @@
       <c r="K105" s="5">
         <v>1</v>
       </c>
-      <c r="M105" s="17" t="s">
+      <c r="L105" s="14" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="106" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>18</v>
       </c>
@@ -5015,11 +5181,9 @@
       <c r="K106" s="5">
         <v>2</v>
       </c>
-      <c r="M106" s="17" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L106" s="14"/>
+    </row>
+    <row r="107" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>18</v>
       </c>
@@ -5053,11 +5217,11 @@
       <c r="K107" s="5">
         <v>3</v>
       </c>
-      <c r="M107" s="17" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L107" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>18</v>
       </c>
@@ -5091,11 +5255,11 @@
       <c r="K108" s="5">
         <v>4</v>
       </c>
-      <c r="M108" s="17" t="s">
+      <c r="L108" s="14" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="109" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="7">
         <v>18</v>
       </c>
@@ -5129,11 +5293,9 @@
       <c r="K109" s="8">
         <v>5</v>
       </c>
-      <c r="M109" s="17" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L109" s="14"/>
+    </row>
+    <row r="110" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>19</v>
       </c>
@@ -5167,9 +5329,9 @@
       <c r="K110" s="2">
         <v>1</v>
       </c>
-      <c r="M110" s="15"/>
-    </row>
-    <row r="111" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L110" s="12"/>
+    </row>
+    <row r="111" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>19</v>
       </c>
@@ -5203,9 +5365,9 @@
       <c r="K111" s="5">
         <v>2</v>
       </c>
-      <c r="M111" s="15"/>
-    </row>
-    <row r="112" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L111" s="12"/>
+    </row>
+    <row r="112" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>19</v>
       </c>
@@ -5239,9 +5401,11 @@
       <c r="K112" s="5">
         <v>3</v>
       </c>
-      <c r="M112" s="15"/>
-    </row>
-    <row r="113" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L112" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>19</v>
       </c>
@@ -5275,9 +5439,9 @@
       <c r="K113" s="5">
         <v>4</v>
       </c>
-      <c r="M113" s="15"/>
-    </row>
-    <row r="114" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L113" s="12"/>
+    </row>
+    <row r="114" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>19</v>
       </c>
@@ -5311,9 +5475,9 @@
       <c r="K114" s="5">
         <v>5</v>
       </c>
-      <c r="M114" s="15"/>
-    </row>
-    <row r="115" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L114" s="12"/>
+    </row>
+    <row r="115" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="7">
         <v>19</v>
       </c>
@@ -5347,9 +5511,9 @@
       <c r="K115" s="8">
         <v>6</v>
       </c>
-      <c r="M115" s="16"/>
-    </row>
-    <row r="116" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L115" s="13"/>
+    </row>
+    <row r="116" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>20</v>
       </c>
@@ -5383,9 +5547,11 @@
       <c r="K116" s="2">
         <v>2</v>
       </c>
-      <c r="M116" s="14"/>
-    </row>
-    <row r="117" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L116" s="11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>20</v>
       </c>
@@ -5419,9 +5585,11 @@
       <c r="K117" s="5">
         <v>3</v>
       </c>
-      <c r="M117" s="15"/>
-    </row>
-    <row r="118" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L117" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>20</v>
       </c>
@@ -5455,9 +5623,11 @@
       <c r="K118" s="5">
         <v>4</v>
       </c>
-      <c r="M118" s="15"/>
-    </row>
-    <row r="119" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L118" s="12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>20</v>
       </c>
@@ -5491,9 +5661,11 @@
       <c r="K119" s="5">
         <v>5</v>
       </c>
-      <c r="M119" s="15"/>
-    </row>
-    <row r="120" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L119" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>20</v>
       </c>
@@ -5527,9 +5699,11 @@
       <c r="K120" s="5">
         <v>6</v>
       </c>
-      <c r="M120" s="15"/>
-    </row>
-    <row r="121" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L120" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="7">
         <v>20</v>
       </c>
@@ -5563,9 +5737,11 @@
       <c r="K121" s="8">
         <v>1</v>
       </c>
-      <c r="M121" s="16"/>
-    </row>
-    <row r="122" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L121" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>21</v>
       </c>
@@ -5599,9 +5775,9 @@
       <c r="K122" s="2">
         <v>3</v>
       </c>
-      <c r="M122" s="14"/>
-    </row>
-    <row r="123" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L122" s="11"/>
+    </row>
+    <row r="123" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>21</v>
       </c>
@@ -5635,9 +5811,9 @@
       <c r="K123" s="5">
         <v>4</v>
       </c>
-      <c r="M123" s="15"/>
-    </row>
-    <row r="124" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L123" s="12"/>
+    </row>
+    <row r="124" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>21</v>
       </c>
@@ -5671,9 +5847,9 @@
       <c r="K124" s="5">
         <v>5</v>
       </c>
-      <c r="M124" s="15"/>
-    </row>
-    <row r="125" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L124" s="12"/>
+    </row>
+    <row r="125" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>21</v>
       </c>
@@ -5707,9 +5883,9 @@
       <c r="K125" s="5">
         <v>6</v>
       </c>
-      <c r="M125" s="15"/>
-    </row>
-    <row r="126" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L125" s="12"/>
+    </row>
+    <row r="126" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>21</v>
       </c>
@@ -5743,9 +5919,9 @@
       <c r="K126" s="5">
         <v>1</v>
       </c>
-      <c r="M126" s="15"/>
-    </row>
-    <row r="127" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L126" s="12"/>
+    </row>
+    <row r="127" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="7">
         <v>21</v>
       </c>
@@ -5779,9 +5955,9 @@
       <c r="K127" s="8">
         <v>2</v>
       </c>
-      <c r="M127" s="16"/>
-    </row>
-    <row r="128" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L127" s="13"/>
+    </row>
+    <row r="128" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>22</v>
       </c>
@@ -5815,9 +5991,9 @@
       <c r="K128" s="2">
         <v>4</v>
       </c>
-      <c r="M128" s="14"/>
-    </row>
-    <row r="129" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L128" s="11"/>
+    </row>
+    <row r="129" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>22</v>
       </c>
@@ -5851,9 +6027,9 @@
       <c r="K129" s="5">
         <v>5</v>
       </c>
-      <c r="M129" s="15"/>
-    </row>
-    <row r="130" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L129" s="12"/>
+    </row>
+    <row r="130" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>22</v>
       </c>
@@ -5887,9 +6063,11 @@
       <c r="K130" s="5">
         <v>6</v>
       </c>
-      <c r="M130" s="15"/>
-    </row>
-    <row r="131" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L130" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>22</v>
       </c>
@@ -5923,9 +6101,9 @@
       <c r="K131" s="5">
         <v>1</v>
       </c>
-      <c r="M131" s="15"/>
-    </row>
-    <row r="132" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L131" s="12"/>
+    </row>
+    <row r="132" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>22</v>
       </c>
@@ -5959,9 +6137,9 @@
       <c r="K132" s="5">
         <v>2</v>
       </c>
-      <c r="M132" s="15"/>
-    </row>
-    <row r="133" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L132" s="12"/>
+    </row>
+    <row r="133" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="7">
         <v>22</v>
       </c>
@@ -5995,9 +6173,11 @@
       <c r="K133" s="8">
         <v>3</v>
       </c>
-      <c r="M133" s="16"/>
-    </row>
-    <row r="134" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L133" s="13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>23</v>
       </c>
@@ -6031,9 +6211,9 @@
       <c r="K134" s="2">
         <v>5</v>
       </c>
-      <c r="M134" s="14"/>
-    </row>
-    <row r="135" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L134" s="11"/>
+    </row>
+    <row r="135" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>23</v>
       </c>
@@ -6067,9 +6247,9 @@
       <c r="K135" s="5">
         <v>6</v>
       </c>
-      <c r="M135" s="15"/>
-    </row>
-    <row r="136" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L135" s="12"/>
+    </row>
+    <row r="136" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>23</v>
       </c>
@@ -6103,9 +6283,11 @@
       <c r="K136" s="5">
         <v>1</v>
       </c>
-      <c r="M136" s="15"/>
-    </row>
-    <row r="137" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L136" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>23</v>
       </c>
@@ -6139,9 +6321,9 @@
       <c r="K137" s="5">
         <v>2</v>
       </c>
-      <c r="M137" s="15"/>
-    </row>
-    <row r="138" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L137" s="12"/>
+    </row>
+    <row r="138" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>23</v>
       </c>
@@ -6175,9 +6357,9 @@
       <c r="K138" s="5">
         <v>3</v>
       </c>
-      <c r="M138" s="15"/>
-    </row>
-    <row r="139" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L138" s="12"/>
+    </row>
+    <row r="139" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="7">
         <v>23</v>
       </c>
@@ -6211,9 +6393,11 @@
       <c r="K139" s="8">
         <v>4</v>
       </c>
-      <c r="M139" s="16"/>
-    </row>
-    <row r="140" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L139" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>24</v>
       </c>
@@ -6247,9 +6431,9 @@
       <c r="K140" s="2">
         <v>6</v>
       </c>
-      <c r="M140" s="14"/>
-    </row>
-    <row r="141" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L140" s="11"/>
+    </row>
+    <row r="141" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>24</v>
       </c>
@@ -6283,9 +6467,9 @@
       <c r="K141" s="5">
         <v>1</v>
       </c>
-      <c r="M141" s="15"/>
-    </row>
-    <row r="142" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L141" s="12"/>
+    </row>
+    <row r="142" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>24</v>
       </c>
@@ -6319,9 +6503,9 @@
       <c r="K142" s="5">
         <v>2</v>
       </c>
-      <c r="M142" s="15"/>
-    </row>
-    <row r="143" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L142" s="12"/>
+    </row>
+    <row r="143" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>24</v>
       </c>
@@ -6355,9 +6539,9 @@
       <c r="K143" s="5">
         <v>3</v>
       </c>
-      <c r="M143" s="15"/>
-    </row>
-    <row r="144" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L143" s="12"/>
+    </row>
+    <row r="144" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>24</v>
       </c>
@@ -6391,9 +6575,9 @@
       <c r="K144" s="5">
         <v>4</v>
       </c>
-      <c r="M144" s="15"/>
-    </row>
-    <row r="145" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L144" s="12"/>
+    </row>
+    <row r="145" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="7">
         <v>24</v>
       </c>
@@ -6427,225 +6611,225 @@
       <c r="K145" s="8">
         <v>5</v>
       </c>
-      <c r="M145" s="16"/>
-    </row>
-    <row r="146" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="10">
+      <c r="L145" s="13"/>
+    </row>
+    <row r="146" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="17">
         <v>25</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146" s="18">
         <v>1</v>
       </c>
-      <c r="C146" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D146" s="3" t="s">
+      <c r="C146" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D146" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E146" s="3" t="s">
+      <c r="E146" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="F146" s="3" t="s">
+      <c r="F146" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="G146" s="3" t="s">
+      <c r="G146" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="H146" s="3" t="s">
+      <c r="H146" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I146" s="3" t="s">
+      <c r="I146" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J146" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K146" s="2">
+      <c r="J146" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K146" s="18">
         <v>1</v>
       </c>
-      <c r="M146" s="14"/>
-    </row>
-    <row r="147" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="11">
+      <c r="L146" s="20"/>
+    </row>
+    <row r="147" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="21">
         <v>25</v>
       </c>
-      <c r="B147" s="5">
+      <c r="B147" s="22">
         <v>2</v>
       </c>
-      <c r="C147" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D147" s="6" t="s">
+      <c r="C147" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D147" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E147" s="6" t="s">
+      <c r="E147" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="F147" s="6" t="s">
+      <c r="F147" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="G147" s="6" t="s">
+      <c r="G147" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="H147" s="6" t="s">
+      <c r="H147" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="I147" s="6" t="s">
+      <c r="I147" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J147" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K147" s="5">
+      <c r="J147" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K147" s="22">
         <v>2</v>
       </c>
-      <c r="M147" s="15"/>
-    </row>
-    <row r="148" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="11">
+      <c r="L147" s="24"/>
+    </row>
+    <row r="148" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="21">
         <v>25</v>
       </c>
-      <c r="B148" s="5">
+      <c r="B148" s="22">
         <v>3</v>
       </c>
-      <c r="C148" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D148" s="6" t="s">
+      <c r="C148" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D148" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E148" s="6" t="s">
+      <c r="E148" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="F148" s="6" t="s">
+      <c r="F148" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="G148" s="6" t="s">
+      <c r="G148" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="H148" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I148" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J148" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K148" s="5">
+      <c r="H148" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I148" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="J148" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K148" s="22">
         <v>3</v>
       </c>
-      <c r="M148" s="15"/>
-    </row>
-    <row r="149" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="11">
+      <c r="L148" s="24"/>
+    </row>
+    <row r="149" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="21">
         <v>25</v>
       </c>
-      <c r="B149" s="5">
+      <c r="B149" s="22">
         <v>4</v>
       </c>
-      <c r="C149" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D149" s="6" t="s">
+      <c r="C149" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D149" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E149" s="6" t="s">
+      <c r="E149" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="F149" s="6" t="s">
+      <c r="F149" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="G149" s="6" t="s">
+      <c r="G149" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="H149" s="6" t="s">
+      <c r="H149" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="I149" s="6" t="s">
+      <c r="I149" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="J149" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K149" s="5">
+      <c r="J149" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K149" s="22">
         <v>4</v>
       </c>
-      <c r="M149" s="15"/>
-    </row>
-    <row r="150" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="11">
+      <c r="L149" s="24"/>
+    </row>
+    <row r="150" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="21">
         <v>25</v>
       </c>
-      <c r="B150" s="5">
+      <c r="B150" s="22">
         <v>5</v>
       </c>
-      <c r="C150" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D150" s="6" t="s">
+      <c r="C150" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D150" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E150" s="6" t="s">
+      <c r="E150" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="F150" s="6" t="s">
+      <c r="F150" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="G150" s="6" t="s">
+      <c r="G150" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="H150" s="6" t="s">
+      <c r="H150" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="I150" s="6" t="s">
+      <c r="I150" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J150" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K150" s="5">
+      <c r="J150" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K150" s="22">
         <v>5</v>
       </c>
-      <c r="M150" s="15"/>
-    </row>
-    <row r="151" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="12">
+      <c r="L150" s="24"/>
+    </row>
+    <row r="151" spans="1:12" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="25">
         <v>25</v>
       </c>
-      <c r="B151" s="8">
+      <c r="B151" s="26">
         <v>6</v>
       </c>
-      <c r="C151" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D151" s="9" t="s">
+      <c r="C151" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D151" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E151" s="9" t="s">
+      <c r="E151" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="F151" s="9" t="s">
+      <c r="F151" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="G151" s="9" t="s">
+      <c r="G151" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="H151" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I151" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J151" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K151" s="8">
+      <c r="H151" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I151" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J151" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K151" s="26">
         <v>6</v>
       </c>
-      <c r="M151" s="16"/>
-    </row>
-    <row r="152" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L151" s="28"/>
+    </row>
+    <row r="152" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>26</v>
       </c>
@@ -6679,9 +6863,9 @@
       <c r="K152" s="2">
         <v>2</v>
       </c>
-      <c r="M152" s="14"/>
-    </row>
-    <row r="153" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L152" s="11"/>
+    </row>
+    <row r="153" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>26</v>
       </c>
@@ -6715,9 +6899,11 @@
       <c r="K153" s="5">
         <v>3</v>
       </c>
-      <c r="M153" s="15"/>
-    </row>
-    <row r="154" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L153" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>26</v>
       </c>
@@ -6751,9 +6937,11 @@
       <c r="K154" s="5">
         <v>4</v>
       </c>
-      <c r="M154" s="15"/>
-    </row>
-    <row r="155" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L154" s="12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>26</v>
       </c>
@@ -6787,9 +6975,9 @@
       <c r="K155" s="5">
         <v>5</v>
       </c>
-      <c r="M155" s="15"/>
-    </row>
-    <row r="156" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L155" s="12"/>
+    </row>
+    <row r="156" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>26</v>
       </c>
@@ -6823,9 +7011,11 @@
       <c r="K156" s="5">
         <v>6</v>
       </c>
-      <c r="M156" s="15"/>
-    </row>
-    <row r="157" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L156" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="7">
         <v>26</v>
       </c>
@@ -6859,9 +7049,11 @@
       <c r="K157" s="8">
         <v>1</v>
       </c>
-      <c r="M157" s="16"/>
-    </row>
-    <row r="158" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L157" s="13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>27</v>
       </c>
@@ -6895,9 +7087,11 @@
       <c r="K158" s="2">
         <v>3</v>
       </c>
-      <c r="M158" s="14"/>
-    </row>
-    <row r="159" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L158" s="11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>27</v>
       </c>
@@ -6931,9 +7125,9 @@
       <c r="K159" s="5">
         <v>4</v>
       </c>
-      <c r="M159" s="15"/>
-    </row>
-    <row r="160" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L159" s="12"/>
+    </row>
+    <row r="160" spans="1:12" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
         <v>27</v>
       </c>
@@ -6967,7 +7161,7 @@
       <c r="K160" s="5">
         <v>5</v>
       </c>
-      <c r="M160" s="15"/>
+      <c r="L160" s="12"/>
     </row>
     <row r="161" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
@@ -7003,7 +7197,9 @@
       <c r="K161" s="5">
         <v>6</v>
       </c>
-      <c r="M161" s="15"/>
+      <c r="L161" s="11" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="162" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
@@ -7039,7 +7235,7 @@
       <c r="K162" s="5">
         <v>1</v>
       </c>
-      <c r="M162" s="15"/>
+      <c r="L162" s="12"/>
     </row>
     <row r="163" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="7">
@@ -7075,223 +7271,223 @@
       <c r="K163" s="8">
         <v>2</v>
       </c>
-      <c r="M163" s="16"/>
-    </row>
-    <row r="164" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="1">
+      <c r="L163" s="13"/>
+    </row>
+    <row r="164" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="29">
         <v>28</v>
       </c>
-      <c r="B164" s="2">
+      <c r="B164" s="30">
         <v>1</v>
       </c>
-      <c r="C164" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D164" s="3" t="s">
+      <c r="C164" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D164" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E164" s="3" t="s">
+      <c r="E164" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="F164" s="3" t="s">
+      <c r="F164" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="G164" s="3" t="s">
+      <c r="G164" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="H164" s="3" t="s">
+      <c r="H164" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="I164" s="3" t="s">
+      <c r="I164" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="J164" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K164" s="2">
+      <c r="J164" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="K164" s="30">
         <v>4</v>
       </c>
-      <c r="M164" s="14"/>
-    </row>
-    <row r="165" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="4">
+      <c r="L164" s="32"/>
+    </row>
+    <row r="165" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="33">
         <v>28</v>
       </c>
-      <c r="B165" s="5">
+      <c r="B165" s="34">
         <v>2</v>
       </c>
-      <c r="C165" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D165" s="6" t="s">
+      <c r="C165" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D165" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E165" s="6" t="s">
+      <c r="E165" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="F165" s="6" t="s">
+      <c r="F165" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="G165" s="6" t="s">
+      <c r="G165" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="H165" s="6" t="s">
+      <c r="H165" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I165" s="6" t="s">
+      <c r="I165" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J165" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K165" s="5">
+      <c r="J165" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K165" s="34">
         <v>5</v>
       </c>
-      <c r="M165" s="15"/>
-    </row>
-    <row r="166" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="4">
+      <c r="L165" s="36"/>
+    </row>
+    <row r="166" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="33">
         <v>28</v>
       </c>
-      <c r="B166" s="5">
+      <c r="B166" s="34">
         <v>3</v>
       </c>
-      <c r="C166" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D166" s="6" t="s">
+      <c r="C166" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D166" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E166" s="6" t="s">
+      <c r="E166" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="F166" s="6" t="s">
+      <c r="F166" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="G166" s="6" t="s">
+      <c r="G166" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="H166" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I166" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J166" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K166" s="5">
+      <c r="H166" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I166" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="J166" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K166" s="34">
         <v>6</v>
       </c>
-      <c r="M166" s="15"/>
-    </row>
-    <row r="167" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="4">
+      <c r="L166" s="36"/>
+    </row>
+    <row r="167" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="33">
         <v>28</v>
       </c>
-      <c r="B167" s="5">
+      <c r="B167" s="34">
         <v>4</v>
       </c>
-      <c r="C167" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D167" s="6" t="s">
+      <c r="C167" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D167" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E167" s="6" t="s">
+      <c r="E167" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="F167" s="6" t="s">
+      <c r="F167" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="G167" s="6" t="s">
+      <c r="G167" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="H167" s="6" t="s">
+      <c r="H167" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="I167" s="6" t="s">
+      <c r="I167" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="J167" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K167" s="5">
+      <c r="J167" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K167" s="34">
         <v>1</v>
       </c>
-      <c r="M167" s="15"/>
-    </row>
-    <row r="168" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="4">
+      <c r="L167" s="36"/>
+    </row>
+    <row r="168" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="33">
         <v>28</v>
       </c>
-      <c r="B168" s="5">
+      <c r="B168" s="34">
         <v>5</v>
       </c>
-      <c r="C168" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D168" s="6" t="s">
+      <c r="C168" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D168" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E168" s="6" t="s">
+      <c r="E168" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="F168" s="6" t="s">
+      <c r="F168" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="G168" s="6" t="s">
+      <c r="G168" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="H168" s="6" t="s">
+      <c r="H168" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I168" s="6" t="s">
+      <c r="I168" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J168" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K168" s="5">
+      <c r="J168" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K168" s="34">
         <v>2</v>
       </c>
-      <c r="M168" s="15"/>
-    </row>
-    <row r="169" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="7">
+      <c r="L168" s="36"/>
+    </row>
+    <row r="169" spans="1:13" s="38" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="37">
         <v>28</v>
       </c>
-      <c r="B169" s="8">
+      <c r="B169" s="38">
         <v>6</v>
       </c>
-      <c r="C169" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D169" s="9" t="s">
+      <c r="C169" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D169" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E169" s="9" t="s">
+      <c r="E169" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="F169" s="9" t="s">
+      <c r="F169" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="G169" s="9" t="s">
+      <c r="G169" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="H169" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I169" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J169" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K169" s="8">
+      <c r="H169" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="I169" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="J169" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="K169" s="38">
         <v>3</v>
       </c>
-      <c r="M169" s="16"/>
+      <c r="L169" s="40"/>
     </row>
     <row r="170" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
@@ -7327,7 +7523,7 @@
       <c r="K170" s="2">
         <v>5</v>
       </c>
-      <c r="M170" s="14"/>
+      <c r="L170" s="11"/>
     </row>
     <row r="171" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
@@ -7363,7 +7559,7 @@
       <c r="K171" s="5">
         <v>6</v>
       </c>
-      <c r="M171" s="15"/>
+      <c r="L171" s="12"/>
     </row>
     <row r="172" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
@@ -7399,7 +7595,9 @@
       <c r="K172" s="5">
         <v>1</v>
       </c>
-      <c r="M172" s="15"/>
+      <c r="L172" s="12" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="173" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
@@ -7435,7 +7633,7 @@
       <c r="K173" s="5">
         <v>2</v>
       </c>
-      <c r="M173" s="15"/>
+      <c r="L173" s="12"/>
     </row>
     <row r="174" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
@@ -7471,7 +7669,7 @@
       <c r="K174" s="5">
         <v>3</v>
       </c>
-      <c r="M174" s="15"/>
+      <c r="L174" s="12"/>
     </row>
     <row r="175" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="7">
@@ -7507,1369 +7705,1377 @@
       <c r="K175" s="8">
         <v>4</v>
       </c>
-      <c r="M175" s="16"/>
-    </row>
-    <row r="176" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="10">
+      <c r="L175" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="17">
         <v>30</v>
       </c>
-      <c r="B176" s="2">
+      <c r="B176" s="18">
         <v>1</v>
       </c>
-      <c r="C176" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D176" s="3" t="s">
+      <c r="C176" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D176" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E176" s="3" t="s">
+      <c r="E176" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="F176" s="3" t="s">
+      <c r="F176" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="G176" s="3" t="s">
+      <c r="G176" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="H176" s="3" t="s">
+      <c r="H176" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="I176" s="3" t="s">
+      <c r="I176" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="J176" s="3" t="s">
+      <c r="J176" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K176" s="2">
+      <c r="K176" s="18">
         <v>6</v>
       </c>
-      <c r="M176" s="14"/>
-    </row>
-    <row r="177" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="11">
+      <c r="L176" s="20"/>
+      <c r="M176" s="20"/>
+    </row>
+    <row r="177" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="21">
         <v>30</v>
       </c>
-      <c r="B177" s="5">
+      <c r="B177" s="22">
         <v>2</v>
       </c>
-      <c r="C177" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D177" s="6" t="s">
+      <c r="C177" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D177" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E177" s="6" t="s">
+      <c r="E177" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="F177" s="6" t="s">
+      <c r="F177" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="G177" s="6" t="s">
+      <c r="G177" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="H177" s="6" t="s">
+      <c r="H177" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="I177" s="6" t="s">
+      <c r="I177" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="J177" s="6" t="s">
+      <c r="J177" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K177" s="5">
+      <c r="K177" s="22">
         <v>1</v>
       </c>
-      <c r="M177" s="15"/>
-    </row>
-    <row r="178" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="11">
+      <c r="L177" s="24"/>
+      <c r="M177" s="24"/>
+    </row>
+    <row r="178" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="21">
         <v>30</v>
       </c>
-      <c r="B178" s="5">
+      <c r="B178" s="22">
         <v>3</v>
       </c>
-      <c r="C178" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D178" s="6" t="s">
+      <c r="C178" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D178" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E178" s="6" t="s">
+      <c r="E178" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="F178" s="6" t="s">
+      <c r="F178" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="G178" s="6" t="s">
+      <c r="G178" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="H178" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I178" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J178" s="6" t="s">
+      <c r="H178" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I178" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="J178" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K178" s="5">
+      <c r="K178" s="22">
         <v>2</v>
       </c>
-      <c r="M178" s="15"/>
-    </row>
-    <row r="179" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="11">
+      <c r="L178" s="24"/>
+      <c r="M178" s="24"/>
+    </row>
+    <row r="179" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="21">
         <v>30</v>
       </c>
-      <c r="B179" s="5">
+      <c r="B179" s="22">
         <v>4</v>
       </c>
-      <c r="C179" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D179" s="6" t="s">
+      <c r="C179" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D179" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E179" s="6" t="s">
+      <c r="E179" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="F179" s="6" t="s">
+      <c r="F179" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="G179" s="6" t="s">
+      <c r="G179" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="H179" s="6" t="s">
+      <c r="H179" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="I179" s="6" t="s">
+      <c r="I179" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="J179" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K179" s="5">
+      <c r="J179" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K179" s="22">
         <v>3</v>
       </c>
-      <c r="M179" s="15"/>
-    </row>
-    <row r="180" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="11">
+      <c r="L179" s="24"/>
+      <c r="M179" s="24"/>
+    </row>
+    <row r="180" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="21">
         <v>30</v>
       </c>
-      <c r="B180" s="5">
+      <c r="B180" s="22">
         <v>5</v>
       </c>
-      <c r="C180" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D180" s="6" t="s">
+      <c r="C180" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D180" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E180" s="6" t="s">
+      <c r="E180" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="F180" s="6" t="s">
+      <c r="F180" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="G180" s="6" t="s">
+      <c r="G180" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="H180" s="6" t="s">
+      <c r="H180" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="I180" s="6" t="s">
+      <c r="I180" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="J180" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K180" s="5">
+      <c r="J180" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K180" s="22">
         <v>4</v>
       </c>
-      <c r="M180" s="15"/>
-    </row>
-    <row r="181" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="12">
+      <c r="L180" s="24"/>
+      <c r="M180" s="24"/>
+    </row>
+    <row r="181" spans="1:13" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="25">
         <v>30</v>
       </c>
-      <c r="B181" s="8">
+      <c r="B181" s="26">
         <v>6</v>
       </c>
-      <c r="C181" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D181" s="9" t="s">
+      <c r="C181" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D181" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E181" s="9" t="s">
+      <c r="E181" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="F181" s="9" t="s">
+      <c r="F181" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="G181" s="9" t="s">
+      <c r="G181" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="H181" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I181" s="9" t="s">
+      <c r="H181" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I181" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="J181" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K181" s="8">
+      <c r="J181" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K181" s="26">
         <v>5</v>
       </c>
-      <c r="M181" s="16"/>
+      <c r="L181" s="28"/>
+      <c r="M181" s="28"/>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M182" s="19"/>
+      <c r="L182" s="16"/>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M183" s="19"/>
+      <c r="L183" s="16"/>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M184" s="19"/>
+      <c r="L184" s="16"/>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M185" s="19"/>
+      <c r="L185" s="16"/>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M186" s="19"/>
+      <c r="L186" s="16"/>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M187" s="19"/>
+      <c r="L187" s="16"/>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M188" s="19"/>
+      <c r="L188" s="16"/>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M189" s="19"/>
+      <c r="L189" s="16"/>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M190" s="19"/>
+      <c r="L190" s="16"/>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M191" s="19"/>
+      <c r="L191" s="16"/>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M192" s="19"/>
-    </row>
-    <row r="193" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M193" s="19"/>
-    </row>
-    <row r="194" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M194" s="19"/>
-    </row>
-    <row r="195" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M195" s="19"/>
-    </row>
-    <row r="196" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M196" s="19"/>
-    </row>
-    <row r="197" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M197" s="19"/>
-    </row>
-    <row r="198" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M198" s="19"/>
-    </row>
-    <row r="199" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M199" s="19"/>
-    </row>
-    <row r="200" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M200" s="19"/>
-    </row>
-    <row r="201" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M201" s="19"/>
-    </row>
-    <row r="202" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M202" s="19"/>
-    </row>
-    <row r="203" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M203" s="19"/>
-    </row>
-    <row r="204" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M204" s="19"/>
-    </row>
-    <row r="205" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M205" s="19"/>
-    </row>
-    <row r="206" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M206" s="19"/>
-    </row>
-    <row r="207" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M207" s="19"/>
-    </row>
-    <row r="208" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M208" s="19"/>
-    </row>
-    <row r="209" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M209" s="19"/>
-    </row>
-    <row r="210" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M210" s="19"/>
-    </row>
-    <row r="211" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M211" s="19"/>
-    </row>
-    <row r="212" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M212" s="19"/>
-    </row>
-    <row r="213" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M213" s="19"/>
-    </row>
-    <row r="214" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M214" s="19"/>
-    </row>
-    <row r="215" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M215" s="19"/>
-    </row>
-    <row r="216" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M216" s="19"/>
-    </row>
-    <row r="217" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M217" s="19"/>
-    </row>
-    <row r="218" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M218" s="19"/>
-    </row>
-    <row r="219" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M219" s="19"/>
-    </row>
-    <row r="220" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M220" s="19"/>
-    </row>
-    <row r="221" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M221" s="19"/>
-    </row>
-    <row r="222" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M222" s="19"/>
-    </row>
-    <row r="223" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M223" s="19"/>
-    </row>
-    <row r="224" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M224" s="19"/>
-    </row>
-    <row r="225" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M225" s="19"/>
-    </row>
-    <row r="226" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M226" s="19"/>
-    </row>
-    <row r="227" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M227" s="19"/>
-    </row>
-    <row r="228" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M228" s="19"/>
-    </row>
-    <row r="229" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M229" s="19"/>
-    </row>
-    <row r="230" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M230" s="19"/>
-    </row>
-    <row r="231" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M231" s="19"/>
-    </row>
-    <row r="232" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M232" s="19"/>
-    </row>
-    <row r="233" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M233" s="19"/>
-    </row>
-    <row r="234" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M234" s="19"/>
-    </row>
-    <row r="235" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M235" s="19"/>
-    </row>
-    <row r="236" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M236" s="19"/>
-    </row>
-    <row r="237" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M237" s="19"/>
-    </row>
-    <row r="238" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M238" s="19"/>
-    </row>
-    <row r="239" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M239" s="19"/>
-    </row>
-    <row r="240" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M240" s="19"/>
-    </row>
-    <row r="241" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M241" s="19"/>
-    </row>
-    <row r="242" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M242" s="19"/>
-    </row>
-    <row r="243" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M243" s="19"/>
-    </row>
-    <row r="244" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M244" s="19"/>
-    </row>
-    <row r="245" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M245" s="19"/>
-    </row>
-    <row r="246" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M246" s="19"/>
-    </row>
-    <row r="247" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M247" s="19"/>
-    </row>
-    <row r="248" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M248" s="19"/>
-    </row>
-    <row r="249" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M249" s="19"/>
-    </row>
-    <row r="250" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M250" s="19"/>
-    </row>
-    <row r="251" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M251" s="19"/>
-    </row>
-    <row r="252" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M252" s="19"/>
-    </row>
-    <row r="253" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M253" s="19"/>
-    </row>
-    <row r="254" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M254" s="19"/>
-    </row>
-    <row r="255" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M255" s="19"/>
-    </row>
-    <row r="256" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M256" s="19"/>
-    </row>
-    <row r="257" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M257" s="19"/>
-    </row>
-    <row r="258" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M258" s="19"/>
-    </row>
-    <row r="259" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M259" s="19"/>
-    </row>
-    <row r="260" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M260" s="19"/>
-    </row>
-    <row r="261" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M261" s="19"/>
-    </row>
-    <row r="262" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M262" s="19"/>
-    </row>
-    <row r="263" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M263" s="19"/>
-    </row>
-    <row r="264" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M264" s="19"/>
-    </row>
-    <row r="265" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M265" s="19"/>
-    </row>
-    <row r="266" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M266" s="19"/>
-    </row>
-    <row r="267" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M267" s="19"/>
-    </row>
-    <row r="268" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M268" s="19"/>
-    </row>
-    <row r="269" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M269" s="19"/>
-    </row>
-    <row r="270" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M270" s="19"/>
-    </row>
-    <row r="271" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M271" s="19"/>
-    </row>
-    <row r="272" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M272" s="19"/>
-    </row>
-    <row r="273" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M273" s="19"/>
-    </row>
-    <row r="274" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M274" s="19"/>
-    </row>
-    <row r="275" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M275" s="19"/>
-    </row>
-    <row r="276" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M276" s="19"/>
-    </row>
-    <row r="277" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M277" s="19"/>
-    </row>
-    <row r="278" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M278" s="19"/>
-    </row>
-    <row r="279" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M279" s="19"/>
-    </row>
-    <row r="280" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M280" s="19"/>
-    </row>
-    <row r="281" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M281" s="19"/>
-    </row>
-    <row r="282" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M282" s="19"/>
-    </row>
-    <row r="283" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M283" s="19"/>
-    </row>
-    <row r="284" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M284" s="19"/>
-    </row>
-    <row r="285" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M285" s="19"/>
-    </row>
-    <row r="286" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M286" s="19"/>
-    </row>
-    <row r="287" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M287" s="19"/>
-    </row>
-    <row r="288" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M288" s="19"/>
-    </row>
-    <row r="289" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M289" s="19"/>
-    </row>
-    <row r="290" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M290" s="19"/>
-    </row>
-    <row r="291" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M291" s="19"/>
-    </row>
-    <row r="292" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M292" s="19"/>
-    </row>
-    <row r="293" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M293" s="19"/>
-    </row>
-    <row r="294" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M294" s="19"/>
-    </row>
-    <row r="295" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M295" s="19"/>
-    </row>
-    <row r="296" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M296" s="19"/>
-    </row>
-    <row r="297" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M297" s="19"/>
-    </row>
-    <row r="298" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M298" s="19"/>
-    </row>
-    <row r="299" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M299" s="19"/>
-    </row>
-    <row r="300" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M300" s="19"/>
-    </row>
-    <row r="301" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M301" s="19"/>
-    </row>
-    <row r="302" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M302" s="19"/>
-    </row>
-    <row r="303" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M303" s="19"/>
-    </row>
-    <row r="304" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M304" s="19"/>
-    </row>
-    <row r="305" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M305" s="19"/>
-    </row>
-    <row r="306" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M306" s="19"/>
-    </row>
-    <row r="307" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M307" s="19"/>
-    </row>
-    <row r="308" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M308" s="19"/>
-    </row>
-    <row r="309" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M309" s="19"/>
-    </row>
-    <row r="310" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M310" s="19"/>
-    </row>
-    <row r="311" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M311" s="19"/>
-    </row>
-    <row r="312" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M312" s="19"/>
-    </row>
-    <row r="313" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M313" s="19"/>
-    </row>
-    <row r="314" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M314" s="19"/>
-    </row>
-    <row r="315" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M315" s="19"/>
-    </row>
-    <row r="316" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M316" s="19"/>
-    </row>
-    <row r="317" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M317" s="19"/>
-    </row>
-    <row r="318" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M318" s="19"/>
-    </row>
-    <row r="319" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M319" s="19"/>
-    </row>
-    <row r="320" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M320" s="19"/>
-    </row>
-    <row r="321" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M321" s="19"/>
-    </row>
-    <row r="322" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M322" s="19"/>
-    </row>
-    <row r="323" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M323" s="19"/>
-    </row>
-    <row r="324" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M324" s="19"/>
-    </row>
-    <row r="325" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M325" s="19"/>
-    </row>
-    <row r="326" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M326" s="19"/>
-    </row>
-    <row r="327" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M327" s="19"/>
-    </row>
-    <row r="328" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M328" s="19"/>
-    </row>
-    <row r="329" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M329" s="19"/>
-    </row>
-    <row r="330" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M330" s="19"/>
-    </row>
-    <row r="331" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M331" s="19"/>
-    </row>
-    <row r="332" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M332" s="19"/>
-    </row>
-    <row r="333" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M333" s="19"/>
-    </row>
-    <row r="334" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M334" s="19"/>
-    </row>
-    <row r="335" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M335" s="19"/>
-    </row>
-    <row r="336" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M336" s="19"/>
-    </row>
-    <row r="337" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M337" s="19"/>
-    </row>
-    <row r="338" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M338" s="19"/>
-    </row>
-    <row r="339" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M339" s="19"/>
-    </row>
-    <row r="340" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M340" s="19"/>
-    </row>
-    <row r="341" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M341" s="19"/>
-    </row>
-    <row r="342" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M342" s="19"/>
-    </row>
-    <row r="343" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M343" s="19"/>
-    </row>
-    <row r="344" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M344" s="19"/>
-    </row>
-    <row r="345" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M345" s="19"/>
-    </row>
-    <row r="346" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M346" s="19"/>
-    </row>
-    <row r="347" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M347" s="19"/>
-    </row>
-    <row r="348" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M348" s="19"/>
-    </row>
-    <row r="349" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M349" s="19"/>
-    </row>
-    <row r="350" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M350" s="19"/>
-    </row>
-    <row r="351" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M351" s="19"/>
-    </row>
-    <row r="352" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M352" s="19"/>
-    </row>
-    <row r="353" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M353" s="19"/>
-    </row>
-    <row r="354" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M354" s="19"/>
-    </row>
-    <row r="355" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M355" s="19"/>
-    </row>
-    <row r="356" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M356" s="19"/>
-    </row>
-    <row r="357" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M357" s="19"/>
-    </row>
-    <row r="358" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M358" s="19"/>
-    </row>
-    <row r="359" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M359" s="19"/>
-    </row>
-    <row r="360" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M360" s="19"/>
-    </row>
-    <row r="361" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M361" s="19"/>
-    </row>
-    <row r="362" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M362" s="19"/>
-    </row>
-    <row r="363" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M363" s="19"/>
-    </row>
-    <row r="364" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M364" s="19"/>
-    </row>
-    <row r="365" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M365" s="19"/>
-    </row>
-    <row r="366" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M366" s="19"/>
-    </row>
-    <row r="367" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M367" s="19"/>
-    </row>
-    <row r="368" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M368" s="19"/>
-    </row>
-    <row r="369" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M369" s="19"/>
-    </row>
-    <row r="370" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M370" s="19"/>
-    </row>
-    <row r="371" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M371" s="19"/>
-    </row>
-    <row r="372" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M372" s="19"/>
-    </row>
-    <row r="373" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M373" s="19"/>
-    </row>
-    <row r="374" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M374" s="19"/>
-    </row>
-    <row r="375" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M375" s="19"/>
-    </row>
-    <row r="376" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M376" s="19"/>
-    </row>
-    <row r="377" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M377" s="19"/>
-    </row>
-    <row r="378" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M378" s="19"/>
-    </row>
-    <row r="379" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M379" s="19"/>
-    </row>
-    <row r="380" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M380" s="19"/>
-    </row>
-    <row r="381" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M381" s="19"/>
-    </row>
-    <row r="382" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M382" s="19"/>
-    </row>
-    <row r="383" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M383" s="19"/>
-    </row>
-    <row r="384" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M384" s="19"/>
-    </row>
-    <row r="385" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M385" s="19"/>
-    </row>
-    <row r="386" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M386" s="19"/>
-    </row>
-    <row r="387" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M387" s="19"/>
-    </row>
-    <row r="388" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M388" s="19"/>
-    </row>
-    <row r="389" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M389" s="19"/>
-    </row>
-    <row r="390" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M390" s="19"/>
-    </row>
-    <row r="391" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M391" s="19"/>
-    </row>
-    <row r="392" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M392" s="19"/>
-    </row>
-    <row r="393" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M393" s="19"/>
-    </row>
-    <row r="394" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M394" s="19"/>
-    </row>
-    <row r="395" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M395" s="19"/>
-    </row>
-    <row r="396" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M396" s="19"/>
-    </row>
-    <row r="397" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M397" s="19"/>
-    </row>
-    <row r="398" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M398" s="19"/>
-    </row>
-    <row r="399" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M399" s="19"/>
-    </row>
-    <row r="400" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M400" s="19"/>
-    </row>
-    <row r="401" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M401" s="19"/>
-    </row>
-    <row r="402" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M402" s="19"/>
-    </row>
-    <row r="403" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M403" s="19"/>
-    </row>
-    <row r="404" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M404" s="19"/>
-    </row>
-    <row r="405" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M405" s="19"/>
-    </row>
-    <row r="406" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M406" s="19"/>
-    </row>
-    <row r="407" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M407" s="19"/>
-    </row>
-    <row r="408" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M408" s="19"/>
-    </row>
-    <row r="409" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M409" s="19"/>
-    </row>
-    <row r="410" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M410" s="19"/>
-    </row>
-    <row r="411" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M411" s="19"/>
-    </row>
-    <row r="412" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M412" s="19"/>
-    </row>
-    <row r="413" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M413" s="19"/>
-    </row>
-    <row r="414" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M414" s="19"/>
-    </row>
-    <row r="415" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M415" s="19"/>
-    </row>
-    <row r="416" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M416" s="19"/>
-    </row>
-    <row r="417" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M417" s="19"/>
-    </row>
-    <row r="418" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M418" s="19"/>
-    </row>
-    <row r="419" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M419" s="19"/>
-    </row>
-    <row r="420" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M420" s="19"/>
-    </row>
-    <row r="421" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M421" s="19"/>
-    </row>
-    <row r="422" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M422" s="19"/>
-    </row>
-    <row r="423" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M423" s="19"/>
-    </row>
-    <row r="424" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M424" s="19"/>
-    </row>
-    <row r="425" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M425" s="19"/>
-    </row>
-    <row r="426" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M426" s="19"/>
-    </row>
-    <row r="427" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M427" s="19"/>
-    </row>
-    <row r="428" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M428" s="19"/>
-    </row>
-    <row r="429" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M429" s="19"/>
-    </row>
-    <row r="430" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M430" s="19"/>
-    </row>
-    <row r="431" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M431" s="19"/>
-    </row>
-    <row r="432" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M432" s="19"/>
-    </row>
-    <row r="433" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M433" s="19"/>
-    </row>
-    <row r="434" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M434" s="19"/>
-    </row>
-    <row r="435" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M435" s="19"/>
-    </row>
-    <row r="436" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M436" s="19"/>
-    </row>
-    <row r="437" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M437" s="19"/>
-    </row>
-    <row r="438" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M438" s="19"/>
-    </row>
-    <row r="439" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M439" s="19"/>
-    </row>
-    <row r="440" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M440" s="19"/>
-    </row>
-    <row r="441" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M441" s="19"/>
-    </row>
-    <row r="442" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M442" s="19"/>
-    </row>
-    <row r="443" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M443" s="19"/>
-    </row>
-    <row r="444" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M444" s="19"/>
-    </row>
-    <row r="445" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M445" s="19"/>
-    </row>
-    <row r="446" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M446" s="19"/>
-    </row>
-    <row r="447" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M447" s="19"/>
-    </row>
-    <row r="448" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M448" s="19"/>
-    </row>
-    <row r="449" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M449" s="19"/>
-    </row>
-    <row r="450" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M450" s="19"/>
-    </row>
-    <row r="451" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M451" s="19"/>
-    </row>
-    <row r="452" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M452" s="19"/>
-    </row>
-    <row r="453" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M453" s="19"/>
-    </row>
-    <row r="454" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M454" s="19"/>
-    </row>
-    <row r="455" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M455" s="19"/>
-    </row>
-    <row r="456" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M456" s="19"/>
-    </row>
-    <row r="457" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M457" s="19"/>
-    </row>
-    <row r="458" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M458" s="19"/>
-    </row>
-    <row r="459" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M459" s="19"/>
-    </row>
-    <row r="460" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M460" s="19"/>
-    </row>
-    <row r="461" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M461" s="19"/>
-    </row>
-    <row r="462" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M462" s="19"/>
-    </row>
-    <row r="463" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M463" s="19"/>
-    </row>
-    <row r="464" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M464" s="19"/>
-    </row>
-    <row r="465" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M465" s="19"/>
-    </row>
-    <row r="466" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M466" s="19"/>
-    </row>
-    <row r="467" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M467" s="19"/>
-    </row>
-    <row r="468" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M468" s="19"/>
-    </row>
-    <row r="469" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M469" s="19"/>
-    </row>
-    <row r="470" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M470" s="19"/>
-    </row>
-    <row r="471" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M471" s="19"/>
-    </row>
-    <row r="472" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M472" s="19"/>
-    </row>
-    <row r="473" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M473" s="19"/>
-    </row>
-    <row r="474" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M474" s="19"/>
-    </row>
-    <row r="475" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M475" s="19"/>
-    </row>
-    <row r="476" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M476" s="19"/>
-    </row>
-    <row r="477" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M477" s="19"/>
-    </row>
-    <row r="478" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M478" s="19"/>
-    </row>
-    <row r="479" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M479" s="19"/>
-    </row>
-    <row r="480" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M480" s="19"/>
-    </row>
-    <row r="481" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M481" s="19"/>
-    </row>
-    <row r="482" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M482" s="19"/>
-    </row>
-    <row r="483" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M483" s="19"/>
-    </row>
-    <row r="484" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M484" s="19"/>
-    </row>
-    <row r="485" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M485" s="19"/>
-    </row>
-    <row r="486" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M486" s="19"/>
-    </row>
-    <row r="487" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M487" s="19"/>
-    </row>
-    <row r="488" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M488" s="19"/>
-    </row>
-    <row r="489" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M489" s="19"/>
-    </row>
-    <row r="490" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M490" s="19"/>
-    </row>
-    <row r="491" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M491" s="19"/>
-    </row>
-    <row r="492" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M492" s="19"/>
-    </row>
-    <row r="493" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M493" s="19"/>
-    </row>
-    <row r="494" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M494" s="19"/>
-    </row>
-    <row r="495" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M495" s="19"/>
-    </row>
-    <row r="496" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M496" s="19"/>
-    </row>
-    <row r="497" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M497" s="19"/>
-    </row>
-    <row r="498" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M498" s="19"/>
-    </row>
-    <row r="499" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M499" s="19"/>
-    </row>
-    <row r="500" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M500" s="19"/>
-    </row>
-    <row r="501" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M501" s="19"/>
-    </row>
-    <row r="502" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M502" s="19"/>
-    </row>
-    <row r="503" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M503" s="19"/>
-    </row>
-    <row r="504" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M504" s="19"/>
-    </row>
-    <row r="505" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M505" s="19"/>
-    </row>
-    <row r="506" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M506" s="19"/>
-    </row>
-    <row r="507" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M507" s="19"/>
-    </row>
-    <row r="508" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M508" s="19"/>
-    </row>
-    <row r="509" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M509" s="19"/>
-    </row>
-    <row r="510" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M510" s="19"/>
-    </row>
-    <row r="511" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M511" s="19"/>
-    </row>
-    <row r="512" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M512" s="19"/>
-    </row>
-    <row r="513" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M513" s="19"/>
-    </row>
-    <row r="514" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M514" s="19"/>
-    </row>
-    <row r="515" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M515" s="19"/>
-    </row>
-    <row r="516" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M516" s="19"/>
-    </row>
-    <row r="517" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M517" s="19"/>
-    </row>
-    <row r="518" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M518" s="19"/>
-    </row>
-    <row r="519" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M519" s="19"/>
-    </row>
-    <row r="520" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M520" s="19"/>
-    </row>
-    <row r="521" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M521" s="19"/>
-    </row>
-    <row r="522" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M522" s="19"/>
-    </row>
-    <row r="523" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M523" s="19"/>
-    </row>
-    <row r="524" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M524" s="19"/>
-    </row>
-    <row r="525" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M525" s="19"/>
-    </row>
-    <row r="526" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M526" s="19"/>
-    </row>
-    <row r="527" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M527" s="19"/>
-    </row>
-    <row r="528" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M528" s="19"/>
-    </row>
-    <row r="529" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M529" s="19"/>
-    </row>
-    <row r="530" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M530" s="19"/>
-    </row>
-    <row r="531" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M531" s="19"/>
-    </row>
-    <row r="532" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M532" s="19"/>
-    </row>
-    <row r="533" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M533" s="19"/>
-    </row>
-    <row r="534" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M534" s="19"/>
-    </row>
-    <row r="535" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M535" s="19"/>
-    </row>
-    <row r="536" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M536" s="19"/>
-    </row>
-    <row r="537" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M537" s="19"/>
-    </row>
-    <row r="538" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M538" s="19"/>
-    </row>
-    <row r="539" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M539" s="19"/>
-    </row>
-    <row r="540" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M540" s="19"/>
-    </row>
-    <row r="541" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M541" s="19"/>
-    </row>
-    <row r="542" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M542" s="19"/>
-    </row>
-    <row r="543" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M543" s="19"/>
-    </row>
-    <row r="544" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M544" s="19"/>
-    </row>
-    <row r="545" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M545" s="19"/>
-    </row>
-    <row r="546" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M546" s="19"/>
-    </row>
-    <row r="547" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M547" s="19"/>
-    </row>
-    <row r="548" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M548" s="19"/>
-    </row>
-    <row r="549" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M549" s="19"/>
-    </row>
-    <row r="550" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M550" s="19"/>
-    </row>
-    <row r="551" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M551" s="19"/>
-    </row>
-    <row r="552" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M552" s="19"/>
-    </row>
-    <row r="553" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M553" s="19"/>
-    </row>
-    <row r="554" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M554" s="19"/>
-    </row>
-    <row r="555" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M555" s="19"/>
-    </row>
-    <row r="556" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M556" s="19"/>
-    </row>
-    <row r="557" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M557" s="19"/>
-    </row>
-    <row r="558" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M558" s="19"/>
-    </row>
-    <row r="559" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M559" s="19"/>
-    </row>
-    <row r="560" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M560" s="19"/>
-    </row>
-    <row r="561" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M561" s="19"/>
-    </row>
-    <row r="562" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M562" s="19"/>
-    </row>
-    <row r="563" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M563" s="19"/>
+      <c r="L192" s="16"/>
+    </row>
+    <row r="193" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L193" s="16"/>
+    </row>
+    <row r="194" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L194" s="16"/>
+    </row>
+    <row r="195" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L195" s="16"/>
+    </row>
+    <row r="196" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L196" s="16"/>
+    </row>
+    <row r="197" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L197" s="16"/>
+    </row>
+    <row r="198" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L198" s="16"/>
+    </row>
+    <row r="199" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L199" s="16"/>
+    </row>
+    <row r="200" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L200" s="16"/>
+    </row>
+    <row r="201" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L201" s="16"/>
+    </row>
+    <row r="202" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L202" s="16"/>
+    </row>
+    <row r="203" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L203" s="16"/>
+    </row>
+    <row r="204" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L204" s="16"/>
+    </row>
+    <row r="205" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L205" s="16"/>
+    </row>
+    <row r="206" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L206" s="16"/>
+    </row>
+    <row r="207" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L207" s="16"/>
+    </row>
+    <row r="208" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L208" s="16"/>
+    </row>
+    <row r="209" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L209" s="16"/>
+    </row>
+    <row r="210" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L210" s="16"/>
+    </row>
+    <row r="211" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L211" s="16"/>
+    </row>
+    <row r="212" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L212" s="16"/>
+    </row>
+    <row r="213" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L213" s="16"/>
+    </row>
+    <row r="214" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L214" s="16"/>
+    </row>
+    <row r="215" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L215" s="16"/>
+    </row>
+    <row r="216" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L216" s="16"/>
+    </row>
+    <row r="217" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L217" s="16"/>
+    </row>
+    <row r="218" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L218" s="16"/>
+    </row>
+    <row r="219" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L219" s="16"/>
+    </row>
+    <row r="220" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L220" s="16"/>
+    </row>
+    <row r="221" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L221" s="16"/>
+    </row>
+    <row r="222" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L222" s="16"/>
+    </row>
+    <row r="223" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L223" s="16"/>
+    </row>
+    <row r="224" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L224" s="16"/>
+    </row>
+    <row r="225" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L225" s="16"/>
+    </row>
+    <row r="226" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L226" s="16"/>
+    </row>
+    <row r="227" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L227" s="16"/>
+    </row>
+    <row r="228" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L228" s="16"/>
+    </row>
+    <row r="229" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L229" s="16"/>
+    </row>
+    <row r="230" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L230" s="16"/>
+    </row>
+    <row r="231" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L231" s="16"/>
+    </row>
+    <row r="232" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L232" s="16"/>
+    </row>
+    <row r="233" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L233" s="16"/>
+    </row>
+    <row r="234" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L234" s="16"/>
+    </row>
+    <row r="235" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L235" s="16"/>
+    </row>
+    <row r="236" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L236" s="16"/>
+    </row>
+    <row r="237" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L237" s="16"/>
+    </row>
+    <row r="238" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L238" s="16"/>
+    </row>
+    <row r="239" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L239" s="16"/>
+    </row>
+    <row r="240" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L240" s="16"/>
+    </row>
+    <row r="241" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L241" s="16"/>
+    </row>
+    <row r="242" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L242" s="16"/>
+    </row>
+    <row r="243" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L243" s="16"/>
+    </row>
+    <row r="244" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L244" s="16"/>
+    </row>
+    <row r="245" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L245" s="16"/>
+    </row>
+    <row r="246" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L246" s="16"/>
+    </row>
+    <row r="247" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L247" s="16"/>
+    </row>
+    <row r="248" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L248" s="16"/>
+    </row>
+    <row r="249" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L249" s="16"/>
+    </row>
+    <row r="250" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L250" s="16"/>
+    </row>
+    <row r="251" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L251" s="16"/>
+    </row>
+    <row r="252" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L252" s="16"/>
+    </row>
+    <row r="253" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L253" s="16"/>
+    </row>
+    <row r="254" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L254" s="16"/>
+    </row>
+    <row r="255" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L255" s="16"/>
+    </row>
+    <row r="256" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L256" s="16"/>
+    </row>
+    <row r="257" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L257" s="16"/>
+    </row>
+    <row r="258" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L258" s="16"/>
+    </row>
+    <row r="259" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L259" s="16"/>
+    </row>
+    <row r="260" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L260" s="16"/>
+    </row>
+    <row r="261" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L261" s="16"/>
+    </row>
+    <row r="262" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L262" s="16"/>
+    </row>
+    <row r="263" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L263" s="16"/>
+    </row>
+    <row r="264" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L264" s="16"/>
+    </row>
+    <row r="265" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L265" s="16"/>
+    </row>
+    <row r="266" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L266" s="16"/>
+    </row>
+    <row r="267" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L267" s="16"/>
+    </row>
+    <row r="268" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L268" s="16"/>
+    </row>
+    <row r="269" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L269" s="16"/>
+    </row>
+    <row r="270" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L270" s="16"/>
+    </row>
+    <row r="271" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L271" s="16"/>
+    </row>
+    <row r="272" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L272" s="16"/>
+    </row>
+    <row r="273" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L273" s="16"/>
+    </row>
+    <row r="274" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L274" s="16"/>
+    </row>
+    <row r="275" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L275" s="16"/>
+    </row>
+    <row r="276" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L276" s="16"/>
+    </row>
+    <row r="277" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L277" s="16"/>
+    </row>
+    <row r="278" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L278" s="16"/>
+    </row>
+    <row r="279" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L279" s="16"/>
+    </row>
+    <row r="280" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L280" s="16"/>
+    </row>
+    <row r="281" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L281" s="16"/>
+    </row>
+    <row r="282" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L282" s="16"/>
+    </row>
+    <row r="283" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L283" s="16"/>
+    </row>
+    <row r="284" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L284" s="16"/>
+    </row>
+    <row r="285" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L285" s="16"/>
+    </row>
+    <row r="286" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L286" s="16"/>
+    </row>
+    <row r="287" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L287" s="16"/>
+    </row>
+    <row r="288" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L288" s="16"/>
+    </row>
+    <row r="289" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L289" s="16"/>
+    </row>
+    <row r="290" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L290" s="16"/>
+    </row>
+    <row r="291" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L291" s="16"/>
+    </row>
+    <row r="292" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L292" s="16"/>
+    </row>
+    <row r="293" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L293" s="16"/>
+    </row>
+    <row r="294" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L294" s="16"/>
+    </row>
+    <row r="295" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L295" s="16"/>
+    </row>
+    <row r="296" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L296" s="16"/>
+    </row>
+    <row r="297" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L297" s="16"/>
+    </row>
+    <row r="298" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L298" s="16"/>
+    </row>
+    <row r="299" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L299" s="16"/>
+    </row>
+    <row r="300" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L300" s="16"/>
+    </row>
+    <row r="301" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L301" s="16"/>
+    </row>
+    <row r="302" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L302" s="16"/>
+    </row>
+    <row r="303" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L303" s="16"/>
+    </row>
+    <row r="304" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L304" s="16"/>
+    </row>
+    <row r="305" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L305" s="16"/>
+    </row>
+    <row r="306" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L306" s="16"/>
+    </row>
+    <row r="307" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L307" s="16"/>
+    </row>
+    <row r="308" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L308" s="16"/>
+    </row>
+    <row r="309" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L309" s="16"/>
+    </row>
+    <row r="310" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L310" s="16"/>
+    </row>
+    <row r="311" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L311" s="16"/>
+    </row>
+    <row r="312" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L312" s="16"/>
+    </row>
+    <row r="313" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L313" s="16"/>
+    </row>
+    <row r="314" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L314" s="16"/>
+    </row>
+    <row r="315" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L315" s="16"/>
+    </row>
+    <row r="316" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L316" s="16"/>
+    </row>
+    <row r="317" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L317" s="16"/>
+    </row>
+    <row r="318" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L318" s="16"/>
+    </row>
+    <row r="319" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L319" s="16"/>
+    </row>
+    <row r="320" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L320" s="16"/>
+    </row>
+    <row r="321" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L321" s="16"/>
+    </row>
+    <row r="322" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L322" s="16"/>
+    </row>
+    <row r="323" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L323" s="16"/>
+    </row>
+    <row r="324" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L324" s="16"/>
+    </row>
+    <row r="325" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L325" s="16"/>
+    </row>
+    <row r="326" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L326" s="16"/>
+    </row>
+    <row r="327" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L327" s="16"/>
+    </row>
+    <row r="328" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L328" s="16"/>
+    </row>
+    <row r="329" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L329" s="16"/>
+    </row>
+    <row r="330" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L330" s="16"/>
+    </row>
+    <row r="331" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L331" s="16"/>
+    </row>
+    <row r="332" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L332" s="16"/>
+    </row>
+    <row r="333" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L333" s="16"/>
+    </row>
+    <row r="334" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L334" s="16"/>
+    </row>
+    <row r="335" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L335" s="16"/>
+    </row>
+    <row r="336" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L336" s="16"/>
+    </row>
+    <row r="337" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L337" s="16"/>
+    </row>
+    <row r="338" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L338" s="16"/>
+    </row>
+    <row r="339" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L339" s="16"/>
+    </row>
+    <row r="340" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L340" s="16"/>
+    </row>
+    <row r="341" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L341" s="16"/>
+    </row>
+    <row r="342" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L342" s="16"/>
+    </row>
+    <row r="343" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L343" s="16"/>
+    </row>
+    <row r="344" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L344" s="16"/>
+    </row>
+    <row r="345" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L345" s="16"/>
+    </row>
+    <row r="346" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L346" s="16"/>
+    </row>
+    <row r="347" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L347" s="16"/>
+    </row>
+    <row r="348" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L348" s="16"/>
+    </row>
+    <row r="349" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L349" s="16"/>
+    </row>
+    <row r="350" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L350" s="16"/>
+    </row>
+    <row r="351" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L351" s="16"/>
+    </row>
+    <row r="352" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L352" s="16"/>
+    </row>
+    <row r="353" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L353" s="16"/>
+    </row>
+    <row r="354" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L354" s="16"/>
+    </row>
+    <row r="355" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L355" s="16"/>
+    </row>
+    <row r="356" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L356" s="16"/>
+    </row>
+    <row r="357" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L357" s="16"/>
+    </row>
+    <row r="358" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L358" s="16"/>
+    </row>
+    <row r="359" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L359" s="16"/>
+    </row>
+    <row r="360" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L360" s="16"/>
+    </row>
+    <row r="361" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L361" s="16"/>
+    </row>
+    <row r="362" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L362" s="16"/>
+    </row>
+    <row r="363" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L363" s="16"/>
+    </row>
+    <row r="364" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L364" s="16"/>
+    </row>
+    <row r="365" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L365" s="16"/>
+    </row>
+    <row r="366" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L366" s="16"/>
+    </row>
+    <row r="367" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L367" s="16"/>
+    </row>
+    <row r="368" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L368" s="16"/>
+    </row>
+    <row r="369" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L369" s="16"/>
+    </row>
+    <row r="370" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L370" s="16"/>
+    </row>
+    <row r="371" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L371" s="16"/>
+    </row>
+    <row r="372" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L372" s="16"/>
+    </row>
+    <row r="373" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L373" s="16"/>
+    </row>
+    <row r="374" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L374" s="16"/>
+    </row>
+    <row r="375" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L375" s="16"/>
+    </row>
+    <row r="376" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L376" s="16"/>
+    </row>
+    <row r="377" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L377" s="16"/>
+    </row>
+    <row r="378" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L378" s="16"/>
+    </row>
+    <row r="379" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L379" s="16"/>
+    </row>
+    <row r="380" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L380" s="16"/>
+    </row>
+    <row r="381" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L381" s="16"/>
+    </row>
+    <row r="382" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L382" s="16"/>
+    </row>
+    <row r="383" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L383" s="16"/>
+    </row>
+    <row r="384" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L384" s="16"/>
+    </row>
+    <row r="385" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L385" s="16"/>
+    </row>
+    <row r="386" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L386" s="16"/>
+    </row>
+    <row r="387" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L387" s="16"/>
+    </row>
+    <row r="388" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L388" s="16"/>
+    </row>
+    <row r="389" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L389" s="16"/>
+    </row>
+    <row r="390" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L390" s="16"/>
+    </row>
+    <row r="391" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L391" s="16"/>
+    </row>
+    <row r="392" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L392" s="16"/>
+    </row>
+    <row r="393" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L393" s="16"/>
+    </row>
+    <row r="394" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L394" s="16"/>
+    </row>
+    <row r="395" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L395" s="16"/>
+    </row>
+    <row r="396" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L396" s="16"/>
+    </row>
+    <row r="397" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L397" s="16"/>
+    </row>
+    <row r="398" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L398" s="16"/>
+    </row>
+    <row r="399" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L399" s="16"/>
+    </row>
+    <row r="400" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L400" s="16"/>
+    </row>
+    <row r="401" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L401" s="16"/>
+    </row>
+    <row r="402" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L402" s="16"/>
+    </row>
+    <row r="403" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L403" s="16"/>
+    </row>
+    <row r="404" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L404" s="16"/>
+    </row>
+    <row r="405" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L405" s="16"/>
+    </row>
+    <row r="406" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L406" s="16"/>
+    </row>
+    <row r="407" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L407" s="16"/>
+    </row>
+    <row r="408" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L408" s="16"/>
+    </row>
+    <row r="409" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L409" s="16"/>
+    </row>
+    <row r="410" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L410" s="16"/>
+    </row>
+    <row r="411" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L411" s="16"/>
+    </row>
+    <row r="412" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L412" s="16"/>
+    </row>
+    <row r="413" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L413" s="16"/>
+    </row>
+    <row r="414" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L414" s="16"/>
+    </row>
+    <row r="415" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L415" s="16"/>
+    </row>
+    <row r="416" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L416" s="16"/>
+    </row>
+    <row r="417" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L417" s="16"/>
+    </row>
+    <row r="418" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L418" s="16"/>
+    </row>
+    <row r="419" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L419" s="16"/>
+    </row>
+    <row r="420" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L420" s="16"/>
+    </row>
+    <row r="421" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L421" s="16"/>
+    </row>
+    <row r="422" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L422" s="16"/>
+    </row>
+    <row r="423" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L423" s="16"/>
+    </row>
+    <row r="424" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L424" s="16"/>
+    </row>
+    <row r="425" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L425" s="16"/>
+    </row>
+    <row r="426" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L426" s="16"/>
+    </row>
+    <row r="427" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L427" s="16"/>
+    </row>
+    <row r="428" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L428" s="16"/>
+    </row>
+    <row r="429" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L429" s="16"/>
+    </row>
+    <row r="430" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L430" s="16"/>
+    </row>
+    <row r="431" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L431" s="16"/>
+    </row>
+    <row r="432" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L432" s="16"/>
+    </row>
+    <row r="433" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L433" s="16"/>
+    </row>
+    <row r="434" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L434" s="16"/>
+    </row>
+    <row r="435" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L435" s="16"/>
+    </row>
+    <row r="436" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L436" s="16"/>
+    </row>
+    <row r="437" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L437" s="16"/>
+    </row>
+    <row r="438" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L438" s="16"/>
+    </row>
+    <row r="439" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L439" s="16"/>
+    </row>
+    <row r="440" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L440" s="16"/>
+    </row>
+    <row r="441" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L441" s="16"/>
+    </row>
+    <row r="442" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L442" s="16"/>
+    </row>
+    <row r="443" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L443" s="16"/>
+    </row>
+    <row r="444" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L444" s="16"/>
+    </row>
+    <row r="445" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L445" s="16"/>
+    </row>
+    <row r="446" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L446" s="16"/>
+    </row>
+    <row r="447" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L447" s="16"/>
+    </row>
+    <row r="448" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L448" s="16"/>
+    </row>
+    <row r="449" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L449" s="16"/>
+    </row>
+    <row r="450" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L450" s="16"/>
+    </row>
+    <row r="451" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L451" s="16"/>
+    </row>
+    <row r="452" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L452" s="16"/>
+    </row>
+    <row r="453" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L453" s="16"/>
+    </row>
+    <row r="454" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L454" s="16"/>
+    </row>
+    <row r="455" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L455" s="16"/>
+    </row>
+    <row r="456" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L456" s="16"/>
+    </row>
+    <row r="457" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L457" s="16"/>
+    </row>
+    <row r="458" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L458" s="16"/>
+    </row>
+    <row r="459" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L459" s="16"/>
+    </row>
+    <row r="460" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L460" s="16"/>
+    </row>
+    <row r="461" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L461" s="16"/>
+    </row>
+    <row r="462" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L462" s="16"/>
+    </row>
+    <row r="463" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L463" s="16"/>
+    </row>
+    <row r="464" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L464" s="16"/>
+    </row>
+    <row r="465" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L465" s="16"/>
+    </row>
+    <row r="466" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L466" s="16"/>
+    </row>
+    <row r="467" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L467" s="16"/>
+    </row>
+    <row r="468" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L468" s="16"/>
+    </row>
+    <row r="469" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L469" s="16"/>
+    </row>
+    <row r="470" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L470" s="16"/>
+    </row>
+    <row r="471" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L471" s="16"/>
+    </row>
+    <row r="472" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L472" s="16"/>
+    </row>
+    <row r="473" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L473" s="16"/>
+    </row>
+    <row r="474" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L474" s="16"/>
+    </row>
+    <row r="475" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L475" s="16"/>
+    </row>
+    <row r="476" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L476" s="16"/>
+    </row>
+    <row r="477" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L477" s="16"/>
+    </row>
+    <row r="478" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L478" s="16"/>
+    </row>
+    <row r="479" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L479" s="16"/>
+    </row>
+    <row r="480" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L480" s="16"/>
+    </row>
+    <row r="481" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L481" s="16"/>
+    </row>
+    <row r="482" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L482" s="16"/>
+    </row>
+    <row r="483" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L483" s="16"/>
+    </row>
+    <row r="484" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L484" s="16"/>
+    </row>
+    <row r="485" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L485" s="16"/>
+    </row>
+    <row r="486" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L486" s="16"/>
+    </row>
+    <row r="487" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L487" s="16"/>
+    </row>
+    <row r="488" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L488" s="16"/>
+    </row>
+    <row r="489" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L489" s="16"/>
+    </row>
+    <row r="490" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L490" s="16"/>
+    </row>
+    <row r="491" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L491" s="16"/>
+    </row>
+    <row r="492" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L492" s="16"/>
+    </row>
+    <row r="493" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L493" s="16"/>
+    </row>
+    <row r="494" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L494" s="16"/>
+    </row>
+    <row r="495" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L495" s="16"/>
+    </row>
+    <row r="496" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L496" s="16"/>
+    </row>
+    <row r="497" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L497" s="16"/>
+    </row>
+    <row r="498" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L498" s="16"/>
+    </row>
+    <row r="499" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L499" s="16"/>
+    </row>
+    <row r="500" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L500" s="16"/>
+    </row>
+    <row r="501" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L501" s="16"/>
+    </row>
+    <row r="502" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L502" s="16"/>
+    </row>
+    <row r="503" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L503" s="16"/>
+    </row>
+    <row r="504" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L504" s="16"/>
+    </row>
+    <row r="505" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L505" s="16"/>
+    </row>
+    <row r="506" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L506" s="16"/>
+    </row>
+    <row r="507" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L507" s="16"/>
+    </row>
+    <row r="508" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L508" s="16"/>
+    </row>
+    <row r="509" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L509" s="16"/>
+    </row>
+    <row r="510" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L510" s="16"/>
+    </row>
+    <row r="511" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L511" s="16"/>
+    </row>
+    <row r="512" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L512" s="16"/>
+    </row>
+    <row r="513" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L513" s="16"/>
+    </row>
+    <row r="514" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L514" s="16"/>
+    </row>
+    <row r="515" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L515" s="16"/>
+    </row>
+    <row r="516" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L516" s="16"/>
+    </row>
+    <row r="517" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L517" s="16"/>
+    </row>
+    <row r="518" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L518" s="16"/>
+    </row>
+    <row r="519" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L519" s="16"/>
+    </row>
+    <row r="520" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L520" s="16"/>
+    </row>
+    <row r="521" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L521" s="16"/>
+    </row>
+    <row r="522" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L522" s="16"/>
+    </row>
+    <row r="523" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L523" s="16"/>
+    </row>
+    <row r="524" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L524" s="16"/>
+    </row>
+    <row r="525" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L525" s="16"/>
+    </row>
+    <row r="526" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L526" s="16"/>
+    </row>
+    <row r="527" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L527" s="16"/>
+    </row>
+    <row r="528" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L528" s="16"/>
+    </row>
+    <row r="529" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L529" s="16"/>
+    </row>
+    <row r="530" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L530" s="16"/>
+    </row>
+    <row r="531" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L531" s="16"/>
+    </row>
+    <row r="532" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L532" s="16"/>
+    </row>
+    <row r="533" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L533" s="16"/>
+    </row>
+    <row r="534" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L534" s="16"/>
+    </row>
+    <row r="535" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L535" s="16"/>
+    </row>
+    <row r="536" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L536" s="16"/>
+    </row>
+    <row r="537" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L537" s="16"/>
+    </row>
+    <row r="538" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L538" s="16"/>
+    </row>
+    <row r="539" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L539" s="16"/>
+    </row>
+    <row r="540" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L540" s="16"/>
+    </row>
+    <row r="541" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L541" s="16"/>
+    </row>
+    <row r="542" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L542" s="16"/>
+    </row>
+    <row r="543" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L543" s="16"/>
+    </row>
+    <row r="544" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L544" s="16"/>
+    </row>
+    <row r="545" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L545" s="16"/>
+    </row>
+    <row r="546" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L546" s="16"/>
+    </row>
+    <row r="547" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L547" s="16"/>
+    </row>
+    <row r="548" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L548" s="16"/>
+    </row>
+    <row r="549" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L549" s="16"/>
+    </row>
+    <row r="550" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L550" s="16"/>
+    </row>
+    <row r="551" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L551" s="16"/>
+    </row>
+    <row r="552" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L552" s="16"/>
+    </row>
+    <row r="553" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L553" s="16"/>
+    </row>
+    <row r="554" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L554" s="16"/>
+    </row>
+    <row r="555" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L555" s="16"/>
+    </row>
+    <row r="556" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L556" s="16"/>
+    </row>
+    <row r="557" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L557" s="16"/>
+    </row>
+    <row r="558" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L558" s="16"/>
+    </row>
+    <row r="559" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L559" s="16"/>
+    </row>
+    <row r="560" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L560" s="16"/>
+    </row>
+    <row r="561" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L561" s="16"/>
+    </row>
+    <row r="562" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L562" s="16"/>
+    </row>
+    <row r="563" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L563" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Items Monstera.xlsx
+++ b/Items Monstera.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f9055710c5e3c483/Documents/Monstera/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="8_{8E6482B4-6D64-4E3A-AAE1-966F7251B445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62E9CE6A-97C4-4DAD-B638-030755963A8B}"/>
+  <xr:revisionPtr revIDLastSave="334" documentId="8_{8E6482B4-6D64-4E3A-AAE1-966F7251B445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{641036D4-F5F8-49D7-85DC-8DC9BCCD0BC0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A2520A3A-2C53-47A9-9216-2F4E40D570BD}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="277">
   <si>
     <t>Item</t>
   </si>
@@ -685,9 +685,6 @@
     <t>hat daher mehr Corona-Tote als andere Länder.</t>
   </si>
   <si>
-    <t>sagt trotzdem zu, weil er besser werden will.</t>
-  </si>
-  <si>
     <t xml:space="preserve">hat schlecht abgeschnitten. </t>
   </si>
   <si>
@@ -734,13 +731,160 @@
   </si>
   <si>
     <t xml:space="preserve">springt sein Auto nicht an. </t>
+  </si>
+  <si>
+    <t>wird der Traum wahr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wird der Traum wahr. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">werden nicht gefragt. </t>
+  </si>
+  <si>
+    <t>sind die neuen Strategie Papiere erhältlich.</t>
+  </si>
+  <si>
+    <t>hat sehr viele Corona.Tote</t>
+  </si>
+  <si>
+    <t>hat daher mehr Corona.Tote als andere Länder</t>
+  </si>
+  <si>
+    <t>folgt sein Hund Max aufs Wort.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">müssen beide nochmal alles geben. </t>
+  </si>
+  <si>
+    <t>müssen beide nochmal alles geben.</t>
+  </si>
+  <si>
+    <t>hat jetzt keine angst mehr vor dem Doktor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muss mehr auf Ihre Ausgaben achten. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sollte es mit ihrer Bankausbildung besser wissen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hatte dieses Mal die beste Note. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vergisst diesen wichtigen Termin und hat sich einen Tag frei genommen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nimmt es Kevin besonders genau. </t>
+  </si>
+  <si>
+    <t>nur noch abwarten und dann ein Ticket ergattern!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kommt die Pflegehilfe. Allerdings etwas früher, damit sie rechtzeitig los kann. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">trifft sie in der Stadt eine alte Freundin. </t>
+  </si>
+  <si>
+    <t>bringt er ihr einen prächtigen Strauß mit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">erfährt, dass sie die Firma verlassen muss. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">wird nachts von einem Unbekannten zerkratzt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sind die Auftragsbücher voll und wird ihren Urlaub abgelehnt. </t>
+  </si>
+  <si>
+    <t>macht sich große Sorgen vor diesem Gespräch.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bereitet das Gespräch gut vor. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ist weiß und wird dadurch schneller dreckig. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hat über 40.000 Euro gekostet. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">profitieren unter dem Strich gar nicht von diesem Angebot. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">holt er sich erst noch einen Kaffee bei Starbucks. </t>
+  </si>
+  <si>
+    <t>verschießt all seine Schüsse.</t>
+  </si>
+  <si>
+    <t>macht sich überhaupt keine Gedanken.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">erfährt sie, dass die Kundin mit der Zusammenarbeit einverstanden ist. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">weiß, dass sie gekündigt werden könnte. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fällt durch. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">wird die Inspektion leider verschoben. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gelingt Kevin vor lauter Nervosität nichts. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hört ihm der Hund überhaupt nicht zu. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ist das Wetter noch so schlecht. Die Woche darauf wird es besser. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ist sehr wertvoll. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hat absolut keine Lust auf Golf. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hat keine Ahnung wie man Golf spielt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gewinnt das Spiel. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ist momentan in Topform. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">setzt sich sehr unter Druck. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hat noch nie ein Spiel gespielt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ist Janina aber immer noch sehr nervös. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vergisst er ihr Blumen mitzunehmen. </t>
+  </si>
+  <si>
+    <t>hat soviel Erfahrung!</t>
+  </si>
+  <si>
+    <t>wacht sie auf und sieht sie nichts mehr! So kann sich nicht autofahren.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in der ersten Woche bekommt man nämlich eine exklusive ABBA-Poster beim Konzertbesuch. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -766,6 +910,12 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -852,7 +1002,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -894,6 +1044,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1273,10 +1451,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F935875C-1217-4EF1-B3EC-ADF1C73B1192}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M563"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="E160" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L170" sqref="L170:L172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,7 +1473,7 @@
     <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="76" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="85.85546875" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1333,7 +1514,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1346,7 +1527,7 @@
       <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="57" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -1368,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1405,7 +1586,9 @@
       <c r="K3" s="5">
         <v>2</v>
       </c>
-      <c r="L3" s="12"/>
+      <c r="L3" s="12" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="4" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -1442,10 +1625,10 @@
         <v>3</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -1458,7 +1641,7 @@
       <c r="D5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="58" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -1480,7 +1663,7 @@
         <v>4</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1517,7 +1700,9 @@
       <c r="K6" s="5">
         <v>5</v>
       </c>
-      <c r="L6" s="12"/>
+      <c r="L6" s="12" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="7" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
@@ -1554,7 +1739,7 @@
         <v>6</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -1773,7 +1958,7 @@
       </c>
       <c r="L13" s="28"/>
     </row>
-    <row r="14" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -1786,7 +1971,7 @@
       <c r="D14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="57" t="s">
         <v>31</v>
       </c>
       <c r="F14" s="3" t="s">
@@ -1807,7 +1992,9 @@
       <c r="K14" s="2">
         <v>3</v>
       </c>
-      <c r="L14" s="11"/>
+      <c r="L14" s="11" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="15" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -1843,7 +2030,9 @@
       <c r="K15" s="5">
         <v>4</v>
       </c>
-      <c r="L15" s="12"/>
+      <c r="L15" s="12" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="16" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -1879,9 +2068,11 @@
       <c r="K16" s="5">
         <v>5</v>
       </c>
-      <c r="L16" s="12"/>
-    </row>
-    <row r="17" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L16" s="12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>3</v>
       </c>
@@ -1894,7 +2085,7 @@
       <c r="D17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="58" t="s">
         <v>35</v>
       </c>
       <c r="F17" s="6" t="s">
@@ -1915,7 +2106,9 @@
       <c r="K17" s="5">
         <v>6</v>
       </c>
-      <c r="L17" s="12"/>
+      <c r="L17" s="12" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="18" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -1951,7 +2144,9 @@
       <c r="K18" s="5">
         <v>1</v>
       </c>
-      <c r="L18" s="12"/>
+      <c r="L18" s="12" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="19" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
@@ -1987,9 +2182,11 @@
       <c r="K19" s="8">
         <v>2</v>
       </c>
-      <c r="L19" s="13"/>
-    </row>
-    <row r="20" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L19" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>4</v>
       </c>
@@ -2002,7 +2199,7 @@
       <c r="D20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="57" t="s">
         <v>37</v>
       </c>
       <c r="F20" s="3" t="s">
@@ -2024,7 +2221,7 @@
         <v>4</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2061,7 +2258,9 @@
       <c r="K21" s="5">
         <v>5</v>
       </c>
-      <c r="L21" s="12"/>
+      <c r="L21" s="12" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="22" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
@@ -2098,10 +2297,10 @@
         <v>6</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>4</v>
       </c>
@@ -2114,7 +2313,7 @@
       <c r="D23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="58" t="s">
         <v>44</v>
       </c>
       <c r="F23" s="6" t="s">
@@ -2136,7 +2335,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2173,7 +2372,9 @@
       <c r="K24" s="5">
         <v>2</v>
       </c>
-      <c r="L24" s="12"/>
+      <c r="L24" s="12" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="25" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
@@ -2210,10 +2411,10 @@
         <v>3</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>5</v>
       </c>
@@ -2226,7 +2427,7 @@
       <c r="D26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="57" t="s">
         <v>45</v>
       </c>
       <c r="F26" s="3" t="s">
@@ -2247,7 +2448,9 @@
       <c r="K26" s="2">
         <v>5</v>
       </c>
-      <c r="L26" s="11"/>
+      <c r="L26" s="11" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="27" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
@@ -2283,7 +2486,9 @@
       <c r="K27" s="5">
         <v>6</v>
       </c>
-      <c r="L27" s="12"/>
+      <c r="L27" s="12" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="28" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
@@ -2323,7 +2528,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>5</v>
       </c>
@@ -2336,7 +2541,7 @@
       <c r="D29" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="58" t="s">
         <v>50</v>
       </c>
       <c r="F29" s="6" t="s">
@@ -2357,7 +2562,9 @@
       <c r="K29" s="5">
         <v>2</v>
       </c>
-      <c r="L29" s="12"/>
+      <c r="L29" s="12" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="30" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
@@ -2393,7 +2600,9 @@
       <c r="K30" s="5">
         <v>3</v>
       </c>
-      <c r="L30" s="12"/>
+      <c r="L30" s="12" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="31" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
@@ -2649,7 +2858,7 @@
       </c>
       <c r="L37" s="28"/>
     </row>
-    <row r="38" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>7</v>
       </c>
@@ -2662,7 +2871,7 @@
       <c r="D38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="57" t="s">
         <v>57</v>
       </c>
       <c r="F38" s="3" t="s">
@@ -2683,7 +2892,9 @@
       <c r="K38" s="2">
         <v>1</v>
       </c>
-      <c r="L38" s="11"/>
+      <c r="L38" s="11" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="39" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
@@ -2720,7 +2931,7 @@
         <v>2</v>
       </c>
       <c r="L39" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2761,7 +2972,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>7</v>
       </c>
@@ -2774,7 +2985,7 @@
       <c r="D41" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="58" t="s">
         <v>65</v>
       </c>
       <c r="F41" s="6" t="s">
@@ -2795,7 +3006,9 @@
       <c r="K41" s="5">
         <v>4</v>
       </c>
-      <c r="L41" s="12"/>
+      <c r="L41" s="12" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="42" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
@@ -2832,7 +3045,7 @@
         <v>5</v>
       </c>
       <c r="L42" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="43" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2873,7 +3086,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>8</v>
       </c>
@@ -2886,7 +3099,7 @@
       <c r="D44" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="57" t="s">
         <v>66</v>
       </c>
       <c r="F44" s="3" t="s">
@@ -2908,7 +3121,7 @@
         <v>2</v>
       </c>
       <c r="L44" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2945,7 +3158,9 @@
       <c r="K45" s="5">
         <v>3</v>
       </c>
-      <c r="L45" s="12"/>
+      <c r="L45" s="12" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="46" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
@@ -2985,7 +3200,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>8</v>
       </c>
@@ -2998,7 +3213,7 @@
       <c r="D47" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="58" t="s">
         <v>72</v>
       </c>
       <c r="F47" s="6" t="s">
@@ -3020,7 +3235,7 @@
         <v>5</v>
       </c>
       <c r="L47" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3057,7 +3272,9 @@
       <c r="K48" s="5">
         <v>6</v>
       </c>
-      <c r="L48" s="12"/>
+      <c r="L48" s="12" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="49" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
@@ -3093,11 +3310,11 @@
       <c r="K49" s="8">
         <v>1</v>
       </c>
-      <c r="L49" s="12" t="s">
+      <c r="L49" s="13" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>9</v>
       </c>
@@ -3110,7 +3327,7 @@
       <c r="D50" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="57" t="s">
         <v>73</v>
       </c>
       <c r="F50" s="3" t="s">
@@ -3132,7 +3349,7 @@
         <v>3</v>
       </c>
       <c r="L50" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3207,7 +3424,9 @@
       <c r="K52" s="5">
         <v>5</v>
       </c>
-      <c r="L52" s="12"/>
+      <c r="L52" s="12" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="53" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
@@ -3244,7 +3463,7 @@
         <v>6</v>
       </c>
       <c r="L53" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="54" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3319,9 +3538,11 @@
       <c r="K55" s="8">
         <v>2</v>
       </c>
-      <c r="L55" s="12"/>
-    </row>
-    <row r="56" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L55" s="13" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>10</v>
       </c>
@@ -3334,7 +3555,7 @@
       <c r="D56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="57" t="s">
         <v>80</v>
       </c>
       <c r="F56" s="3" t="s">
@@ -3355,7 +3576,9 @@
       <c r="K56" s="2">
         <v>4</v>
       </c>
-      <c r="L56" s="12"/>
+      <c r="L56" s="12" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="57" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
@@ -3391,7 +3614,9 @@
       <c r="K57" s="5">
         <v>5</v>
       </c>
-      <c r="L57" s="12"/>
+      <c r="L57" s="12" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="58" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -3428,10 +3653,10 @@
         <v>6</v>
       </c>
       <c r="L58" s="12" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>10</v>
       </c>
@@ -3444,7 +3669,7 @@
       <c r="D59" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" s="58" t="s">
         <v>85</v>
       </c>
       <c r="F59" s="6" t="s">
@@ -3465,7 +3690,9 @@
       <c r="K59" s="5">
         <v>1</v>
       </c>
-      <c r="L59" s="12"/>
+      <c r="L59" s="12" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="60" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
@@ -3501,7 +3728,9 @@
       <c r="K60" s="5">
         <v>2</v>
       </c>
-      <c r="L60" s="12"/>
+      <c r="L60" s="12" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="61" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
@@ -3538,10 +3767,10 @@
         <v>3</v>
       </c>
       <c r="L61" s="13" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>11</v>
       </c>
@@ -3554,7 +3783,7 @@
       <c r="D62" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E62" s="57" t="s">
         <v>86</v>
       </c>
       <c r="F62" s="3" t="s">
@@ -3575,7 +3804,9 @@
       <c r="K62" s="2">
         <v>5</v>
       </c>
-      <c r="L62" s="11"/>
+      <c r="L62" s="11" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="63" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
@@ -3612,7 +3843,7 @@
         <v>6</v>
       </c>
       <c r="L63" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="64" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3649,9 +3880,11 @@
       <c r="K64" s="5">
         <v>1</v>
       </c>
-      <c r="L64" s="12"/>
-    </row>
-    <row r="65" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L64" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>11</v>
       </c>
@@ -3664,7 +3897,7 @@
       <c r="D65" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E65" s="58" t="s">
         <v>92</v>
       </c>
       <c r="F65" s="6" t="s">
@@ -3685,7 +3918,9 @@
       <c r="K65" s="5">
         <v>2</v>
       </c>
-      <c r="L65" s="12"/>
+      <c r="L65" s="12" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="66" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
@@ -3722,7 +3957,7 @@
         <v>3</v>
       </c>
       <c r="L66" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="67" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3759,9 +3994,11 @@
       <c r="K67" s="8">
         <v>4</v>
       </c>
-      <c r="L67" s="13"/>
-    </row>
-    <row r="68" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L67" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>12</v>
       </c>
@@ -3774,7 +4011,7 @@
       <c r="D68" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E68" s="57" t="s">
         <v>93</v>
       </c>
       <c r="F68" s="3" t="s">
@@ -3795,7 +4032,9 @@
       <c r="K68" s="2">
         <v>6</v>
       </c>
-      <c r="L68" s="11"/>
+      <c r="L68" s="11" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="69" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
@@ -3831,7 +4070,9 @@
       <c r="K69" s="5">
         <v>1</v>
       </c>
-      <c r="L69" s="12"/>
+      <c r="L69" s="12" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="70" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
@@ -3867,9 +4108,11 @@
       <c r="K70" s="5">
         <v>2</v>
       </c>
-      <c r="L70" s="12"/>
-    </row>
-    <row r="71" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L70" s="12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>12</v>
       </c>
@@ -3882,7 +4125,7 @@
       <c r="D71" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="E71" s="58" t="s">
         <v>97</v>
       </c>
       <c r="F71" s="6" t="s">
@@ -3903,7 +4146,9 @@
       <c r="K71" s="5">
         <v>3</v>
       </c>
-      <c r="L71" s="12"/>
+      <c r="L71" s="12" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="72" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
@@ -3939,7 +4184,9 @@
       <c r="K72" s="5">
         <v>4</v>
       </c>
-      <c r="L72" s="12"/>
+      <c r="L72" s="12" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="73" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
@@ -3975,227 +4222,233 @@
       <c r="K73" s="8">
         <v>5</v>
       </c>
-      <c r="L73" s="13"/>
-    </row>
-    <row r="74" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
+      <c r="L73" s="13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="29">
         <v>13</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="30">
         <v>1</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74" s="3" t="s">
+      <c r="C74" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="F74" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="G74" s="3" t="s">
+      <c r="G74" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="H74" s="3" t="s">
+      <c r="H74" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="I74" s="3" t="s">
+      <c r="I74" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J74" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K74" s="2">
+      <c r="J74" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="K74" s="30">
         <v>1</v>
       </c>
-      <c r="L74" s="11"/>
-    </row>
-    <row r="75" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="4">
+      <c r="L74" s="53"/>
+    </row>
+    <row r="75" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="33">
         <v>13</v>
       </c>
-      <c r="B75" s="5">
+      <c r="B75" s="34">
         <v>2</v>
       </c>
-      <c r="C75" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" s="6" t="s">
+      <c r="C75" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="E75" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="F75" s="6" t="s">
+      <c r="F75" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="G75" s="6" t="s">
+      <c r="G75" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="H75" s="6" t="s">
+      <c r="H75" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I75" s="6" t="s">
+      <c r="I75" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J75" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K75" s="5">
+      <c r="J75" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K75" s="34">
         <v>2</v>
       </c>
-      <c r="L75" s="12"/>
-    </row>
-    <row r="76" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="4">
+      <c r="L75" s="54"/>
+    </row>
+    <row r="76" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="33">
         <v>13</v>
       </c>
-      <c r="B76" s="5">
+      <c r="B76" s="34">
         <v>3</v>
       </c>
-      <c r="C76" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" s="6" t="s">
+      <c r="C76" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="E76" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="F76" s="6" t="s">
+      <c r="F76" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G76" s="6" t="s">
+      <c r="G76" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="H76" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I76" s="6" t="s">
+      <c r="H76" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I76" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="J76" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K76" s="5">
+      <c r="J76" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K76" s="34">
         <v>3</v>
       </c>
-      <c r="L76" s="12" t="s">
+      <c r="L76" s="54" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="77" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="4">
+    <row r="77" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="33">
         <v>13</v>
       </c>
-      <c r="B77" s="5">
+      <c r="B77" s="34">
         <v>4</v>
       </c>
-      <c r="C77" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D77" s="6" t="s">
+      <c r="C77" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D77" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E77" s="6" t="s">
+      <c r="E77" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="F77" s="6" t="s">
+      <c r="F77" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="G77" s="6" t="s">
+      <c r="G77" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="H77" s="6" t="s">
+      <c r="H77" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="I77" s="6" t="s">
+      <c r="I77" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="J77" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K77" s="5">
+      <c r="J77" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K77" s="34">
         <v>4</v>
       </c>
-      <c r="L77" s="12"/>
-    </row>
-    <row r="78" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="4">
+      <c r="L77" s="54"/>
+    </row>
+    <row r="78" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="33">
         <v>13</v>
       </c>
-      <c r="B78" s="5">
+      <c r="B78" s="34">
         <v>5</v>
       </c>
-      <c r="C78" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D78" s="6" t="s">
+      <c r="C78" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D78" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E78" s="6" t="s">
+      <c r="E78" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="F78" s="6" t="s">
+      <c r="F78" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="G78" s="6" t="s">
+      <c r="G78" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="H78" s="6" t="s">
+      <c r="H78" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I78" s="6" t="s">
+      <c r="I78" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J78" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K78" s="5">
+      <c r="J78" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K78" s="34">
         <v>5</v>
       </c>
-      <c r="L78" s="12"/>
-    </row>
-    <row r="79" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="7">
+      <c r="L78" s="54" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" s="38" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="37">
         <v>13</v>
       </c>
-      <c r="B79" s="8">
+      <c r="B79" s="38">
         <v>6</v>
       </c>
-      <c r="C79" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D79" s="9" t="s">
+      <c r="C79" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E79" s="9" t="s">
+      <c r="E79" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="F79" s="9" t="s">
+      <c r="F79" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="G79" s="9" t="s">
+      <c r="G79" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="H79" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I79" s="9" t="s">
+      <c r="H79" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="I79" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="J79" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K79" s="8">
+      <c r="J79" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="K79" s="38">
         <v>6</v>
       </c>
-      <c r="L79" s="13"/>
-    </row>
-    <row r="80" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L79" s="55" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>14</v>
       </c>
@@ -4208,7 +4461,7 @@
       <c r="D80" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E80" s="57" t="s">
         <v>103</v>
       </c>
       <c r="F80" s="3" t="s">
@@ -4229,7 +4482,9 @@
       <c r="K80" s="2">
         <v>2</v>
       </c>
-      <c r="L80" s="11"/>
+      <c r="L80" s="11" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="81" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
@@ -4265,7 +4520,9 @@
       <c r="K81" s="5">
         <v>3</v>
       </c>
-      <c r="L81" s="12"/>
+      <c r="L81" s="12" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="82" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
@@ -4305,7 +4562,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="83" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>14</v>
       </c>
@@ -4318,7 +4575,7 @@
       <c r="D83" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E83" s="6" t="s">
+      <c r="E83" s="58" t="s">
         <v>107</v>
       </c>
       <c r="F83" s="6" t="s">
@@ -4339,7 +4596,9 @@
       <c r="K83" s="5">
         <v>5</v>
       </c>
-      <c r="L83" s="12"/>
+      <c r="L83" s="12" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="84" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
@@ -4375,7 +4634,9 @@
       <c r="K84" s="5">
         <v>6</v>
       </c>
-      <c r="L84" s="12"/>
+      <c r="L84" s="12" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="85" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7">
@@ -4415,7 +4676,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="86" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>15</v>
       </c>
@@ -4428,7 +4689,7 @@
       <c r="D86" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E86" s="57" t="s">
         <v>108</v>
       </c>
       <c r="F86" s="3" t="s">
@@ -4449,7 +4710,9 @@
       <c r="K86" s="2">
         <v>3</v>
       </c>
-      <c r="L86" s="11"/>
+      <c r="L86" s="11" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="87" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
@@ -4485,7 +4748,9 @@
       <c r="K87" s="5">
         <v>4</v>
       </c>
-      <c r="L87" s="12"/>
+      <c r="L87" s="12" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="88" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
@@ -4521,9 +4786,11 @@
       <c r="K88" s="5">
         <v>5</v>
       </c>
-      <c r="L88" s="12"/>
-    </row>
-    <row r="89" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L88" s="12" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>15</v>
       </c>
@@ -4536,7 +4803,7 @@
       <c r="D89" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E89" s="6" t="s">
+      <c r="E89" s="58" t="s">
         <v>114</v>
       </c>
       <c r="F89" s="6" t="s">
@@ -4557,7 +4824,9 @@
       <c r="K89" s="5">
         <v>6</v>
       </c>
-      <c r="L89" s="12"/>
+      <c r="L89" s="12" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="90" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
@@ -4593,7 +4862,9 @@
       <c r="K90" s="5">
         <v>1</v>
       </c>
-      <c r="L90" s="12"/>
+      <c r="L90" s="12" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="91" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7">
@@ -4629,225 +4900,239 @@
       <c r="K91" s="8">
         <v>2</v>
       </c>
-      <c r="L91" s="13"/>
-    </row>
-    <row r="92" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="29">
+      <c r="L91" s="12" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="41">
         <v>16</v>
       </c>
-      <c r="B92" s="30">
+      <c r="B92" s="42">
         <v>1</v>
       </c>
-      <c r="C92" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D92" s="31" t="s">
+      <c r="C92" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="E92" s="31" t="s">
+      <c r="E92" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="F92" s="31" t="s">
+      <c r="F92" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="G92" s="31" t="s">
+      <c r="G92" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="H92" s="31" t="s">
+      <c r="H92" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="I92" s="31" t="s">
+      <c r="I92" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="J92" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="K92" s="30">
+      <c r="J92" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="K92" s="42">
         <v>4</v>
       </c>
-      <c r="L92" s="32"/>
-    </row>
-    <row r="93" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="33">
+      <c r="L92" s="44" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="45">
         <v>16</v>
       </c>
-      <c r="B93" s="34">
+      <c r="B93" s="46">
         <v>2</v>
       </c>
-      <c r="C93" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D93" s="35" t="s">
+      <c r="C93" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="E93" s="35" t="s">
+      <c r="E93" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="F93" s="35" t="s">
+      <c r="F93" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="G93" s="35" t="s">
+      <c r="G93" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="H93" s="35" t="s">
+      <c r="H93" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="I93" s="35" t="s">
+      <c r="I93" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="J93" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="K93" s="34">
+      <c r="J93" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="K93" s="46">
         <v>5</v>
       </c>
-      <c r="L93" s="36"/>
-    </row>
-    <row r="94" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="33">
+      <c r="L93" s="48" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="45">
         <v>16</v>
       </c>
-      <c r="B94" s="34">
+      <c r="B94" s="46">
         <v>3</v>
       </c>
-      <c r="C94" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D94" s="35" t="s">
+      <c r="C94" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="E94" s="35" t="s">
+      <c r="E94" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="F94" s="35" t="s">
+      <c r="F94" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="G94" s="35" t="s">
+      <c r="G94" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="H94" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I94" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="J94" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="K94" s="34">
+      <c r="H94" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="I94" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="J94" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="K94" s="46">
         <v>6</v>
       </c>
-      <c r="L94" s="36"/>
-    </row>
-    <row r="95" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="33">
+      <c r="L94" s="48" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="45">
         <v>16</v>
       </c>
-      <c r="B95" s="34">
+      <c r="B95" s="46">
         <v>4</v>
       </c>
-      <c r="C95" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="D95" s="35" t="s">
+      <c r="C95" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="D95" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E95" s="35" t="s">
+      <c r="E95" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="F95" s="35" t="s">
+      <c r="F95" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="G95" s="35" t="s">
+      <c r="G95" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="H95" s="35" t="s">
+      <c r="H95" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="I95" s="35" t="s">
+      <c r="I95" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="J95" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="K95" s="34">
+      <c r="J95" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="K95" s="46">
         <v>1</v>
       </c>
-      <c r="L95" s="36"/>
-    </row>
-    <row r="96" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="33">
+      <c r="L95" s="48" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="45">
         <v>16</v>
       </c>
-      <c r="B96" s="34">
+      <c r="B96" s="46">
         <v>5</v>
       </c>
-      <c r="C96" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="D96" s="35" t="s">
+      <c r="C96" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="E96" s="35" t="s">
+      <c r="E96" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="F96" s="35" t="s">
+      <c r="F96" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="G96" s="35" t="s">
+      <c r="G96" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="H96" s="35" t="s">
+      <c r="H96" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="I96" s="35" t="s">
+      <c r="I96" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="J96" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="K96" s="34">
+      <c r="J96" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="K96" s="46">
         <v>2</v>
       </c>
-      <c r="L96" s="36"/>
-    </row>
-    <row r="97" spans="1:12" s="38" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="37">
+      <c r="L96" s="48" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" s="50" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="49">
         <v>16</v>
       </c>
-      <c r="B97" s="38">
+      <c r="B97" s="50">
         <v>6</v>
       </c>
-      <c r="C97" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="D97" s="39" t="s">
+      <c r="C97" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="D97" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="E97" s="39" t="s">
+      <c r="E97" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="F97" s="39" t="s">
+      <c r="F97" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="G97" s="39" t="s">
+      <c r="G97" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="H97" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="I97" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="J97" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="K97" s="38">
+      <c r="H97" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="I97" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="J97" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="K97" s="50">
         <v>3</v>
       </c>
-      <c r="L97" s="40"/>
-    </row>
-    <row r="98" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L97" s="52" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>17</v>
       </c>
@@ -4860,7 +5145,7 @@
       <c r="D98" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="E98" s="57" t="s">
         <v>121</v>
       </c>
       <c r="F98" s="3" t="s">
@@ -4881,7 +5166,9 @@
       <c r="K98" s="2">
         <v>5</v>
       </c>
-      <c r="L98" s="11"/>
+      <c r="L98" s="11" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="99" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
@@ -4959,7 +5246,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="101" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>17</v>
       </c>
@@ -4972,7 +5259,7 @@
       <c r="D101" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E101" s="6" t="s">
+      <c r="E101" s="58" t="s">
         <v>126</v>
       </c>
       <c r="F101" s="6" t="s">
@@ -4993,7 +5280,9 @@
       <c r="K101" s="5">
         <v>2</v>
       </c>
-      <c r="L101" s="12"/>
+      <c r="L101" s="12" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="102" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
@@ -5067,11 +5356,11 @@
       <c r="K103" s="8">
         <v>4</v>
       </c>
-      <c r="L103" s="12" t="s">
+      <c r="L103" s="13" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="104" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>18</v>
       </c>
@@ -5084,7 +5373,7 @@
       <c r="D104" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="E104" s="57" t="s">
         <v>127</v>
       </c>
       <c r="F104" s="3" t="s">
@@ -5106,7 +5395,7 @@
         <v>6</v>
       </c>
       <c r="L104" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="105" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5181,9 +5470,11 @@
       <c r="K106" s="5">
         <v>2</v>
       </c>
-      <c r="L106" s="14"/>
-    </row>
-    <row r="107" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L106" s="14" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>18</v>
       </c>
@@ -5196,7 +5487,7 @@
       <c r="D107" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E107" s="6" t="s">
+      <c r="E107" s="58" t="s">
         <v>132</v>
       </c>
       <c r="F107" s="6" t="s">
@@ -5218,7 +5509,7 @@
         <v>3</v>
       </c>
       <c r="L107" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="108" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5293,9 +5584,11 @@
       <c r="K109" s="8">
         <v>5</v>
       </c>
-      <c r="L109" s="14"/>
-    </row>
-    <row r="110" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L109" s="56" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>19</v>
       </c>
@@ -5308,7 +5601,7 @@
       <c r="D110" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E110" s="3" t="s">
+      <c r="E110" s="57" t="s">
         <v>133</v>
       </c>
       <c r="F110" s="3" t="s">
@@ -5329,7 +5622,9 @@
       <c r="K110" s="2">
         <v>1</v>
       </c>
-      <c r="L110" s="12"/>
+      <c r="L110" s="12" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="111" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
@@ -5365,7 +5660,9 @@
       <c r="K111" s="5">
         <v>2</v>
       </c>
-      <c r="L111" s="12"/>
+      <c r="L111" s="12" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="112" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
@@ -5402,10 +5699,10 @@
         <v>3</v>
       </c>
       <c r="L112" s="12" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>19</v>
       </c>
@@ -5418,7 +5715,7 @@
       <c r="D113" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E113" s="6" t="s">
+      <c r="E113" s="58" t="s">
         <v>138</v>
       </c>
       <c r="F113" s="6" t="s">
@@ -5439,7 +5736,9 @@
       <c r="K113" s="5">
         <v>4</v>
       </c>
-      <c r="L113" s="12"/>
+      <c r="L113" s="12" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="114" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
@@ -5475,7 +5774,9 @@
       <c r="K114" s="5">
         <v>5</v>
       </c>
-      <c r="L114" s="12"/>
+      <c r="L114" s="12" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="115" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="7">
@@ -5511,9 +5812,11 @@
       <c r="K115" s="8">
         <v>6</v>
       </c>
-      <c r="L115" s="13"/>
-    </row>
-    <row r="116" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L115" s="13" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>20</v>
       </c>
@@ -5526,7 +5829,7 @@
       <c r="D116" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="E116" s="57" t="s">
         <v>139</v>
       </c>
       <c r="F116" s="3" t="s">
@@ -5548,7 +5851,7 @@
         <v>2</v>
       </c>
       <c r="L116" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="117" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5586,7 +5889,7 @@
         <v>3</v>
       </c>
       <c r="L117" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="118" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5627,7 +5930,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="119" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>20</v>
       </c>
@@ -5640,7 +5943,7 @@
       <c r="D119" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E119" s="6" t="s">
+      <c r="E119" s="58" t="s">
         <v>144</v>
       </c>
       <c r="F119" s="6" t="s">
@@ -5662,7 +5965,7 @@
         <v>5</v>
       </c>
       <c r="L119" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="120" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5700,7 +6003,7 @@
         <v>6</v>
       </c>
       <c r="L120" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="121" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5741,7 +6044,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="122" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>21</v>
       </c>
@@ -5754,7 +6057,7 @@
       <c r="D122" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E122" s="3" t="s">
+      <c r="E122" s="57" t="s">
         <v>145</v>
       </c>
       <c r="F122" s="3" t="s">
@@ -5775,7 +6078,9 @@
       <c r="K122" s="2">
         <v>3</v>
       </c>
-      <c r="L122" s="11"/>
+      <c r="L122" s="11" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="123" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
@@ -5811,7 +6116,9 @@
       <c r="K123" s="5">
         <v>4</v>
       </c>
-      <c r="L123" s="12"/>
+      <c r="L123" s="12" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="124" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
@@ -5847,9 +6154,11 @@
       <c r="K124" s="5">
         <v>5</v>
       </c>
-      <c r="L124" s="12"/>
-    </row>
-    <row r="125" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L124" s="12" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>21</v>
       </c>
@@ -5862,7 +6171,7 @@
       <c r="D125" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E125" s="6" t="s">
+      <c r="E125" s="58" t="s">
         <v>149</v>
       </c>
       <c r="F125" s="6" t="s">
@@ -5883,7 +6192,9 @@
       <c r="K125" s="5">
         <v>6</v>
       </c>
-      <c r="L125" s="12"/>
+      <c r="L125" s="12" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="126" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
@@ -5919,7 +6230,9 @@
       <c r="K126" s="5">
         <v>1</v>
       </c>
-      <c r="L126" s="12"/>
+      <c r="L126" s="12" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="127" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="7">
@@ -5955,9 +6268,11 @@
       <c r="K127" s="8">
         <v>2</v>
       </c>
-      <c r="L127" s="13"/>
-    </row>
-    <row r="128" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L127" s="13" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>22</v>
       </c>
@@ -5970,7 +6285,7 @@
       <c r="D128" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E128" s="3" t="s">
+      <c r="E128" s="57" t="s">
         <v>150</v>
       </c>
       <c r="F128" s="3" t="s">
@@ -5991,7 +6306,9 @@
       <c r="K128" s="2">
         <v>4</v>
       </c>
-      <c r="L128" s="11"/>
+      <c r="L128" s="11" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="129" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
@@ -6027,7 +6344,9 @@
       <c r="K129" s="5">
         <v>5</v>
       </c>
-      <c r="L129" s="12"/>
+      <c r="L129" s="12" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="130" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
@@ -6064,10 +6383,10 @@
         <v>6</v>
       </c>
       <c r="L130" s="12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>22</v>
       </c>
@@ -6080,7 +6399,7 @@
       <c r="D131" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E131" s="6" t="s">
+      <c r="E131" s="58" t="s">
         <v>152</v>
       </c>
       <c r="F131" s="6" t="s">
@@ -6101,7 +6420,9 @@
       <c r="K131" s="5">
         <v>1</v>
       </c>
-      <c r="L131" s="12"/>
+      <c r="L131" s="12" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="132" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
@@ -6137,7 +6458,9 @@
       <c r="K132" s="5">
         <v>2</v>
       </c>
-      <c r="L132" s="12"/>
+      <c r="L132" s="12" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="133" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="7">
@@ -6174,10 +6497,10 @@
         <v>3</v>
       </c>
       <c r="L133" s="13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>23</v>
       </c>
@@ -6190,7 +6513,7 @@
       <c r="D134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E134" s="3" t="s">
+      <c r="E134" s="57" t="s">
         <v>153</v>
       </c>
       <c r="F134" s="3" t="s">
@@ -6211,7 +6534,9 @@
       <c r="K134" s="2">
         <v>5</v>
       </c>
-      <c r="L134" s="11"/>
+      <c r="L134" s="11" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="135" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
@@ -6247,7 +6572,9 @@
       <c r="K135" s="5">
         <v>6</v>
       </c>
-      <c r="L135" s="12"/>
+      <c r="L135" s="12" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="136" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
@@ -6287,7 +6614,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="137" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>23</v>
       </c>
@@ -6300,7 +6627,7 @@
       <c r="D137" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E137" s="6" t="s">
+      <c r="E137" s="58" t="s">
         <v>158</v>
       </c>
       <c r="F137" s="6" t="s">
@@ -6321,7 +6648,9 @@
       <c r="K137" s="5">
         <v>2</v>
       </c>
-      <c r="L137" s="12"/>
+      <c r="L137" s="12" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="138" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
@@ -6357,7 +6686,9 @@
       <c r="K138" s="5">
         <v>3</v>
       </c>
-      <c r="L138" s="12"/>
+      <c r="L138" s="12" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="139" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="7">
@@ -6397,7 +6728,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="140" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>24</v>
       </c>
@@ -6410,7 +6741,7 @@
       <c r="D140" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E140" s="3" t="s">
+      <c r="E140" s="57" t="s">
         <v>159</v>
       </c>
       <c r="F140" s="3" t="s">
@@ -6431,7 +6762,9 @@
       <c r="K140" s="2">
         <v>6</v>
       </c>
-      <c r="L140" s="11"/>
+      <c r="L140" s="11" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="141" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
@@ -6467,7 +6800,9 @@
       <c r="K141" s="5">
         <v>1</v>
       </c>
-      <c r="L141" s="12"/>
+      <c r="L141" s="12" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="142" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
@@ -6503,9 +6838,11 @@
       <c r="K142" s="5">
         <v>2</v>
       </c>
-      <c r="L142" s="12"/>
-    </row>
-    <row r="143" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L142" s="12" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>24</v>
       </c>
@@ -6518,7 +6855,7 @@
       <c r="D143" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E143" s="6" t="s">
+      <c r="E143" s="58" t="s">
         <v>164</v>
       </c>
       <c r="F143" s="6" t="s">
@@ -6539,7 +6876,9 @@
       <c r="K143" s="5">
         <v>3</v>
       </c>
-      <c r="L143" s="12"/>
+      <c r="L143" s="12" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="144" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
@@ -6575,7 +6914,9 @@
       <c r="K144" s="5">
         <v>4</v>
       </c>
-      <c r="L144" s="12"/>
+      <c r="L144" s="12" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="145" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="7">
@@ -6611,7 +6952,9 @@
       <c r="K145" s="8">
         <v>5</v>
       </c>
-      <c r="L145" s="13"/>
+      <c r="L145" s="12" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="146" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="17">
@@ -6829,7 +7172,7 @@
       </c>
       <c r="L151" s="28"/>
     </row>
-    <row r="152" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>26</v>
       </c>
@@ -6842,7 +7185,7 @@
       <c r="D152" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E152" s="3" t="s">
+      <c r="E152" s="57" t="s">
         <v>170</v>
       </c>
       <c r="F152" s="3" t="s">
@@ -6863,7 +7206,9 @@
       <c r="K152" s="2">
         <v>2</v>
       </c>
-      <c r="L152" s="11"/>
+      <c r="L152" s="11" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="153" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
@@ -6900,7 +7245,7 @@
         <v>3</v>
       </c>
       <c r="L153" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="154" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6941,7 +7286,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="155" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>26</v>
       </c>
@@ -6954,7 +7299,7 @@
       <c r="D155" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E155" s="6" t="s">
+      <c r="E155" s="58" t="s">
         <v>174</v>
       </c>
       <c r="F155" s="6" t="s">
@@ -6975,7 +7320,9 @@
       <c r="K155" s="5">
         <v>5</v>
       </c>
-      <c r="L155" s="12"/>
+      <c r="L155" s="12" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="156" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
@@ -7012,7 +7359,7 @@
         <v>6</v>
       </c>
       <c r="L156" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="157" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7053,7 +7400,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="158" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>27</v>
       </c>
@@ -7066,7 +7413,7 @@
       <c r="D158" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E158" s="3" t="s">
+      <c r="E158" s="57" t="s">
         <v>175</v>
       </c>
       <c r="F158" s="3" t="s">
@@ -7088,7 +7435,7 @@
         <v>3</v>
       </c>
       <c r="L158" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="159" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7125,9 +7472,11 @@
       <c r="K159" s="5">
         <v>4</v>
       </c>
-      <c r="L159" s="12"/>
-    </row>
-    <row r="160" spans="1:12" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L159" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>27</v>
       </c>
@@ -7161,9 +7510,11 @@
       <c r="K160" s="5">
         <v>5</v>
       </c>
-      <c r="L160" s="12"/>
-    </row>
-    <row r="161" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L160" s="12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>27</v>
       </c>
@@ -7176,7 +7527,7 @@
       <c r="D161" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E161" s="6" t="s">
+      <c r="E161" s="58" t="s">
         <v>179</v>
       </c>
       <c r="F161" s="6" t="s">
@@ -7197,8 +7548,8 @@
       <c r="K161" s="5">
         <v>6</v>
       </c>
-      <c r="L161" s="11" t="s">
-        <v>221</v>
+      <c r="L161" s="12" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="162" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7235,7 +7586,9 @@
       <c r="K162" s="5">
         <v>1</v>
       </c>
-      <c r="L162" s="12"/>
+      <c r="L162" s="12" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="163" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="7">
@@ -7271,7 +7624,9 @@
       <c r="K163" s="8">
         <v>2</v>
       </c>
-      <c r="L163" s="13"/>
+      <c r="L163" s="13" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="164" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="29">
@@ -7489,7 +7844,7 @@
       </c>
       <c r="L169" s="40"/>
     </row>
-    <row r="170" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>29</v>
       </c>
@@ -7502,7 +7857,7 @@
       <c r="D170" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E170" s="3" t="s">
+      <c r="E170" s="57" t="s">
         <v>186</v>
       </c>
       <c r="F170" s="3" t="s">
@@ -7523,7 +7878,9 @@
       <c r="K170" s="2">
         <v>5</v>
       </c>
-      <c r="L170" s="11"/>
+      <c r="L170" s="11" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="171" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
@@ -7559,7 +7916,9 @@
       <c r="K171" s="5">
         <v>6</v>
       </c>
-      <c r="L171" s="12"/>
+      <c r="L171" s="12" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="172" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
@@ -7599,7 +7958,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="173" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>29</v>
       </c>
@@ -7612,7 +7971,7 @@
       <c r="D173" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E173" s="6" t="s">
+      <c r="E173" s="58" t="s">
         <v>191</v>
       </c>
       <c r="F173" s="6" t="s">
@@ -7633,7 +7992,9 @@
       <c r="K173" s="5">
         <v>2</v>
       </c>
-      <c r="L173" s="12"/>
+      <c r="L173" s="12" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="174" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
@@ -7669,7 +8030,9 @@
       <c r="K174" s="5">
         <v>3</v>
       </c>
-      <c r="L174" s="12"/>
+      <c r="L174" s="12" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="175" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="7">
@@ -9079,7 +9442,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="26" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/Items Monstera.xlsx
+++ b/Items Monstera.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f9055710c5e3c483/Documents/Monstera/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="334" documentId="8_{8E6482B4-6D64-4E3A-AAE1-966F7251B445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{641036D4-F5F8-49D7-85DC-8DC9BCCD0BC0}"/>
+  <xr:revisionPtr revIDLastSave="391" documentId="8_{8E6482B4-6D64-4E3A-AAE1-966F7251B445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34FDF701-401A-4683-A05C-0E5E23BFB570}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A2520A3A-2C53-47A9-9216-2F4E40D570BD}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="274">
   <si>
     <t>Item</t>
   </si>
@@ -88,15 +88,6 @@
     <t>RA</t>
   </si>
   <si>
-    <t xml:space="preserve">Thierry ist nicht gut in der Schule. Besonders Mathe fällt ihm schwer. Trotz ständiger Nachhilfe kommt er nicht mit den anderen mit. Letzte Woche haben die Schüler eine Matheprüfung geschrieben.  In der heutigen Stunde wurden die Prüfungen dann endlich zurückgegeben. </t>
-  </si>
-  <si>
-    <t>Nur Thierry</t>
-  </si>
-  <si>
-    <t>Thierry</t>
-  </si>
-  <si>
     <t>nur</t>
   </si>
   <si>
@@ -106,9 +97,6 @@
     <t>EW</t>
   </si>
   <si>
-    <t>Ausgerechnet Thierry</t>
-  </si>
-  <si>
     <t>ausgerechnet</t>
   </si>
   <si>
@@ -121,9 +109,6 @@
     <t>medium</t>
   </si>
   <si>
-    <t xml:space="preserve">Thierry ist in der 8. Klasse. Seit letzter Woche ist die Aufregung unter den Schülern groß, weil sie eine Matheprüfung geschrieben und seither gespannt auf die Ergebnisse gewartet haben. In der heutigen Stunde wurden die Prüfungen dann endlich zurückgegeben. </t>
-  </si>
-  <si>
     <t>Eva hat sich vor kurzem von ihrem Freund Richard getrennt. Sie möchte ihn nicht mehr sehen. Der Break-up war furchtbar. Plötzlich klingelt jemand an der Tür.</t>
   </si>
   <si>
@@ -145,45 +130,24 @@
     <t xml:space="preserve">Tim liebt seinen neuen Volvo. Jeden Sonntag steht er extra früh auf, um sein Auto noch vor der neuen Arbeitswoche zu putzen. </t>
   </si>
   <si>
-    <t>Auch Tims Volvo</t>
-  </si>
-  <si>
     <t>Tims Volvo</t>
   </si>
   <si>
     <t>Ausgerechnet Tims Volvo</t>
   </si>
   <si>
-    <t xml:space="preserve">Tim hat einen neuen Volvo gekauft, weil den Kia, den er davor hatte, nicht genug platz hatte für seine vier Kinder. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Tims Volvo </t>
   </si>
   <si>
-    <t>Chefarzt Vladimir arbeitet seit 1980 als Herzchirurg im Krankenhaus von Mannheim. Durch seine jahrelange Erfahrung ist er sehr beliebt unter Kollegen und Patienten. Morgen kommt die Ethik-Kommission zur jährlichen Kontrolle vorbei.</t>
-  </si>
-  <si>
-    <t>Bloß Chefarzt Vladimir</t>
-  </si>
-  <si>
-    <t>Chefarzt Vladimir</t>
-  </si>
-  <si>
     <t>bloß</t>
   </si>
   <si>
-    <t>Gerade Chefarzt Vladimir</t>
-  </si>
-  <si>
     <t>gerade</t>
   </si>
   <si>
     <t xml:space="preserve">ohne </t>
   </si>
   <si>
-    <t>Chefarzt Vladimir arbeitet seit 1980 als Herzchirurg in dem Krankenhaus von Mannheim. Morgen kommt die Ethik-Kommission zur jährlichen Kontrolle vorbei.</t>
-  </si>
-  <si>
     <t>Vor allem Hartz-IV-Empfänger leiden stark unter der Inflation und den extrem steigenden Nebenkosten. Das Bundesministerium hat angekündigt, der Bevölkerung entgegenkommen zu wollen. Einer der Maßnahmen ist das 9-Euro-Ticket , womit jeder für 9 Euro, einen Monat lang durch ganz Deutschland mit dem Zug fahren kann. Die Hartz-IV-Empfänger freuen sich sehr über diese Entscheidung.</t>
   </si>
   <si>
@@ -310,21 +274,9 @@
     <t>Julia fährt jeden Morgen mit dem Fahrrad zur Arbeit. Am Dienstag hat sie eine wichtige Besprechung mit einer potenziellen neuen Kundin.</t>
   </si>
   <si>
-    <t>Erst am Dienstag</t>
-  </si>
-  <si>
-    <t>am Dienstag</t>
-  </si>
-  <si>
     <t>erst</t>
   </si>
   <si>
-    <t>Gerade am Dienstag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Am Dienstag </t>
-  </si>
-  <si>
     <t xml:space="preserve">Julia fährt jeden Morgen mit dem Fahrrad zur Arbeit. Am Dienstag hat sie eine Besprechung mit einer Kollegin geplant. </t>
   </si>
   <si>
@@ -544,21 +496,6 @@
     <t xml:space="preserve">Esmeralda hat Tickets zum beliebten ABBA-konzert geschenkt bekommen und freut sich bereits auf die Reise. Sie muss nur ihren Arbeitgeber noch um Urlaub bitten. </t>
   </si>
   <si>
-    <t xml:space="preserve">Ramona hat sich via Tinder in Jardell verliebt. Auf seinem Tinderprofil gibt er an eine seriöse Beziehung zu suchen. Sie schreiben sich täglich. Jardell ist nich nur witzig und clever, sondern auch stinkend reich. Sie vereinbaren einen Treffen. </t>
-  </si>
-  <si>
-    <t>Auch Jardell</t>
-  </si>
-  <si>
-    <t>Jardell</t>
-  </si>
-  <si>
-    <t>Ausgerechnet Jardell</t>
-  </si>
-  <si>
-    <t>Ramona sucht Ihre große Liebe via Tinder. Sie schaut täglich rein ob sie jemanden sieht, der ihr gefällt. Ein Herr mit dem Namen Jardell sieht nicht nur hübsch aus, sondern ist auch witzig und clever. Sie vereinbaren einen Treffen.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Simon bewirbt sich auf die Stelle Zugführer. Er hat eine lange Ausbildung hinter sich und bei verschiedenen Praktika viel Erfahrung sammeln können. Auf die Stelle bewerben sich allerdings über 30 qualifizierte Kandidaten. </t>
   </si>
   <si>
@@ -610,18 +547,6 @@
     <t xml:space="preserve">Frau Eberle ist 88 und in guter Gesundheit. Sie ist der Meinung, dass sie trotz Augenproblemen immer noch autofahren kann. Am Freitag hat sie vor, Ihre Tochter in Hamburg zu besuchen. </t>
   </si>
   <si>
-    <t>Auch am Freitag</t>
-  </si>
-  <si>
-    <t>am Freitag</t>
-  </si>
-  <si>
-    <t>Ausgerechnet am Freitag</t>
-  </si>
-  <si>
-    <t>Am Freitag</t>
-  </si>
-  <si>
     <t xml:space="preserve">Frau Eberle ist 88 und in guter Gesundheit. Morgens kommt eine Pflegehilfe um ihr ihre Stützstrümpfe anzuziehen, aber weiter kann sie alles noch allein. Am Freitag hat sie vor Ihre Tochter in Hamburg zu besuchen. </t>
   </si>
   <si>
@@ -878,13 +803,79 @@
   </si>
   <si>
     <t xml:space="preserve">in der ersten Woche bekommt man nämlich eine exklusive ABBA-Poster beim Konzertbesuch. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peter ist nicht gut in der Schule. Besonders Mathe fällt ihm schwer. Trotz ständiger Nachhilfe kommt er nicht mit den anderen mit. Letzte Woche haben die Schüler eine Matheprüfung geschrieben.  In der heutigen Stunde wurden die Prüfungen dann endlich zurückgegeben. </t>
+  </si>
+  <si>
+    <t>Nur Peter</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Ausgerechnet Peter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peter ist in der 8. Klasse. Seit letzter Woche ist die Aufregung unter den Schülern groß, weil sie eine Matheprüfung geschrieben und seither gespannt auf die Ergebnisse gewartet haben. In der heutigen Stunde wurden die Prüfungen dann endlich zurückgegeben. </t>
+  </si>
+  <si>
+    <t>Chefarzt Neugebauer arbeitet seit 1980 als Herzchirurg im Krankenhaus von Mannheim. Durch seine jahrelange Erfahrung ist er sehr beliebt unter Kollegen und Patienten. Morgen kommt die Ethik-Kommission zur jährlichen Kontrolle vorbei.</t>
+  </si>
+  <si>
+    <t>Bloß Chefarzt Neugebauer</t>
+  </si>
+  <si>
+    <t>Chefarzt Neugebauer</t>
+  </si>
+  <si>
+    <t>Gerade Chefarzt Neugebauer</t>
+  </si>
+  <si>
+    <t>Chefarzt Neugebauer arbeitet seit 1980 als Herzchirurg in dem Krankenhaus von Mannheim. Morgen kommt die Ethik-Kommission zur jährlichen Kontrolle vorbei.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramona hat sich via Tinder in Manfred verliebt. Auf seinem Tinderprofil gibt er an eine seriöse Beziehung zu suchen. Sie schreiben sich täglich. Manfred ist nich nur witzig und clever, sondern auch stinkend reich. Sie vereinbaren einen Treffen. </t>
+  </si>
+  <si>
+    <t>Auch Manfred</t>
+  </si>
+  <si>
+    <t>Manfred</t>
+  </si>
+  <si>
+    <t>Ausgerechnet Manfred</t>
+  </si>
+  <si>
+    <t>Ramona sucht Ihre große Liebe via Tinder. Sie schaut täglich rein ob sie jemanden sieht, der ihr gefällt. Ein Herr mit dem Namen Manfred sieht nicht nur hübsch aus, sondern ist auch witzig und clever. Sie vereinbaren einen Treffen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tim hat einen neuen Volvo gekauft, weil der Kia, den er davor hatte, nicht genug Platz hatte für seine vier Kinder. </t>
+  </si>
+  <si>
+    <t>Nur Tims Volvo</t>
+  </si>
+  <si>
+    <t>Erst dann</t>
+  </si>
+  <si>
+    <t>Gerade dann</t>
+  </si>
+  <si>
+    <t>an dem Tag</t>
+  </si>
+  <si>
+    <t>Ausgerechnet an dem Tag</t>
+  </si>
+  <si>
+    <t>Auch an dem Tag</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -896,20 +887,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="2" tint="-9.9978637043366805E-2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.14999847407452621"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1002,7 +979,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1020,45 +997,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1066,12 +1016,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1456,8 +1419,8 @@
   </sheetPr>
   <dimension ref="A1:M563"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E160" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L170" sqref="L170:L172"/>
+    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A164" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1511,7 +1474,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -1527,29 +1490,29 @@
       <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I2" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K2" s="2">
         <v>1</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1563,31 +1526,31 @@
         <v>11</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>13</v>
+        <v>252</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>19</v>
+        <v>255</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>15</v>
+        <v>254</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K3" s="5">
         <v>2</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1601,31 +1564,31 @@
         <v>11</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>13</v>
+        <v>252</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>15</v>
+        <v>254</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>15</v>
+        <v>254</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K4" s="5">
         <v>3</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -1636,34 +1599,34 @@
         <v>4</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="58" t="s">
-        <v>24</v>
+      <c r="E5" s="31" t="s">
+        <v>256</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>14</v>
+        <v>253</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>15</v>
+        <v>254</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K5" s="5">
         <v>4</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1674,34 +1637,34 @@
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>24</v>
+        <v>256</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>19</v>
+        <v>255</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>15</v>
+        <v>254</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K6" s="5">
         <v>5</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1712,38 +1675,38 @@
         <v>6</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>24</v>
+        <v>256</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>15</v>
+        <v>254</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>15</v>
+        <v>254</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K7" s="8">
         <v>6</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="37">
         <v>2</v>
       </c>
       <c r="B8" s="18">
@@ -1756,30 +1719,30 @@
         <v>12</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K8" s="18">
         <v>2</v>
       </c>
-      <c r="L8" s="20"/>
+      <c r="L8" s="38"/>
     </row>
     <row r="9" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21">
+      <c r="A9" s="39">
         <v>2</v>
       </c>
       <c r="B9" s="22">
@@ -1789,33 +1752,33 @@
         <v>11</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K9" s="22">
         <v>3</v>
       </c>
-      <c r="L9" s="24"/>
+      <c r="L9" s="40"/>
     </row>
     <row r="10" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
+      <c r="A10" s="39">
         <v>2</v>
       </c>
       <c r="B10" s="22">
@@ -1825,141 +1788,141 @@
         <v>11</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K10" s="22">
         <v>4</v>
       </c>
-      <c r="L10" s="24"/>
+      <c r="L10" s="40"/>
     </row>
     <row r="11" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21">
+      <c r="A11" s="39">
         <v>2</v>
       </c>
       <c r="B11" s="22">
         <v>4</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K11" s="22">
         <v>5</v>
       </c>
-      <c r="L11" s="24"/>
+      <c r="L11" s="40"/>
     </row>
     <row r="12" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21">
+      <c r="A12" s="39">
         <v>2</v>
       </c>
       <c r="B12" s="22">
         <v>5</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K12" s="22">
         <v>6</v>
       </c>
-      <c r="L12" s="24"/>
+      <c r="L12" s="40"/>
     </row>
     <row r="13" spans="1:12" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25">
+      <c r="A13" s="41">
         <v>2</v>
       </c>
       <c r="B13" s="26">
         <v>6</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K13" s="26">
         <v>1</v>
       </c>
-      <c r="L13" s="28"/>
+      <c r="L13" s="42"/>
     </row>
     <row r="14" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="35">
         <v>3</v>
       </c>
       <c r="B14" s="2">
@@ -1971,20 +1934,20 @@
       <c r="D14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="57" t="s">
-        <v>31</v>
+      <c r="E14" s="30" t="s">
+        <v>26</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>32</v>
+        <v>268</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>9</v>
@@ -1993,7 +1956,7 @@
         <v>3</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2007,22 +1970,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>9</v>
@@ -2031,7 +1994,7 @@
         <v>4</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2045,22 +2008,22 @@
         <v>11</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>9</v>
@@ -2069,7 +2032,7 @@
         <v>5</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2080,25 +2043,25 @@
         <v>4</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="58" t="s">
-        <v>35</v>
+      <c r="E17" s="34" t="s">
+        <v>267</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>32</v>
+        <v>268</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>9</v>
@@ -2107,10 +2070,10 @@
         <v>6</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>3</v>
       </c>
@@ -2118,25 +2081,25 @@
         <v>5</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>35</v>
+        <v>15</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>267</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>9</v>
@@ -2145,10 +2108,10 @@
         <v>1</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="8" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>3</v>
       </c>
@@ -2156,25 +2119,25 @@
         <v>6</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>35</v>
+        <v>17</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>267</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J19" s="9" t="s">
         <v>9</v>
@@ -2183,11 +2146,11 @@
         <v>2</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="35">
         <v>4</v>
       </c>
       <c r="B20" s="2">
@@ -2199,29 +2162,29 @@
       <c r="D20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="57" t="s">
-        <v>37</v>
+      <c r="E20" s="36" t="s">
+        <v>257</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>38</v>
+        <v>258</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K20" s="2">
         <v>4</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2235,31 +2198,31 @@
         <v>11</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>37</v>
+        <v>257</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>41</v>
+        <v>260</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K21" s="5">
         <v>5</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2273,31 +2236,31 @@
         <v>11</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>37</v>
+        <v>257</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K22" s="5">
         <v>6</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2308,34 +2271,34 @@
         <v>4</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="58" t="s">
-        <v>44</v>
+      <c r="E23" s="31" t="s">
+        <v>261</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>38</v>
+        <v>258</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K23" s="5">
         <v>1</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2346,34 +2309,34 @@
         <v>5</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>44</v>
+        <v>261</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>41</v>
+        <v>260</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K24" s="5">
         <v>2</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2384,34 +2347,34 @@
         <v>6</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>44</v>
+        <v>261</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K25" s="8">
         <v>3</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -2427,29 +2390,29 @@
       <c r="D26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="57" t="s">
-        <v>45</v>
+      <c r="E26" s="30" t="s">
+        <v>33</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K26" s="2">
         <v>5</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2463,31 +2426,31 @@
         <v>11</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K27" s="5">
         <v>6</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2501,31 +2464,31 @@
         <v>11</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K28" s="5">
         <v>1</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2536,34 +2499,34 @@
         <v>4</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="58" t="s">
-        <v>50</v>
+      <c r="E29" s="31" t="s">
+        <v>38</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K29" s="5">
         <v>2</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2574,34 +2537,34 @@
         <v>5</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K30" s="5">
         <v>3</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2612,38 +2575,38 @@
         <v>6</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K31" s="8">
         <v>4</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="37">
         <v>6</v>
       </c>
       <c r="B32" s="18">
@@ -2655,31 +2618,31 @@
       <c r="D32" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="19" t="s">
-        <v>51</v>
+      <c r="E32" s="32" t="s">
+        <v>39</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J32" s="19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K32" s="18">
         <v>6</v>
       </c>
-      <c r="L32" s="20"/>
+      <c r="L32" s="38"/>
     </row>
     <row r="33" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="21">
+      <c r="A33" s="39">
         <v>6</v>
       </c>
       <c r="B33" s="22">
@@ -2689,33 +2652,33 @@
         <v>11</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I33" s="23" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J33" s="23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K33" s="22">
         <v>1</v>
       </c>
-      <c r="L33" s="24"/>
+      <c r="L33" s="40"/>
     </row>
     <row r="34" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="21">
+      <c r="A34" s="39">
         <v>6</v>
       </c>
       <c r="B34" s="22">
@@ -2725,138 +2688,138 @@
         <v>11</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I34" s="23" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J34" s="23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K34" s="22">
         <v>2</v>
       </c>
-      <c r="L34" s="24"/>
+      <c r="L34" s="40"/>
     </row>
     <row r="35" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="21">
+      <c r="A35" s="39">
         <v>6</v>
       </c>
       <c r="B35" s="22">
         <v>4</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D35" s="23" t="s">
         <v>12</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H35" s="23" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I35" s="23" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J35" s="23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K35" s="22">
         <v>3</v>
       </c>
-      <c r="L35" s="24"/>
+      <c r="L35" s="40"/>
     </row>
     <row r="36" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="21">
+      <c r="A36" s="39">
         <v>6</v>
       </c>
       <c r="B36" s="22">
         <v>5</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H36" s="23" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I36" s="23" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J36" s="23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K36" s="22">
         <v>4</v>
       </c>
-      <c r="L36" s="24"/>
+      <c r="L36" s="40"/>
     </row>
     <row r="37" spans="1:12" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="25">
+      <c r="A37" s="41">
         <v>6</v>
       </c>
       <c r="B37" s="26">
         <v>6</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F37" s="27" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H37" s="27" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I37" s="27" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J37" s="27" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K37" s="26">
         <v>5</v>
       </c>
-      <c r="L37" s="28"/>
+      <c r="L37" s="42"/>
     </row>
     <row r="38" spans="1:12" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
@@ -2871,29 +2834,29 @@
       <c r="D38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="57" t="s">
-        <v>57</v>
+      <c r="E38" s="30" t="s">
+        <v>45</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="K38" s="2">
         <v>1</v>
       </c>
       <c r="L38" s="11" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2907,22 +2870,22 @@
         <v>11</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="J39" s="6" t="s">
         <v>9</v>
@@ -2931,7 +2894,7 @@
         <v>2</v>
       </c>
       <c r="L39" s="12" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2945,31 +2908,31 @@
         <v>11</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="K40" s="5">
         <v>3</v>
       </c>
       <c r="L40" s="12" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2980,34 +2943,34 @@
         <v>4</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="58" t="s">
-        <v>65</v>
+      <c r="E41" s="31" t="s">
+        <v>53</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K41" s="5">
         <v>4</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3018,34 +2981,34 @@
         <v>5</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K42" s="5">
         <v>5</v>
       </c>
       <c r="L42" s="12" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3056,34 +3019,34 @@
         <v>6</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K43" s="8">
         <v>6</v>
       </c>
       <c r="L43" s="13" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3099,29 +3062,29 @@
       <c r="D44" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="57" t="s">
-        <v>66</v>
+      <c r="E44" s="30" t="s">
+        <v>54</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K44" s="2">
         <v>2</v>
       </c>
       <c r="L44" s="11" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3135,31 +3098,31 @@
         <v>11</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K45" s="5">
         <v>3</v>
       </c>
       <c r="L45" s="12" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
     </row>
     <row r="46" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3173,31 +3136,31 @@
         <v>11</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K46" s="5">
         <v>4</v>
       </c>
       <c r="L46" s="12" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3208,34 +3171,34 @@
         <v>4</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="58" t="s">
-        <v>72</v>
+      <c r="E47" s="31" t="s">
+        <v>60</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K47" s="5">
         <v>5</v>
       </c>
       <c r="L47" s="12" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3246,34 +3209,34 @@
         <v>5</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K48" s="5">
         <v>6</v>
       </c>
       <c r="L48" s="12" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
     </row>
     <row r="49" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3284,34 +3247,34 @@
         <v>6</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K49" s="8">
         <v>1</v>
       </c>
       <c r="L49" s="13" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3327,29 +3290,29 @@
       <c r="D50" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E50" s="57" t="s">
-        <v>73</v>
+      <c r="E50" s="30" t="s">
+        <v>61</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="K50" s="2">
         <v>3</v>
       </c>
       <c r="L50" s="12" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3363,31 +3326,31 @@
         <v>11</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="K51" s="5">
         <v>4</v>
       </c>
       <c r="L51" s="12" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3401,31 +3364,31 @@
         <v>11</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="K52" s="5">
         <v>5</v>
       </c>
       <c r="L52" s="12" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
     </row>
     <row r="53" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3436,34 +3399,34 @@
         <v>4</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K53" s="5">
         <v>6</v>
       </c>
       <c r="L53" s="12" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
     </row>
     <row r="54" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3474,34 +3437,34 @@
         <v>5</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K54" s="5">
         <v>1</v>
       </c>
       <c r="L54" s="12" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
     </row>
     <row r="55" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3512,34 +3475,34 @@
         <v>6</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K55" s="8">
         <v>2</v>
       </c>
       <c r="L55" s="13" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
     </row>
     <row r="56" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3555,29 +3518,29 @@
       <c r="D56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E56" s="57" t="s">
-        <v>80</v>
+      <c r="E56" s="30" t="s">
+        <v>68</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K56" s="2">
         <v>4</v>
       </c>
       <c r="L56" s="12" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
     </row>
     <row r="57" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3591,31 +3554,31 @@
         <v>11</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K57" s="5">
         <v>5</v>
       </c>
       <c r="L57" s="12" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
     </row>
     <row r="58" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3629,31 +3592,31 @@
         <v>11</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K58" s="5">
         <v>6</v>
       </c>
       <c r="L58" s="12" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
     </row>
     <row r="59" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3664,34 +3627,34 @@
         <v>4</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E59" s="58" t="s">
-        <v>85</v>
+      <c r="E59" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K59" s="5">
         <v>1</v>
       </c>
       <c r="L59" s="12" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
     </row>
     <row r="60" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3702,34 +3665,34 @@
         <v>5</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K60" s="5">
         <v>2</v>
       </c>
       <c r="L60" s="12" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
     </row>
     <row r="61" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3740,34 +3703,34 @@
         <v>6</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K61" s="8">
         <v>3</v>
       </c>
       <c r="L61" s="13" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
     </row>
     <row r="62" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3783,29 +3746,29 @@
       <c r="D62" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E62" s="57" t="s">
-        <v>86</v>
+      <c r="E62" s="30" t="s">
+        <v>74</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>87</v>
+        <v>269</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K62" s="2">
         <v>5</v>
       </c>
       <c r="L62" s="11" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3819,31 +3782,31 @@
         <v>11</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K63" s="5">
         <v>6</v>
       </c>
       <c r="L63" s="12" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3857,31 +3820,31 @@
         <v>11</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K64" s="5">
         <v>1</v>
       </c>
       <c r="L64" s="12" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
     </row>
     <row r="65" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3892,34 +3855,34 @@
         <v>4</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E65" s="58" t="s">
-        <v>92</v>
+      <c r="E65" s="31" t="s">
+        <v>76</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>87</v>
+        <v>269</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K65" s="5">
         <v>2</v>
       </c>
       <c r="L65" s="12" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
     </row>
     <row r="66" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3930,34 +3893,34 @@
         <v>5</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K66" s="5">
         <v>3</v>
       </c>
       <c r="L66" s="12" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
     </row>
     <row r="67" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3968,34 +3931,34 @@
         <v>6</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>91</v>
+        <v>76</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K67" s="8">
         <v>4</v>
       </c>
       <c r="L67" s="13" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
     </row>
     <row r="68" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4011,29 +3974,29 @@
       <c r="D68" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="57" t="s">
-        <v>93</v>
+      <c r="E68" s="30" t="s">
+        <v>77</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K68" s="2">
         <v>6</v>
       </c>
       <c r="L68" s="11" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="69" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4047,31 +4010,31 @@
         <v>11</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K69" s="5">
         <v>1</v>
       </c>
       <c r="L69" s="12" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
     </row>
     <row r="70" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4085,31 +4048,31 @@
         <v>11</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K70" s="5">
         <v>2</v>
       </c>
       <c r="L70" s="12" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
     </row>
     <row r="71" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4120,34 +4083,34 @@
         <v>4</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="58" t="s">
-        <v>97</v>
+      <c r="E71" s="31" t="s">
+        <v>81</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K71" s="5">
         <v>3</v>
       </c>
       <c r="L71" s="12" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="72" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4158,34 +4121,34 @@
         <v>5</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K72" s="5">
         <v>4</v>
       </c>
       <c r="L72" s="12" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
     </row>
     <row r="73" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4196,256 +4159,256 @@
         <v>6</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K73" s="8">
         <v>5</v>
       </c>
       <c r="L73" s="13" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="29">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="37">
         <v>13</v>
       </c>
-      <c r="B74" s="30">
+      <c r="B74" s="18">
         <v>1</v>
       </c>
-      <c r="C74" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74" s="31" t="s">
+      <c r="C74" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E74" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="F74" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="G74" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="H74" s="31" t="s">
+      <c r="E74" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F74" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G74" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="H74" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I74" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J74" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K74" s="18">
+        <v>1</v>
+      </c>
+      <c r="L74" s="38"/>
+    </row>
+    <row r="75" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="39">
+        <v>13</v>
+      </c>
+      <c r="B75" s="22">
+        <v>2</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F75" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G75" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="H75" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I74" s="31" t="s">
+      <c r="I75" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="J74" s="31" t="s">
+      <c r="J75" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K75" s="22">
+        <v>2</v>
+      </c>
+      <c r="L75" s="40"/>
+    </row>
+    <row r="76" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="39">
+        <v>13</v>
+      </c>
+      <c r="B76" s="22">
+        <v>3</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="K74" s="30">
-        <v>1</v>
-      </c>
-      <c r="L74" s="53"/>
-    </row>
-    <row r="75" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="33">
+      <c r="E76" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F76" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G76" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="H76" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I76" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J76" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K76" s="22">
+        <v>3</v>
+      </c>
+      <c r="L76" s="40" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="39">
         <v>13</v>
       </c>
-      <c r="B75" s="34">
-        <v>2</v>
-      </c>
-      <c r="C75" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="E75" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="F75" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="G75" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="H75" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I75" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J75" s="35" t="s">
+      <c r="B77" s="22">
+        <v>4</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F77" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="G77" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="H77" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I77" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J77" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K77" s="22">
+        <v>4</v>
+      </c>
+      <c r="L77" s="40"/>
+    </row>
+    <row r="78" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="39">
+        <v>13</v>
+      </c>
+      <c r="B78" s="22">
+        <v>5</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F78" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G78" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="H78" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I78" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J78" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K78" s="22">
+        <v>5</v>
+      </c>
+      <c r="L78" s="40" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="41">
+        <v>13</v>
+      </c>
+      <c r="B79" s="26">
+        <v>6</v>
+      </c>
+      <c r="C79" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="K75" s="34">
-        <v>2</v>
-      </c>
-      <c r="L75" s="54"/>
-    </row>
-    <row r="76" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="33">
-        <v>13</v>
-      </c>
-      <c r="B76" s="34">
-        <v>3</v>
-      </c>
-      <c r="C76" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E76" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="F76" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="G76" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="H76" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I76" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="J76" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="K76" s="34">
-        <v>3</v>
-      </c>
-      <c r="L76" s="54" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="33">
-        <v>13</v>
-      </c>
-      <c r="B77" s="34">
-        <v>4</v>
-      </c>
-      <c r="C77" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="D77" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E77" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="F77" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G77" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="H77" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="I77" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="J77" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="K77" s="34">
-        <v>4</v>
-      </c>
-      <c r="L77" s="54"/>
-    </row>
-    <row r="78" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="33">
-        <v>13</v>
-      </c>
-      <c r="B78" s="34">
-        <v>5</v>
-      </c>
-      <c r="C78" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="D78" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="E78" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="F78" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="G78" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="H78" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I78" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J78" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="K78" s="34">
-        <v>5</v>
-      </c>
-      <c r="L78" s="54" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" s="38" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="37">
-        <v>13</v>
-      </c>
-      <c r="B79" s="38">
+      <c r="E79" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="F79" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="G79" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="H79" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I79" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J79" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="K79" s="26">
         <v>6</v>
       </c>
-      <c r="C79" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="D79" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="E79" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="F79" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="G79" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="H79" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="I79" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="J79" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="K79" s="38">
-        <v>6</v>
-      </c>
-      <c r="L79" s="55" t="s">
-        <v>233</v>
+      <c r="L79" s="42" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="80" spans="1:12" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -4461,29 +4424,29 @@
       <c r="D80" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E80" s="57" t="s">
-        <v>103</v>
+      <c r="E80" s="30" t="s">
+        <v>87</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K80" s="2">
         <v>2</v>
       </c>
       <c r="L80" s="11" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
     </row>
     <row r="81" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4497,31 +4460,31 @@
         <v>11</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K81" s="5">
         <v>3</v>
       </c>
       <c r="L81" s="12" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
     </row>
     <row r="82" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4535,31 +4498,31 @@
         <v>11</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K82" s="5">
         <v>4</v>
       </c>
       <c r="L82" s="12" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
     </row>
     <row r="83" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4570,34 +4533,34 @@
         <v>4</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E83" s="58" t="s">
-        <v>107</v>
+      <c r="E83" s="31" t="s">
+        <v>91</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K83" s="5">
         <v>5</v>
       </c>
       <c r="L83" s="12" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
     </row>
     <row r="84" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4608,34 +4571,34 @@
         <v>5</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K84" s="5">
         <v>6</v>
       </c>
       <c r="L84" s="12" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
     </row>
     <row r="85" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4646,34 +4609,34 @@
         <v>6</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K85" s="8">
         <v>1</v>
       </c>
       <c r="L85" s="13" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
     </row>
     <row r="86" spans="1:12" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -4689,29 +4652,29 @@
       <c r="D86" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E86" s="57" t="s">
-        <v>108</v>
+      <c r="E86" s="30" t="s">
+        <v>92</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K86" s="2">
         <v>3</v>
       </c>
       <c r="L86" s="11" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
     </row>
     <row r="87" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4725,31 +4688,31 @@
         <v>11</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K87" s="5">
         <v>4</v>
       </c>
       <c r="L87" s="12" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
     </row>
     <row r="88" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4763,31 +4726,31 @@
         <v>11</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K88" s="5">
         <v>5</v>
       </c>
       <c r="L88" s="12" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
     </row>
     <row r="89" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4798,34 +4761,34 @@
         <v>4</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E89" s="58" t="s">
-        <v>114</v>
+      <c r="E89" s="31" t="s">
+        <v>98</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K89" s="5">
         <v>6</v>
       </c>
       <c r="L89" s="12" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
     </row>
     <row r="90" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4836,34 +4799,34 @@
         <v>5</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K90" s="5">
         <v>1</v>
       </c>
       <c r="L90" s="12" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
     </row>
     <row r="91" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4874,262 +4837,262 @@
         <v>6</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K91" s="8">
         <v>2</v>
       </c>
       <c r="L91" s="12" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="41">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="17">
         <v>16</v>
       </c>
-      <c r="B92" s="42">
+      <c r="B92" s="18">
         <v>1</v>
       </c>
-      <c r="C92" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D92" s="43" t="s">
+      <c r="C92" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E92" s="59" t="s">
-        <v>115</v>
-      </c>
-      <c r="F92" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="G92" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="H92" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="I92" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="J92" s="43" t="s">
+      <c r="E92" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="F92" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G92" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="H92" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I92" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J92" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K92" s="18">
+        <v>4</v>
+      </c>
+      <c r="L92" s="20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="21">
+        <v>16</v>
+      </c>
+      <c r="B93" s="22">
+        <v>2</v>
+      </c>
+      <c r="C93" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E93" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="F93" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G93" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="H93" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I93" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="J93" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K93" s="22">
+        <v>5</v>
+      </c>
+      <c r="L93" s="24" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="21">
+        <v>16</v>
+      </c>
+      <c r="B94" s="22">
+        <v>3</v>
+      </c>
+      <c r="C94" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="K92" s="42">
+      <c r="E94" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="F94" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="G94" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="H94" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I94" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J94" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K94" s="22">
+        <v>6</v>
+      </c>
+      <c r="L94" s="24" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="21">
+        <v>16</v>
+      </c>
+      <c r="B95" s="22">
         <v>4</v>
       </c>
-      <c r="L92" s="44" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="45">
+      <c r="C95" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="F95" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="G95" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="H95" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I95" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="J95" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K95" s="22">
+        <v>1</v>
+      </c>
+      <c r="L95" s="24" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="21">
         <v>16</v>
       </c>
-      <c r="B93" s="46">
+      <c r="B96" s="22">
+        <v>5</v>
+      </c>
+      <c r="C96" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F96" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G96" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="H96" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I96" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="J96" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K96" s="22">
         <v>2</v>
       </c>
-      <c r="C93" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="D93" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="E93" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="F93" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="G93" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="H93" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="I93" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="J93" s="47" t="s">
+      <c r="L96" s="24" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="25">
+        <v>16</v>
+      </c>
+      <c r="B97" s="26">
+        <v>6</v>
+      </c>
+      <c r="C97" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="K93" s="46">
-        <v>5</v>
-      </c>
-      <c r="L93" s="48" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="45">
-        <v>16</v>
-      </c>
-      <c r="B94" s="46">
+      <c r="E97" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="F97" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="G97" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="H97" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I97" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="J97" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="K97" s="26">
         <v>3</v>
       </c>
-      <c r="C94" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="D94" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="E94" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="F94" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="G94" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="H94" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I94" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="J94" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="K94" s="46">
-        <v>6</v>
-      </c>
-      <c r="L94" s="48" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="45">
-        <v>16</v>
-      </c>
-      <c r="B95" s="46">
-        <v>4</v>
-      </c>
-      <c r="C95" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="D95" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E95" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="F95" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="G95" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="H95" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="I95" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="J95" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="K95" s="46">
-        <v>1</v>
-      </c>
-      <c r="L95" s="48" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="45">
-        <v>16</v>
-      </c>
-      <c r="B96" s="46">
-        <v>5</v>
-      </c>
-      <c r="C96" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="D96" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="E96" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="F96" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="G96" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="H96" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="I96" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="J96" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="K96" s="46">
-        <v>2</v>
-      </c>
-      <c r="L96" s="48" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" s="50" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="49">
-        <v>16</v>
-      </c>
-      <c r="B97" s="50">
-        <v>6</v>
-      </c>
-      <c r="C97" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="D97" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="E97" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="F97" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="G97" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="H97" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="I97" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="J97" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="K97" s="50">
-        <v>3</v>
-      </c>
-      <c r="L97" s="52" t="s">
-        <v>235</v>
+      <c r="L97" s="28" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="98" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5145,29 +5108,29 @@
       <c r="D98" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E98" s="57" t="s">
-        <v>121</v>
+      <c r="E98" s="30" t="s">
+        <v>105</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K98" s="2">
         <v>5</v>
       </c>
       <c r="L98" s="11" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
     </row>
     <row r="99" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5181,31 +5144,31 @@
         <v>11</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="J99" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K99" s="5">
         <v>6</v>
       </c>
       <c r="L99" s="12" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
     </row>
     <row r="100" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5219,31 +5182,31 @@
         <v>11</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K100" s="5">
         <v>1</v>
       </c>
       <c r="L100" s="12" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
     </row>
     <row r="101" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -5254,34 +5217,34 @@
         <v>4</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E101" s="58" t="s">
-        <v>126</v>
+      <c r="E101" s="31" t="s">
+        <v>110</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K101" s="5">
         <v>2</v>
       </c>
       <c r="L101" s="12" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
     </row>
     <row r="102" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5292,34 +5255,34 @@
         <v>5</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="H102" s="6" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K102" s="5">
         <v>3</v>
       </c>
       <c r="L102" s="12" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
     </row>
     <row r="103" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5330,34 +5293,34 @@
         <v>6</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="H103" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K103" s="8">
         <v>4</v>
       </c>
       <c r="L103" s="13" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
     </row>
     <row r="104" spans="1:12" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -5373,29 +5336,29 @@
       <c r="D104" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E104" s="57" t="s">
-        <v>127</v>
+      <c r="E104" s="30" t="s">
+        <v>111</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K104" s="2">
         <v>6</v>
       </c>
       <c r="L104" s="14" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
     </row>
     <row r="105" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5409,31 +5372,31 @@
         <v>11</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K105" s="5">
         <v>1</v>
       </c>
       <c r="L105" s="14" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
     </row>
     <row r="106" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5447,31 +5410,31 @@
         <v>11</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K106" s="5">
         <v>2</v>
       </c>
       <c r="L106" s="14" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
     </row>
     <row r="107" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -5482,34 +5445,34 @@
         <v>4</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E107" s="58" t="s">
-        <v>132</v>
+      <c r="E107" s="31" t="s">
+        <v>116</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K107" s="5">
         <v>3</v>
       </c>
       <c r="L107" s="14" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
     </row>
     <row r="108" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5520,34 +5483,34 @@
         <v>5</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K108" s="5">
         <v>4</v>
       </c>
       <c r="L108" s="14" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
     </row>
     <row r="109" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5558,34 +5521,34 @@
         <v>6</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="H109" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J109" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K109" s="8">
         <v>5</v>
       </c>
-      <c r="L109" s="56" t="s">
-        <v>265</v>
+      <c r="L109" s="29" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="110" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5601,29 +5564,29 @@
       <c r="D110" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E110" s="57" t="s">
-        <v>133</v>
+      <c r="E110" s="30" t="s">
+        <v>117</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K110" s="2">
         <v>1</v>
       </c>
       <c r="L110" s="12" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
     </row>
     <row r="111" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5637,31 +5600,31 @@
         <v>11</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J111" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K111" s="5">
         <v>2</v>
       </c>
       <c r="L111" s="12" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
     </row>
     <row r="112" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5675,31 +5638,31 @@
         <v>11</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K112" s="5">
         <v>3</v>
       </c>
       <c r="L112" s="12" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
     </row>
     <row r="113" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5710,34 +5673,34 @@
         <v>4</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E113" s="58" t="s">
-        <v>138</v>
+      <c r="E113" s="31" t="s">
+        <v>122</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K113" s="5">
         <v>4</v>
       </c>
       <c r="L113" s="12" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
     </row>
     <row r="114" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5748,34 +5711,34 @@
         <v>5</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J114" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K114" s="5">
         <v>5</v>
       </c>
       <c r="L114" s="12" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
     </row>
     <row r="115" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5786,34 +5749,34 @@
         <v>6</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="H115" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K115" s="8">
         <v>6</v>
       </c>
       <c r="L115" s="13" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
     </row>
     <row r="116" spans="1:12" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -5829,29 +5792,29 @@
       <c r="D116" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E116" s="57" t="s">
-        <v>139</v>
+      <c r="E116" s="30" t="s">
+        <v>123</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K116" s="2">
         <v>2</v>
       </c>
       <c r="L116" s="11" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
     </row>
     <row r="117" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5865,31 +5828,31 @@
         <v>11</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K117" s="5">
         <v>3</v>
       </c>
       <c r="L117" s="12" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
     </row>
     <row r="118" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5903,31 +5866,31 @@
         <v>11</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K118" s="5">
         <v>4</v>
       </c>
       <c r="L118" s="12" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
     </row>
     <row r="119" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -5938,34 +5901,34 @@
         <v>4</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E119" s="58" t="s">
-        <v>144</v>
+      <c r="E119" s="31" t="s">
+        <v>128</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J119" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K119" s="5">
         <v>5</v>
       </c>
       <c r="L119" s="12" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
     </row>
     <row r="120" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5976,34 +5939,34 @@
         <v>5</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="H120" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J120" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K120" s="5">
         <v>6</v>
       </c>
       <c r="L120" s="12" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
     </row>
     <row r="121" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6014,34 +5977,34 @@
         <v>6</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="H121" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I121" s="9" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J121" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K121" s="8">
         <v>1</v>
       </c>
       <c r="L121" s="13" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
     </row>
     <row r="122" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6057,29 +6020,29 @@
       <c r="D122" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E122" s="57" t="s">
-        <v>145</v>
+      <c r="E122" s="30" t="s">
+        <v>129</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K122" s="2">
         <v>3</v>
       </c>
       <c r="L122" s="11" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
     </row>
     <row r="123" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6093,31 +6056,31 @@
         <v>11</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="H123" s="6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I123" s="6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="J123" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K123" s="5">
         <v>4</v>
       </c>
       <c r="L123" s="12" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
     </row>
     <row r="124" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6131,31 +6094,31 @@
         <v>11</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="H124" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J124" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K124" s="5">
         <v>5</v>
       </c>
       <c r="L124" s="12" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
     </row>
     <row r="125" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6166,34 +6129,34 @@
         <v>4</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E125" s="58" t="s">
-        <v>149</v>
+      <c r="E125" s="31" t="s">
+        <v>133</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="H125" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K125" s="5">
         <v>6</v>
       </c>
       <c r="L125" s="12" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
     </row>
     <row r="126" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6204,34 +6167,34 @@
         <v>5</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="H126" s="6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K126" s="5">
         <v>1</v>
       </c>
       <c r="L126" s="12" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
     </row>
     <row r="127" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6242,34 +6205,34 @@
         <v>6</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I127" s="9" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J127" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K127" s="8">
         <v>2</v>
       </c>
       <c r="L127" s="13" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
     </row>
     <row r="128" spans="1:12" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -6285,29 +6248,29 @@
       <c r="D128" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E128" s="57" t="s">
-        <v>150</v>
+      <c r="E128" s="30" t="s">
+        <v>134</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K128" s="2">
         <v>4</v>
       </c>
       <c r="L128" s="11" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
     </row>
     <row r="129" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6321,31 +6284,31 @@
         <v>11</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="I129" s="6" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K129" s="5">
         <v>5</v>
       </c>
       <c r="L129" s="12" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
     </row>
     <row r="130" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6359,31 +6322,31 @@
         <v>11</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="H130" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I130" s="6" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J130" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K130" s="5">
         <v>6</v>
       </c>
       <c r="L130" s="12" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
     </row>
     <row r="131" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -6394,34 +6357,34 @@
         <v>4</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D131" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E131" s="58" t="s">
-        <v>152</v>
+      <c r="E131" s="31" t="s">
+        <v>136</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="H131" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I131" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J131" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K131" s="5">
         <v>1</v>
       </c>
       <c r="L131" s="12" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
     </row>
     <row r="132" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6432,34 +6395,34 @@
         <v>5</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="H132" s="6" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="J132" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K132" s="5">
         <v>2</v>
       </c>
       <c r="L132" s="12" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
     </row>
     <row r="133" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6470,34 +6433,34 @@
         <v>6</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I133" s="9" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J133" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K133" s="8">
         <v>3</v>
       </c>
       <c r="L133" s="13" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
     </row>
     <row r="134" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6513,29 +6476,29 @@
       <c r="D134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E134" s="57" t="s">
-        <v>153</v>
+      <c r="E134" s="30" t="s">
+        <v>137</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K134" s="2">
         <v>5</v>
       </c>
       <c r="L134" s="11" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
     </row>
     <row r="135" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6549,31 +6512,31 @@
         <v>11</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="H135" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I135" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J135" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K135" s="5">
         <v>6</v>
       </c>
       <c r="L135" s="12" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
     </row>
     <row r="136" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6587,31 +6550,31 @@
         <v>11</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="H136" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I136" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J136" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K136" s="5">
         <v>1</v>
       </c>
       <c r="L136" s="12" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
     </row>
     <row r="137" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6622,34 +6585,34 @@
         <v>4</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D137" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E137" s="58" t="s">
-        <v>158</v>
+      <c r="E137" s="31" t="s">
+        <v>142</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="H137" s="6" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I137" s="6" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="J137" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K137" s="5">
         <v>2</v>
       </c>
       <c r="L137" s="12" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
     </row>
     <row r="138" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6660,34 +6623,34 @@
         <v>5</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="H138" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I138" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J138" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K138" s="5">
         <v>3</v>
       </c>
       <c r="L138" s="12" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
     </row>
     <row r="139" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6698,34 +6661,34 @@
         <v>6</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="G139" s="9" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="H139" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I139" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J139" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K139" s="8">
         <v>4</v>
       </c>
       <c r="L139" s="13" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
     </row>
     <row r="140" spans="1:12" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -6741,29 +6704,29 @@
       <c r="D140" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E140" s="57" t="s">
-        <v>159</v>
+      <c r="E140" s="30" t="s">
+        <v>143</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="K140" s="2">
         <v>6</v>
       </c>
       <c r="L140" s="11" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
     </row>
     <row r="141" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6777,31 +6740,31 @@
         <v>11</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="H141" s="6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I141" s="6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="J141" s="6" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="K141" s="5">
         <v>1</v>
       </c>
       <c r="L141" s="12" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
     </row>
     <row r="142" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6815,31 +6778,31 @@
         <v>11</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="H142" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I142" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J142" s="6" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="K142" s="5">
         <v>2</v>
       </c>
       <c r="L142" s="12" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
     </row>
     <row r="143" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6850,34 +6813,34 @@
         <v>4</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D143" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E143" s="58" t="s">
-        <v>164</v>
+      <c r="E143" s="31" t="s">
+        <v>148</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="H143" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I143" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J143" s="6" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="K143" s="5">
         <v>3</v>
       </c>
       <c r="L143" s="12" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
     </row>
     <row r="144" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6888,34 +6851,34 @@
         <v>5</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="H144" s="6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I144" s="6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="J144" s="6" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="K144" s="5">
         <v>4</v>
       </c>
       <c r="L144" s="12" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
     </row>
     <row r="145" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6926,38 +6889,38 @@
         <v>6</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="F145" s="9" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="G145" s="9" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="H145" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I145" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J145" s="9" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="K145" s="8">
         <v>5</v>
       </c>
       <c r="L145" s="12" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
     </row>
     <row r="146" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="17">
+      <c r="A146" s="37">
         <v>25</v>
       </c>
       <c r="B146" s="18">
@@ -6970,30 +6933,30 @@
         <v>12</v>
       </c>
       <c r="E146" s="19" t="s">
-        <v>165</v>
+        <v>262</v>
       </c>
       <c r="F146" s="19" t="s">
-        <v>166</v>
+        <v>263</v>
       </c>
       <c r="G146" s="19" t="s">
-        <v>167</v>
+        <v>264</v>
       </c>
       <c r="H146" s="19" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I146" s="19" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J146" s="19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K146" s="18">
         <v>1</v>
       </c>
-      <c r="L146" s="20"/>
+      <c r="L146" s="38"/>
     </row>
     <row r="147" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="21">
+      <c r="A147" s="39">
         <v>25</v>
       </c>
       <c r="B147" s="22">
@@ -7003,33 +6966,33 @@
         <v>11</v>
       </c>
       <c r="D147" s="23" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E147" s="23" t="s">
-        <v>165</v>
+        <v>262</v>
       </c>
       <c r="F147" s="23" t="s">
-        <v>168</v>
+        <v>265</v>
       </c>
       <c r="G147" s="23" t="s">
-        <v>167</v>
+        <v>264</v>
       </c>
       <c r="H147" s="23" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I147" s="23" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J147" s="23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K147" s="22">
         <v>2</v>
       </c>
-      <c r="L147" s="24"/>
+      <c r="L147" s="40"/>
     </row>
     <row r="148" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="21">
+      <c r="A148" s="39">
         <v>25</v>
       </c>
       <c r="B148" s="22">
@@ -7039,138 +7002,138 @@
         <v>11</v>
       </c>
       <c r="D148" s="23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E148" s="23" t="s">
-        <v>165</v>
+        <v>262</v>
       </c>
       <c r="F148" s="23" t="s">
-        <v>167</v>
+        <v>264</v>
       </c>
       <c r="G148" s="23" t="s">
-        <v>167</v>
+        <v>264</v>
       </c>
       <c r="H148" s="23" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I148" s="23" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J148" s="23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K148" s="22">
         <v>3</v>
       </c>
-      <c r="L148" s="24"/>
+      <c r="L148" s="40"/>
     </row>
     <row r="149" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="21">
+      <c r="A149" s="39">
         <v>25</v>
       </c>
       <c r="B149" s="22">
         <v>4</v>
       </c>
       <c r="C149" s="23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D149" s="23" t="s">
         <v>12</v>
       </c>
       <c r="E149" s="23" t="s">
-        <v>169</v>
+        <v>266</v>
       </c>
       <c r="F149" s="23" t="s">
-        <v>166</v>
+        <v>263</v>
       </c>
       <c r="G149" s="23" t="s">
-        <v>167</v>
+        <v>264</v>
       </c>
       <c r="H149" s="23" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I149" s="23" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J149" s="23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K149" s="22">
         <v>4</v>
       </c>
-      <c r="L149" s="24"/>
+      <c r="L149" s="40"/>
     </row>
     <row r="150" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="21">
+      <c r="A150" s="39">
         <v>25</v>
       </c>
       <c r="B150" s="22">
         <v>5</v>
       </c>
       <c r="C150" s="23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D150" s="23" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E150" s="23" t="s">
-        <v>169</v>
+        <v>266</v>
       </c>
       <c r="F150" s="23" t="s">
-        <v>168</v>
+        <v>265</v>
       </c>
       <c r="G150" s="23" t="s">
-        <v>167</v>
+        <v>264</v>
       </c>
       <c r="H150" s="23" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I150" s="23" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J150" s="23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K150" s="22">
         <v>5</v>
       </c>
-      <c r="L150" s="24"/>
+      <c r="L150" s="40"/>
     </row>
     <row r="151" spans="1:12" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="25">
+      <c r="A151" s="41">
         <v>25</v>
       </c>
       <c r="B151" s="26">
         <v>6</v>
       </c>
       <c r="C151" s="27" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D151" s="27" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E151" s="27" t="s">
-        <v>169</v>
+        <v>266</v>
       </c>
       <c r="F151" s="27" t="s">
-        <v>167</v>
+        <v>264</v>
       </c>
       <c r="G151" s="27" t="s">
-        <v>167</v>
+        <v>264</v>
       </c>
       <c r="H151" s="27" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I151" s="27" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J151" s="27" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K151" s="26">
         <v>6</v>
       </c>
-      <c r="L151" s="28"/>
+      <c r="L151" s="42"/>
     </row>
     <row r="152" spans="1:12" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
@@ -7185,29 +7148,29 @@
       <c r="D152" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E152" s="57" t="s">
-        <v>170</v>
+      <c r="E152" s="30" t="s">
+        <v>149</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J152" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K152" s="2">
         <v>2</v>
       </c>
       <c r="L152" s="11" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
     </row>
     <row r="153" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7221,31 +7184,31 @@
         <v>11</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="H153" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I153" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J153" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K153" s="5">
         <v>3</v>
       </c>
       <c r="L153" s="12" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
     </row>
     <row r="154" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7259,31 +7222,31 @@
         <v>11</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="H154" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I154" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J154" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K154" s="5">
         <v>4</v>
       </c>
       <c r="L154" s="12" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
     </row>
     <row r="155" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -7294,34 +7257,34 @@
         <v>4</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D155" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E155" s="58" t="s">
-        <v>174</v>
+      <c r="E155" s="31" t="s">
+        <v>153</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="H155" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I155" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J155" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K155" s="5">
         <v>5</v>
       </c>
       <c r="L155" s="12" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
     </row>
     <row r="156" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7332,34 +7295,34 @@
         <v>5</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="H156" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I156" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J156" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K156" s="5">
         <v>6</v>
       </c>
       <c r="L156" s="12" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
     </row>
     <row r="157" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7370,34 +7333,34 @@
         <v>6</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="F157" s="9" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="G157" s="9" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="H157" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I157" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J157" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K157" s="8">
         <v>1</v>
       </c>
       <c r="L157" s="13" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
     </row>
     <row r="158" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -7413,20 +7376,20 @@
       <c r="D158" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E158" s="57" t="s">
-        <v>175</v>
+      <c r="E158" s="30" t="s">
+        <v>154</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="J158" s="3" t="s">
         <v>9</v>
@@ -7435,7 +7398,7 @@
         <v>3</v>
       </c>
       <c r="L158" s="11" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
     </row>
     <row r="159" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7449,22 +7412,22 @@
         <v>11</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="H159" s="6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I159" s="6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="J159" s="6" t="s">
         <v>9</v>
@@ -7473,7 +7436,7 @@
         <v>4</v>
       </c>
       <c r="L159" s="12" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
     </row>
     <row r="160" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7487,22 +7450,22 @@
         <v>11</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="H160" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I160" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J160" s="6" t="s">
         <v>9</v>
@@ -7511,7 +7474,7 @@
         <v>5</v>
       </c>
       <c r="L160" s="12" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
     </row>
     <row r="161" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -7522,25 +7485,25 @@
         <v>4</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D161" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E161" s="58" t="s">
-        <v>179</v>
+      <c r="E161" s="31" t="s">
+        <v>158</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="H161" s="6" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I161" s="6" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="J161" s="6" t="s">
         <v>9</v>
@@ -7549,7 +7512,7 @@
         <v>6</v>
       </c>
       <c r="L161" s="12" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
     </row>
     <row r="162" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7560,25 +7523,25 @@
         <v>5</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="G162" s="6" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="H162" s="6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I162" s="6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="J162" s="6" t="s">
         <v>9</v>
@@ -7587,7 +7550,7 @@
         <v>1</v>
       </c>
       <c r="L162" s="12" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
     </row>
     <row r="163" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7598,251 +7561,251 @@
         <v>6</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="F163" s="9" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="G163" s="9" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="H163" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I163" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J163" s="9" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="K163" s="8">
         <v>2</v>
       </c>
       <c r="L163" s="13" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="29">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="37">
         <v>28</v>
       </c>
-      <c r="B164" s="30">
+      <c r="B164" s="18">
         <v>1</v>
       </c>
-      <c r="C164" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D164" s="31" t="s">
+      <c r="C164" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D164" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E164" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="F164" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="G164" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="H164" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="I164" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="J164" s="31" t="s">
+      <c r="E164" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="F164" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="G164" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="H164" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I164" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J164" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K164" s="18">
+        <v>4</v>
+      </c>
+      <c r="L164" s="20"/>
+    </row>
+    <row r="165" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="39">
+        <v>28</v>
+      </c>
+      <c r="B165" s="22">
+        <v>2</v>
+      </c>
+      <c r="C165" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D165" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E165" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="F165" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="G165" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="H165" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I165" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J165" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K165" s="22">
+        <v>5</v>
+      </c>
+      <c r="L165" s="24"/>
+    </row>
+    <row r="166" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="39">
+        <v>28</v>
+      </c>
+      <c r="B166" s="22">
+        <v>3</v>
+      </c>
+      <c r="C166" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D166" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="K164" s="30">
+      <c r="E166" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="F166" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="G166" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="H166" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I166" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J166" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K166" s="22">
+        <v>6</v>
+      </c>
+      <c r="L166" s="24"/>
+    </row>
+    <row r="167" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="39">
+        <v>28</v>
+      </c>
+      <c r="B167" s="22">
         <v>4</v>
       </c>
-      <c r="L164" s="32"/>
-    </row>
-    <row r="165" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="33">
+      <c r="C167" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D167" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E167" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="F167" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="G167" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="H167" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I167" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="J167" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K167" s="22">
+        <v>1</v>
+      </c>
+      <c r="L167" s="24"/>
+    </row>
+    <row r="168" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="39">
         <v>28</v>
       </c>
-      <c r="B165" s="34">
+      <c r="B168" s="22">
+        <v>5</v>
+      </c>
+      <c r="C168" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D168" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E168" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="F168" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="G168" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="H168" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I168" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J168" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K168" s="22">
         <v>2</v>
       </c>
-      <c r="C165" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D165" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="E165" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="F165" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="G165" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="H165" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I165" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J165" s="35" t="s">
+      <c r="L168" s="24"/>
+    </row>
+    <row r="169" spans="1:13" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="41">
+        <v>28</v>
+      </c>
+      <c r="B169" s="26">
+        <v>6</v>
+      </c>
+      <c r="C169" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D169" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="K165" s="34">
-        <v>5</v>
-      </c>
-      <c r="L165" s="36"/>
-    </row>
-    <row r="166" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="33">
-        <v>28</v>
-      </c>
-      <c r="B166" s="34">
+      <c r="E169" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="F169" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="G169" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="H169" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I169" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="J169" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="K169" s="26">
         <v>3</v>
       </c>
-      <c r="C166" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D166" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E166" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="F166" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="G166" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="H166" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I166" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="J166" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="K166" s="34">
-        <v>6</v>
-      </c>
-      <c r="L166" s="36"/>
-    </row>
-    <row r="167" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="33">
-        <v>28</v>
-      </c>
-      <c r="B167" s="34">
-        <v>4</v>
-      </c>
-      <c r="C167" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="D167" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E167" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="F167" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="G167" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="H167" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="I167" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="J167" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="K167" s="34">
-        <v>1</v>
-      </c>
-      <c r="L167" s="36"/>
-    </row>
-    <row r="168" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="33">
-        <v>28</v>
-      </c>
-      <c r="B168" s="34">
-        <v>5</v>
-      </c>
-      <c r="C168" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="D168" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="E168" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="F168" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="G168" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="H168" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I168" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J168" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="K168" s="34">
-        <v>2</v>
-      </c>
-      <c r="L168" s="36"/>
-    </row>
-    <row r="169" spans="1:13" s="38" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="37">
-        <v>28</v>
-      </c>
-      <c r="B169" s="38">
-        <v>6</v>
-      </c>
-      <c r="C169" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="D169" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="E169" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="F169" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="G169" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="H169" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="I169" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="J169" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="K169" s="38">
-        <v>3</v>
-      </c>
-      <c r="L169" s="40"/>
+      <c r="L169" s="28"/>
     </row>
     <row r="170" spans="1:13" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
@@ -7857,29 +7820,29 @@
       <c r="D170" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E170" s="57" t="s">
-        <v>186</v>
+      <c r="E170" s="30" t="s">
+        <v>165</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>187</v>
+        <v>273</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>188</v>
+        <v>271</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I170" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J170" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K170" s="2">
         <v>5</v>
       </c>
       <c r="L170" s="11" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
     </row>
     <row r="171" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7893,31 +7856,31 @@
         <v>11</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>189</v>
+        <v>272</v>
       </c>
       <c r="G171" s="6" t="s">
-        <v>188</v>
+        <v>271</v>
       </c>
       <c r="H171" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I171" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J171" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K171" s="5">
         <v>6</v>
       </c>
       <c r="L171" s="12" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
     </row>
     <row r="172" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7931,31 +7894,31 @@
         <v>11</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>190</v>
+        <v>271</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>188</v>
+        <v>271</v>
       </c>
       <c r="H172" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I172" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J172" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K172" s="5">
         <v>1</v>
       </c>
       <c r="L172" s="12" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
     </row>
     <row r="173" spans="1:13" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -7966,34 +7929,34 @@
         <v>4</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D173" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E173" s="58" t="s">
-        <v>191</v>
+      <c r="E173" s="31" t="s">
+        <v>166</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>187</v>
+        <v>273</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>188</v>
+        <v>271</v>
       </c>
       <c r="H173" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I173" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J173" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K173" s="5">
         <v>2</v>
       </c>
       <c r="L173" s="12" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
     </row>
     <row r="174" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -8004,34 +7967,34 @@
         <v>5</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>189</v>
+        <v>272</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>188</v>
+        <v>271</v>
       </c>
       <c r="H174" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I174" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J174" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K174" s="5">
         <v>3</v>
       </c>
       <c r="L174" s="12" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
     </row>
     <row r="175" spans="1:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8042,38 +8005,38 @@
         <v>6</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E175" s="9" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="F175" s="9" t="s">
-        <v>190</v>
+        <v>271</v>
       </c>
       <c r="G175" s="9" t="s">
-        <v>188</v>
+        <v>271</v>
       </c>
       <c r="H175" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I175" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J175" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K175" s="8">
         <v>4</v>
       </c>
       <c r="L175" s="13" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
     </row>
     <row r="176" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="17">
+      <c r="A176" s="37">
         <v>30</v>
       </c>
       <c r="B176" s="18">
@@ -8086,19 +8049,19 @@
         <v>12</v>
       </c>
       <c r="E176" s="19" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="F176" s="19" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="G176" s="19" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="H176" s="19" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I176" s="19" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="J176" s="19" t="s">
         <v>9</v>
@@ -8106,11 +8069,11 @@
       <c r="K176" s="18">
         <v>6</v>
       </c>
-      <c r="L176" s="20"/>
-      <c r="M176" s="20"/>
+      <c r="L176" s="38"/>
+      <c r="M176" s="38"/>
     </row>
     <row r="177" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="21">
+      <c r="A177" s="39">
         <v>30</v>
       </c>
       <c r="B177" s="22">
@@ -8120,22 +8083,22 @@
         <v>11</v>
       </c>
       <c r="D177" s="23" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E177" s="23" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="F177" s="23" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="G177" s="23" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="H177" s="23" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I177" s="23" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="J177" s="23" t="s">
         <v>9</v>
@@ -8143,11 +8106,11 @@
       <c r="K177" s="22">
         <v>1</v>
       </c>
-      <c r="L177" s="24"/>
-      <c r="M177" s="24"/>
+      <c r="L177" s="40"/>
+      <c r="M177" s="40"/>
     </row>
     <row r="178" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="21">
+      <c r="A178" s="39">
         <v>30</v>
       </c>
       <c r="B178" s="22">
@@ -8157,22 +8120,22 @@
         <v>11</v>
       </c>
       <c r="D178" s="23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E178" s="23" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="F178" s="23" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="G178" s="23" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="H178" s="23" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I178" s="23" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J178" s="23" t="s">
         <v>9</v>
@@ -8180,119 +8143,119 @@
       <c r="K178" s="22">
         <v>2</v>
       </c>
-      <c r="L178" s="24"/>
-      <c r="M178" s="24"/>
+      <c r="L178" s="40"/>
+      <c r="M178" s="40"/>
     </row>
     <row r="179" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="21">
+      <c r="A179" s="39">
         <v>30</v>
       </c>
       <c r="B179" s="22">
         <v>4</v>
       </c>
       <c r="C179" s="23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D179" s="23" t="s">
         <v>12</v>
       </c>
       <c r="E179" s="23" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="F179" s="23" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="G179" s="23" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="H179" s="23" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I179" s="23" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="J179" s="23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K179" s="22">
         <v>3</v>
       </c>
-      <c r="L179" s="24"/>
-      <c r="M179" s="24"/>
+      <c r="L179" s="40"/>
+      <c r="M179" s="40"/>
     </row>
     <row r="180" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="21">
+      <c r="A180" s="39">
         <v>30</v>
       </c>
       <c r="B180" s="22">
         <v>5</v>
       </c>
       <c r="C180" s="23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D180" s="23" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E180" s="23" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="F180" s="23" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="G180" s="23" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="H180" s="23" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I180" s="23" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="J180" s="23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K180" s="22">
         <v>4</v>
       </c>
-      <c r="L180" s="24"/>
-      <c r="M180" s="24"/>
+      <c r="L180" s="40"/>
+      <c r="M180" s="40"/>
     </row>
     <row r="181" spans="1:13" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="25">
+      <c r="A181" s="41">
         <v>30</v>
       </c>
       <c r="B181" s="26">
         <v>6</v>
       </c>
       <c r="C181" s="27" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D181" s="27" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E181" s="27" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="F181" s="27" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="G181" s="27" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="H181" s="27" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I181" s="27" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J181" s="27" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K181" s="26">
         <v>5</v>
       </c>
-      <c r="L181" s="28"/>
-      <c r="M181" s="28"/>
+      <c r="L181" s="42"/>
+      <c r="M181" s="42"/>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L182" s="16"/>
